--- a/BWSC2019-EneMane/PM/PM.xlsx
+++ b/BWSC2019-EneMane/PM/PM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouho\Documents\GitHub\solar-energy-management-\BWSC2019-EneMane\PM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yousugoi\Desktop\solar-energy-management-\BWSC2019-EneMane\PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49529CFD-436A-40C2-A101-0E46E886F9FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56504B7D-71C6-4E41-A708-35EAE9EA0AA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48F4E5B9-CD80-4D92-94B2-C6C662884FF4}"/>
+    <workbookView xWindow="11145" yWindow="1380" windowWidth="16815" windowHeight="13545" xr2:uid="{48F4E5B9-CD80-4D92-94B2-C6C662884FF4}"/>
   </bookViews>
   <sheets>
     <sheet name="PM_１" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <externalReferences>
     <externalReference r:id="rId8"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="59">
   <si>
     <t>Trip</t>
     <phoneticPr fontId="2"/>
@@ -285,54 +285,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>速度[km/h]</t>
-    <rPh sb="0" eb="2">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Kspost[km]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Trip1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Trip2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Trip3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Trip4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Trip5</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Trip6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Trip7</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Trip8</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Trip9</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Trip10</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -357,14 +310,83 @@
     <t>vd[km/h](事前予定)</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>標高[m]</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>位置エネ[J]</t>
+    <rPh sb="0" eb="2">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スタート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Trip間の走行時間[s]</t>
+    <rPh sb="4" eb="5">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均の勾配損失[W]</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウバイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソンシツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>距離[km]</t>
+    <rPh sb="0" eb="2">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>巡航速度[km/h]</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Trip番号</t>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="187" formatCode="&quot;Trip&quot;0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -526,15 +548,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -604,9 +629,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{229E9E11-2A29-47FC-9FC2-E5EC3864E7CB}"/>
     <cellStyle name="標準 2 2" xfId="1" xr:uid="{0F75D923-9FF7-4FC9-8B0B-7780F0EE2E7D}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7889,9 +7924,9 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>6350</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>215900</xdr:rowOff>
+          <xdr:rowOff>219075</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
@@ -7929,7 +7964,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="54864" rIns="36576" bIns="54864" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="41148" rIns="27432" bIns="41148" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -8078,16 +8113,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>90715</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158752</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>99785</xdr:rowOff>
+      <xdr:rowOff>113393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>435429</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>503465</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>99785</xdr:rowOff>
+      <xdr:rowOff>113393</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8102,8 +8137,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7547429" y="1687285"/>
-          <a:ext cx="2993571" cy="1133929"/>
+          <a:off x="9017002" y="1827893"/>
+          <a:ext cx="3066142" cy="1224643"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8195,6 +8230,313 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>947965</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>585107</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AA82F24-79C6-436E-B662-71AE4B47A8F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2893786" y="0"/>
+          <a:ext cx="3746500" cy="898070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>問題：勾配の計算で参照できない</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>損失曲線のタブ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>問題：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Vd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の計算に参照するのも面倒</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>課題：速度入力方法を検討すべき</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>111579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312963</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{480B1843-B4D3-400D-B0E4-F4500665600E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2503714" y="4030436"/>
+          <a:ext cx="3864428" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>現状：速度や損失値は変更なし</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>問題：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Trip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>番号に対する速度と計算値がバラバラ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>課題：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Trip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>番号に合わせて値を参照するなどにすべき</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（速度の入力方法の検討と同時に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8276,16 +8618,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>550333</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>557136</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>172812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8300,8 +8642,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8223250" y="804333"/>
-          <a:ext cx="5545667" cy="275167"/>
+          <a:off x="9020779" y="5698823"/>
+          <a:ext cx="5742971" cy="1087060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8336,6 +8678,21 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" strike="sngStrike" baseline="0"/>
+            <a:t>各</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" strike="sngStrike" baseline="0"/>
+            <a:t>Trip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" strike="sngStrike" baseline="0"/>
+            <a:t>毎で勾配を考慮した曲線を作っておく、シミュレーション時にはそれらを使用</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" strike="sngStrike" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>各</a:t>
           </a:r>
@@ -8345,7 +8702,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>毎で勾配を考慮した曲線を作っておく、シミュレーション時にはそれらを使用</a:t>
+            <a:t>毎の標高から、標高による位置エネルギーを算出。それを走行時間で割ることで平均の勾配損失量を算出。シミュで考慮する。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8354,16 +8711,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>74084</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>263073</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>698501</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>575657</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65466</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8380,8 +8737,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10678583" y="306917"/>
-          <a:ext cx="317501" cy="497416"/>
+          <a:off x="11584216" y="5145468"/>
+          <a:ext cx="312584" cy="553355"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8402,6 +8759,294 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>227239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B42ADF44-2658-453C-BCA8-0F7C670BD324}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9824357" y="2186668"/>
+          <a:ext cx="2177143" cy="2956832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>167820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="吹き出し: 角を丸めた四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DF2AF4-BCE7-4339-9E2C-2AA2A5F077C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11566071" y="1392463"/>
+          <a:ext cx="1133929" cy="648608"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -21560"/>
+            <a:gd name="adj2" fmla="val 68368"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>計算部分</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>最も右が出力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97D918AF-C8B8-4F39-9597-EB529FC0B13A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9153525" y="2205718"/>
+          <a:ext cx="684439" cy="2937782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>58964</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>179160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="吹き出し: 角を丸めた四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B972C89-A3CE-419C-91BE-FD3C9F02CFE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9320893" y="1798411"/>
+          <a:ext cx="562428" cy="340178"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 13089"/>
+            <a:gd name="adj2" fmla="val 66746"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9545,24 +10190,24 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="23" style="11" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.08203125" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -9585,7 +10230,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -9604,7 +10249,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>70</v>
       </c>
@@ -9618,7 +10263,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -9638,10 +10283,13 @@
         <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -9661,8 +10309,15 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>IF(G6&lt;損失曲線!$J$12,1,IF(G6&lt;損失曲線!$J$13,2,IF(G6&lt;損失曲線!$J$14,3,IF(G6&lt;損失曲線!$J$15,4,IF(G6&lt;損失曲線!$J$16,5,IF(G6&lt;損失曲線!$J$17,6,IF(G6&lt;損失曲線!$J$18,7,IF(G6&lt;損失曲線!$J$19,8,IF(G6&lt;損失曲線!$J$20,9,IF(G6&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2</v>
       </c>
@@ -9682,8 +10337,16 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7">
+        <f>(($B$7-$B$6)*24)*F6+G6</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="24">
+        <f>IF(G7&lt;損失曲線!$J$12,1,IF(G7&lt;損失曲線!$J$13,2,IF(G7&lt;損失曲線!$J$14,3,IF(G7&lt;損失曲線!$J$15,4,IF(G7&lt;損失曲線!$J$16,5,IF(G7&lt;損失曲線!$J$17,6,IF(G7&lt;損失曲線!$J$18,7,IF(G7&lt;損失曲線!$J$19,8,IF(G7&lt;損失曲線!$J$20,9,IF(G7&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>3</v>
       </c>
@@ -9703,8 +10366,16 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8" s="24">
+        <f>(($B$7-$B$6)*24)*F7+G7</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="24">
+        <f>IF(G8&lt;損失曲線!$J$12,1,IF(G8&lt;損失曲線!$J$13,2,IF(G8&lt;損失曲線!$J$14,3,IF(G8&lt;損失曲線!$J$15,4,IF(G8&lt;損失曲線!$J$16,5,IF(G8&lt;損失曲線!$J$17,6,IF(G8&lt;損失曲線!$J$18,7,IF(G8&lt;損失曲線!$J$19,8,IF(G8&lt;損失曲線!$J$20,9,IF(G8&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>4</v>
       </c>
@@ -9724,8 +10395,16 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9" s="24">
+        <f t="shared" ref="G8:G71" si="1">(($B$7-$B$6)*24)*F8+G8</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="24">
+        <f>IF(G9&lt;損失曲線!$J$12,1,IF(G9&lt;損失曲線!$J$13,2,IF(G9&lt;損失曲線!$J$14,3,IF(G9&lt;損失曲線!$J$15,4,IF(G9&lt;損失曲線!$J$16,5,IF(G9&lt;損失曲線!$J$17,6,IF(G9&lt;損失曲線!$J$18,7,IF(G9&lt;損失曲線!$J$19,8,IF(G9&lt;損失曲線!$J$20,9,IF(G9&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>5</v>
       </c>
@@ -9745,8 +10424,16 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G10" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="24">
+        <f>IF(G10&lt;損失曲線!$J$12,1,IF(G10&lt;損失曲線!$J$13,2,IF(G10&lt;損失曲線!$J$14,3,IF(G10&lt;損失曲線!$J$15,4,IF(G10&lt;損失曲線!$J$16,5,IF(G10&lt;損失曲線!$J$17,6,IF(G10&lt;損失曲線!$J$18,7,IF(G10&lt;損失曲線!$J$19,8,IF(G10&lt;損失曲線!$J$20,9,IF(G10&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>6</v>
       </c>
@@ -9766,8 +10453,16 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="24">
+        <f>IF(G11&lt;損失曲線!$J$12,1,IF(G11&lt;損失曲線!$J$13,2,IF(G11&lt;損失曲線!$J$14,3,IF(G11&lt;損失曲線!$J$15,4,IF(G11&lt;損失曲線!$J$16,5,IF(G11&lt;損失曲線!$J$17,6,IF(G11&lt;損失曲線!$J$18,7,IF(G11&lt;損失曲線!$J$19,8,IF(G11&lt;損失曲線!$J$20,9,IF(G11&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>7</v>
       </c>
@@ -9787,8 +10482,16 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G12" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="24">
+        <f>IF(G12&lt;損失曲線!$J$12,1,IF(G12&lt;損失曲線!$J$13,2,IF(G12&lt;損失曲線!$J$14,3,IF(G12&lt;損失曲線!$J$15,4,IF(G12&lt;損失曲線!$J$16,5,IF(G12&lt;損失曲線!$J$17,6,IF(G12&lt;損失曲線!$J$18,7,IF(G12&lt;損失曲線!$J$19,8,IF(G12&lt;損失曲線!$J$20,9,IF(G12&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>8</v>
       </c>
@@ -9808,8 +10511,16 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G13" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="24">
+        <f>IF(G13&lt;損失曲線!$J$12,1,IF(G13&lt;損失曲線!$J$13,2,IF(G13&lt;損失曲線!$J$14,3,IF(G13&lt;損失曲線!$J$15,4,IF(G13&lt;損失曲線!$J$16,5,IF(G13&lt;損失曲線!$J$17,6,IF(G13&lt;損失曲線!$J$18,7,IF(G13&lt;損失曲線!$J$19,8,IF(G13&lt;損失曲線!$J$20,9,IF(G13&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>9</v>
       </c>
@@ -9829,8 +10540,16 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="24">
+        <f>IF(G14&lt;損失曲線!$J$12,1,IF(G14&lt;損失曲線!$J$13,2,IF(G14&lt;損失曲線!$J$14,3,IF(G14&lt;損失曲線!$J$15,4,IF(G14&lt;損失曲線!$J$16,5,IF(G14&lt;損失曲線!$J$17,6,IF(G14&lt;損失曲線!$J$18,7,IF(G14&lt;損失曲線!$J$19,8,IF(G14&lt;損失曲線!$J$20,9,IF(G14&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10</v>
       </c>
@@ -9850,8 +10569,16 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="24">
+        <f>IF(G15&lt;損失曲線!$J$12,1,IF(G15&lt;損失曲線!$J$13,2,IF(G15&lt;損失曲線!$J$14,3,IF(G15&lt;損失曲線!$J$15,4,IF(G15&lt;損失曲線!$J$16,5,IF(G15&lt;損失曲線!$J$17,6,IF(G15&lt;損失曲線!$J$18,7,IF(G15&lt;損失曲線!$J$19,8,IF(G15&lt;損失曲線!$J$20,9,IF(G15&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>11</v>
       </c>
@@ -9871,8 +10598,16 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G16" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="24">
+        <f>IF(G16&lt;損失曲線!$J$12,1,IF(G16&lt;損失曲線!$J$13,2,IF(G16&lt;損失曲線!$J$14,3,IF(G16&lt;損失曲線!$J$15,4,IF(G16&lt;損失曲線!$J$16,5,IF(G16&lt;損失曲線!$J$17,6,IF(G16&lt;損失曲線!$J$18,7,IF(G16&lt;損失曲線!$J$19,8,IF(G16&lt;損失曲線!$J$20,9,IF(G16&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>12</v>
       </c>
@@ -9892,8 +10627,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G17" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="24">
+        <f>IF(G17&lt;損失曲線!$J$12,1,IF(G17&lt;損失曲線!$J$13,2,IF(G17&lt;損失曲線!$J$14,3,IF(G17&lt;損失曲線!$J$15,4,IF(G17&lt;損失曲線!$J$16,5,IF(G17&lt;損失曲線!$J$17,6,IF(G17&lt;損失曲線!$J$18,7,IF(G17&lt;損失曲線!$J$19,8,IF(G17&lt;損失曲線!$J$20,9,IF(G17&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>13</v>
       </c>
@@ -9904,7 +10647,7 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D18" s="11">
-        <f t="shared" ref="D18:D42" si="1">-$B$4</f>
+        <f t="shared" ref="D18:D42" si="2">-$B$4</f>
         <v>-705.01312277163879</v>
       </c>
       <c r="E18">
@@ -9915,8 +10658,16 @@
         <f>$A$4</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18" s="24">
+        <f>(($B$7-$B$6)*24)*F17+G17</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="24">
+        <f>IF(G18&lt;損失曲線!$J$12,1,IF(G18&lt;損失曲線!$J$13,2,IF(G18&lt;損失曲線!$J$14,3,IF(G18&lt;損失曲線!$J$15,4,IF(G18&lt;損失曲線!$J$16,5,IF(G18&lt;損失曲線!$J$17,6,IF(G18&lt;損失曲線!$J$18,7,IF(G18&lt;損失曲線!$J$19,8,IF(G18&lt;損失曲線!$J$20,9,IF(G18&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>14</v>
       </c>
@@ -9927,19 +10678,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D19" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19:F42" si="3">$A$4</f>
+        <v>70</v>
+      </c>
+      <c r="G19" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F19">
-        <f t="shared" ref="F19:F42" si="2">$A$4</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>11.666666668024845</v>
+      </c>
+      <c r="H19" s="24">
+        <f>IF(G19&lt;損失曲線!$J$12,1,IF(G19&lt;損失曲線!$J$13,2,IF(G19&lt;損失曲線!$J$14,3,IF(G19&lt;損失曲線!$J$15,4,IF(G19&lt;損失曲線!$J$16,5,IF(G19&lt;損失曲線!$J$17,6,IF(G19&lt;損失曲線!$J$18,7,IF(G19&lt;損失曲線!$J$19,8,IF(G19&lt;損失曲線!$J$20,9,IF(G19&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>15</v>
       </c>
@@ -9950,19 +10709,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D20" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G20" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>23.333333336049691</v>
+      </c>
+      <c r="H20" s="24">
+        <f>IF(G20&lt;損失曲線!$J$12,1,IF(G20&lt;損失曲線!$J$13,2,IF(G20&lt;損失曲線!$J$14,3,IF(G20&lt;損失曲線!$J$15,4,IF(G20&lt;損失曲線!$J$16,5,IF(G20&lt;損失曲線!$J$17,6,IF(G20&lt;損失曲線!$J$18,7,IF(G20&lt;損失曲線!$J$19,8,IF(G20&lt;損失曲線!$J$20,9,IF(G20&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>16</v>
       </c>
@@ -9973,19 +10740,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D21" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G21" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>35.000000004074536</v>
+      </c>
+      <c r="H21" s="24">
+        <f>IF(G21&lt;損失曲線!$J$12,1,IF(G21&lt;損失曲線!$J$13,2,IF(G21&lt;損失曲線!$J$14,3,IF(G21&lt;損失曲線!$J$15,4,IF(G21&lt;損失曲線!$J$16,5,IF(G21&lt;損失曲線!$J$17,6,IF(G21&lt;損失曲線!$J$18,7,IF(G21&lt;損失曲線!$J$19,8,IF(G21&lt;損失曲線!$J$20,9,IF(G21&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>17</v>
       </c>
@@ -9996,19 +10771,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D22" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G22" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>46.666666672099382</v>
+      </c>
+      <c r="H22" s="24">
+        <f>IF(G22&lt;損失曲線!$J$12,1,IF(G22&lt;損失曲線!$J$13,2,IF(G22&lt;損失曲線!$J$14,3,IF(G22&lt;損失曲線!$J$15,4,IF(G22&lt;損失曲線!$J$16,5,IF(G22&lt;損失曲線!$J$17,6,IF(G22&lt;損失曲線!$J$18,7,IF(G22&lt;損失曲線!$J$19,8,IF(G22&lt;損失曲線!$J$20,9,IF(G22&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>18</v>
       </c>
@@ -10019,19 +10802,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D23" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G23" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>58.333333340124227</v>
+      </c>
+      <c r="H23" s="24">
+        <f>IF(G23&lt;損失曲線!$J$12,1,IF(G23&lt;損失曲線!$J$13,2,IF(G23&lt;損失曲線!$J$14,3,IF(G23&lt;損失曲線!$J$15,4,IF(G23&lt;損失曲線!$J$16,5,IF(G23&lt;損失曲線!$J$17,6,IF(G23&lt;損失曲線!$J$18,7,IF(G23&lt;損失曲線!$J$19,8,IF(G23&lt;損失曲線!$J$20,9,IF(G23&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>19</v>
       </c>
@@ -10042,19 +10833,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D24" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G24" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>70.000000008149073</v>
+      </c>
+      <c r="H24" s="24">
+        <f>IF(G24&lt;損失曲線!$J$12,1,IF(G24&lt;損失曲線!$J$13,2,IF(G24&lt;損失曲線!$J$14,3,IF(G24&lt;損失曲線!$J$15,4,IF(G24&lt;損失曲線!$J$16,5,IF(G24&lt;損失曲線!$J$17,6,IF(G24&lt;損失曲線!$J$18,7,IF(G24&lt;損失曲線!$J$19,8,IF(G24&lt;損失曲線!$J$20,9,IF(G24&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>20</v>
       </c>
@@ -10065,19 +10864,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D25" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G25" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>81.666666676173918</v>
+      </c>
+      <c r="H25" s="24">
+        <f>IF(G25&lt;損失曲線!$J$12,1,IF(G25&lt;損失曲線!$J$13,2,IF(G25&lt;損失曲線!$J$14,3,IF(G25&lt;損失曲線!$J$15,4,IF(G25&lt;損失曲線!$J$16,5,IF(G25&lt;損失曲線!$J$17,6,IF(G25&lt;損失曲線!$J$18,7,IF(G25&lt;損失曲線!$J$19,8,IF(G25&lt;損失曲線!$J$20,9,IF(G25&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>21</v>
       </c>
@@ -10088,19 +10895,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D26" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G26" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>93.333333344198763</v>
+      </c>
+      <c r="H26" s="24">
+        <f>IF(G26&lt;損失曲線!$J$12,1,IF(G26&lt;損失曲線!$J$13,2,IF(G26&lt;損失曲線!$J$14,3,IF(G26&lt;損失曲線!$J$15,4,IF(G26&lt;損失曲線!$J$16,5,IF(G26&lt;損失曲線!$J$17,6,IF(G26&lt;損失曲線!$J$18,7,IF(G26&lt;損失曲線!$J$19,8,IF(G26&lt;損失曲線!$J$20,9,IF(G26&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>22</v>
       </c>
@@ -10111,19 +10926,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D27" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G27" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>105.00000001222361</v>
+      </c>
+      <c r="H27" s="24">
+        <f>IF(G27&lt;損失曲線!$J$12,1,IF(G27&lt;損失曲線!$J$13,2,IF(G27&lt;損失曲線!$J$14,3,IF(G27&lt;損失曲線!$J$15,4,IF(G27&lt;損失曲線!$J$16,5,IF(G27&lt;損失曲線!$J$17,6,IF(G27&lt;損失曲線!$J$18,7,IF(G27&lt;損失曲線!$J$19,8,IF(G27&lt;損失曲線!$J$20,9,IF(G27&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>23</v>
       </c>
@@ -10134,19 +10957,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D28" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G28" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>116.66666668024845</v>
+      </c>
+      <c r="H28" s="24">
+        <f>IF(G28&lt;損失曲線!$J$12,1,IF(G28&lt;損失曲線!$J$13,2,IF(G28&lt;損失曲線!$J$14,3,IF(G28&lt;損失曲線!$J$15,4,IF(G28&lt;損失曲線!$J$16,5,IF(G28&lt;損失曲線!$J$17,6,IF(G28&lt;損失曲線!$J$18,7,IF(G28&lt;損失曲線!$J$19,8,IF(G28&lt;損失曲線!$J$20,9,IF(G28&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>24</v>
       </c>
@@ -10157,19 +10988,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D29" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G29" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>128.3333333482733</v>
+      </c>
+      <c r="H29" s="24">
+        <f>IF(G29&lt;損失曲線!$J$12,1,IF(G29&lt;損失曲線!$J$13,2,IF(G29&lt;損失曲線!$J$14,3,IF(G29&lt;損失曲線!$J$15,4,IF(G29&lt;損失曲線!$J$16,5,IF(G29&lt;損失曲線!$J$17,6,IF(G29&lt;損失曲線!$J$18,7,IF(G29&lt;損失曲線!$J$19,8,IF(G29&lt;損失曲線!$J$20,9,IF(G29&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>25</v>
       </c>
@@ -10180,19 +11019,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D30" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G30" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>140.00000001629815</v>
+      </c>
+      <c r="H30" s="24">
+        <f>IF(G30&lt;損失曲線!$J$12,1,IF(G30&lt;損失曲線!$J$13,2,IF(G30&lt;損失曲線!$J$14,3,IF(G30&lt;損失曲線!$J$15,4,IF(G30&lt;損失曲線!$J$16,5,IF(G30&lt;損失曲線!$J$17,6,IF(G30&lt;損失曲線!$J$18,7,IF(G30&lt;損失曲線!$J$19,8,IF(G30&lt;損失曲線!$J$20,9,IF(G30&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>26</v>
       </c>
@@ -10203,19 +11050,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D31" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G31" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>151.66666668432299</v>
+      </c>
+      <c r="H31" s="24">
+        <f>IF(G31&lt;損失曲線!$J$12,1,IF(G31&lt;損失曲線!$J$13,2,IF(G31&lt;損失曲線!$J$14,3,IF(G31&lt;損失曲線!$J$15,4,IF(G31&lt;損失曲線!$J$16,5,IF(G31&lt;損失曲線!$J$17,6,IF(G31&lt;損失曲線!$J$18,7,IF(G31&lt;損失曲線!$J$19,8,IF(G31&lt;損失曲線!$J$20,9,IF(G31&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>27</v>
       </c>
@@ -10226,19 +11081,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D32" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G32" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>163.33333335234784</v>
+      </c>
+      <c r="H32" s="24">
+        <f>IF(G32&lt;損失曲線!$J$12,1,IF(G32&lt;損失曲線!$J$13,2,IF(G32&lt;損失曲線!$J$14,3,IF(G32&lt;損失曲線!$J$15,4,IF(G32&lt;損失曲線!$J$16,5,IF(G32&lt;損失曲線!$J$17,6,IF(G32&lt;損失曲線!$J$18,7,IF(G32&lt;損失曲線!$J$19,8,IF(G32&lt;損失曲線!$J$20,9,IF(G32&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>28</v>
       </c>
@@ -10249,19 +11112,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D33" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G33" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>175.00000002037268</v>
+      </c>
+      <c r="H33" s="24">
+        <f>IF(G33&lt;損失曲線!$J$12,1,IF(G33&lt;損失曲線!$J$13,2,IF(G33&lt;損失曲線!$J$14,3,IF(G33&lt;損失曲線!$J$15,4,IF(G33&lt;損失曲線!$J$16,5,IF(G33&lt;損失曲線!$J$17,6,IF(G33&lt;損失曲線!$J$18,7,IF(G33&lt;損失曲線!$J$19,8,IF(G33&lt;損失曲線!$J$20,9,IF(G33&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>29</v>
       </c>
@@ -10272,19 +11143,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D34" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G34" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>186.66666668839753</v>
+      </c>
+      <c r="H34" s="24">
+        <f>IF(G34&lt;損失曲線!$J$12,1,IF(G34&lt;損失曲線!$J$13,2,IF(G34&lt;損失曲線!$J$14,3,IF(G34&lt;損失曲線!$J$15,4,IF(G34&lt;損失曲線!$J$16,5,IF(G34&lt;損失曲線!$J$17,6,IF(G34&lt;損失曲線!$J$18,7,IF(G34&lt;損失曲線!$J$19,8,IF(G34&lt;損失曲線!$J$20,9,IF(G34&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>30</v>
       </c>
@@ -10295,19 +11174,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D35" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G35" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>198.33333335642237</v>
+      </c>
+      <c r="H35" s="24">
+        <f>IF(G35&lt;損失曲線!$J$12,1,IF(G35&lt;損失曲線!$J$13,2,IF(G35&lt;損失曲線!$J$14,3,IF(G35&lt;損失曲線!$J$15,4,IF(G35&lt;損失曲線!$J$16,5,IF(G35&lt;損失曲線!$J$17,6,IF(G35&lt;損失曲線!$J$18,7,IF(G35&lt;損失曲線!$J$19,8,IF(G35&lt;損失曲線!$J$20,9,IF(G35&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>31</v>
       </c>
@@ -10318,19 +11205,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D36" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G36" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>210.00000002444722</v>
+      </c>
+      <c r="H36" s="24">
+        <f>IF(G36&lt;損失曲線!$J$12,1,IF(G36&lt;損失曲線!$J$13,2,IF(G36&lt;損失曲線!$J$14,3,IF(G36&lt;損失曲線!$J$15,4,IF(G36&lt;損失曲線!$J$16,5,IF(G36&lt;損失曲線!$J$17,6,IF(G36&lt;損失曲線!$J$18,7,IF(G36&lt;損失曲線!$J$19,8,IF(G36&lt;損失曲線!$J$20,9,IF(G36&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>32</v>
       </c>
@@ -10341,19 +11236,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D37" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G37" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>221.66666669247206</v>
+      </c>
+      <c r="H37" s="24">
+        <f>IF(G37&lt;損失曲線!$J$12,1,IF(G37&lt;損失曲線!$J$13,2,IF(G37&lt;損失曲線!$J$14,3,IF(G37&lt;損失曲線!$J$15,4,IF(G37&lt;損失曲線!$J$16,5,IF(G37&lt;損失曲線!$J$17,6,IF(G37&lt;損失曲線!$J$18,7,IF(G37&lt;損失曲線!$J$19,8,IF(G37&lt;損失曲線!$J$20,9,IF(G37&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>33</v>
       </c>
@@ -10364,19 +11267,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D38" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38:E69" si="4">-D38</f>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G38" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E38">
-        <f t="shared" ref="E38:E69" si="3">-D38</f>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>233.33333336049691</v>
+      </c>
+      <c r="H38" s="24">
+        <f>IF(G38&lt;損失曲線!$J$12,1,IF(G38&lt;損失曲線!$J$13,2,IF(G38&lt;損失曲線!$J$14,3,IF(G38&lt;損失曲線!$J$15,4,IF(G38&lt;損失曲線!$J$16,5,IF(G38&lt;損失曲線!$J$17,6,IF(G38&lt;損失曲線!$J$18,7,IF(G38&lt;損失曲線!$J$19,8,IF(G38&lt;損失曲線!$J$20,9,IF(G38&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>34</v>
       </c>
@@ -10387,19 +11298,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D39" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="4"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G39" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="3"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>245.00000002852175</v>
+      </c>
+      <c r="H39" s="24">
+        <f>IF(G39&lt;損失曲線!$J$12,1,IF(G39&lt;損失曲線!$J$13,2,IF(G39&lt;損失曲線!$J$14,3,IF(G39&lt;損失曲線!$J$15,4,IF(G39&lt;損失曲線!$J$16,5,IF(G39&lt;損失曲線!$J$17,6,IF(G39&lt;損失曲線!$J$18,7,IF(G39&lt;損失曲線!$J$19,8,IF(G39&lt;損失曲線!$J$20,9,IF(G39&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>35</v>
       </c>
@@ -10410,19 +11329,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D40" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G40" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="3"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>256.6666666965466</v>
+      </c>
+      <c r="H40" s="24">
+        <f>IF(G40&lt;損失曲線!$J$12,1,IF(G40&lt;損失曲線!$J$13,2,IF(G40&lt;損失曲線!$J$14,3,IF(G40&lt;損失曲線!$J$15,4,IF(G40&lt;損失曲線!$J$16,5,IF(G40&lt;損失曲線!$J$17,6,IF(G40&lt;損失曲線!$J$18,7,IF(G40&lt;損失曲線!$J$19,8,IF(G40&lt;損失曲線!$J$20,9,IF(G40&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>36</v>
       </c>
@@ -10433,19 +11360,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D41" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G41" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="3"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>268.33333336457144</v>
+      </c>
+      <c r="H41" s="24">
+        <f>IF(G41&lt;損失曲線!$J$12,1,IF(G41&lt;損失曲線!$J$13,2,IF(G41&lt;損失曲線!$J$14,3,IF(G41&lt;損失曲線!$J$15,4,IF(G41&lt;損失曲線!$J$16,5,IF(G41&lt;損失曲線!$J$17,6,IF(G41&lt;損失曲線!$J$18,7,IF(G41&lt;損失曲線!$J$19,8,IF(G41&lt;損失曲線!$J$20,9,IF(G41&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="17">
         <v>37</v>
       </c>
@@ -10456,19 +11391,27 @@
         <v>-705.01312277163879</v>
       </c>
       <c r="D42" s="11">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="4"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G42" s="24">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="3"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>280.00000003259629</v>
+      </c>
+      <c r="H42" s="24">
+        <f>IF(G42&lt;損失曲線!$J$12,1,IF(G42&lt;損失曲線!$J$13,2,IF(G42&lt;損失曲線!$J$14,3,IF(G42&lt;損失曲線!$J$15,4,IF(G42&lt;損失曲線!$J$16,5,IF(G42&lt;損失曲線!$J$17,6,IF(G42&lt;損失曲線!$J$18,7,IF(G42&lt;損失曲線!$J$19,8,IF(G42&lt;損失曲線!$J$20,9,IF(G42&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>38</v>
       </c>
@@ -10483,15 +11426,23 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="E43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F43">
         <f>$C$4</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G43" s="24">
+        <f t="shared" si="1"/>
+        <v>291.66666670062114</v>
+      </c>
+      <c r="H43" s="24">
+        <f>IF(G43&lt;損失曲線!$J$12,1,IF(G43&lt;損失曲線!$J$13,2,IF(G43&lt;損失曲線!$J$14,3,IF(G43&lt;損失曲線!$J$15,4,IF(G43&lt;損失曲線!$J$16,5,IF(G43&lt;損失曲線!$J$17,6,IF(G43&lt;損失曲線!$J$18,7,IF(G43&lt;損失曲線!$J$19,8,IF(G43&lt;損失曲線!$J$20,9,IF(G43&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>39</v>
       </c>
@@ -10502,19 +11453,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D44" s="11">
-        <f t="shared" ref="D44:D71" si="4">-$D$4</f>
+        <f t="shared" ref="D44:D71" si="5">-$D$4</f>
         <v>-523.6009579884186</v>
       </c>
       <c r="E44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F44">
-        <f t="shared" ref="F44:F71" si="5">$C$4</f>
+        <f t="shared" ref="F44:F71" si="6">$C$4</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G44" s="24">
+        <f t="shared" si="1"/>
+        <v>301.66666670178529</v>
+      </c>
+      <c r="H44" s="24">
+        <f>IF(G44&lt;損失曲線!$J$12,1,IF(G44&lt;損失曲線!$J$13,2,IF(G44&lt;損失曲線!$J$14,3,IF(G44&lt;損失曲線!$J$15,4,IF(G44&lt;損失曲線!$J$16,5,IF(G44&lt;損失曲線!$J$17,6,IF(G44&lt;損失曲線!$J$18,7,IF(G44&lt;損失曲線!$J$19,8,IF(G44&lt;損失曲線!$J$20,9,IF(G44&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>40</v>
       </c>
@@ -10525,19 +11484,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D45" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E45">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G45" s="24">
+        <f t="shared" si="1"/>
+        <v>311.66666670294944</v>
+      </c>
+      <c r="H45" s="24">
+        <f>IF(G45&lt;損失曲線!$J$12,1,IF(G45&lt;損失曲線!$J$13,2,IF(G45&lt;損失曲線!$J$14,3,IF(G45&lt;損失曲線!$J$15,4,IF(G45&lt;損失曲線!$J$16,5,IF(G45&lt;損失曲線!$J$17,6,IF(G45&lt;損失曲線!$J$18,7,IF(G45&lt;損失曲線!$J$19,8,IF(G45&lt;損失曲線!$J$20,9,IF(G45&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>41</v>
       </c>
@@ -10548,19 +11515,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D46" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E46">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G46" s="24">
+        <f t="shared" si="1"/>
+        <v>321.6666667041136</v>
+      </c>
+      <c r="H46" s="24">
+        <f>IF(G46&lt;損失曲線!$J$12,1,IF(G46&lt;損失曲線!$J$13,2,IF(G46&lt;損失曲線!$J$14,3,IF(G46&lt;損失曲線!$J$15,4,IF(G46&lt;損失曲線!$J$16,5,IF(G46&lt;損失曲線!$J$17,6,IF(G46&lt;損失曲線!$J$18,7,IF(G46&lt;損失曲線!$J$19,8,IF(G46&lt;損失曲線!$J$20,9,IF(G46&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>42</v>
       </c>
@@ -10571,19 +11546,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D47" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E47">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G47" s="24">
+        <f t="shared" si="1"/>
+        <v>331.66666670527775</v>
+      </c>
+      <c r="H47" s="24">
+        <f>IF(G47&lt;損失曲線!$J$12,1,IF(G47&lt;損失曲線!$J$13,2,IF(G47&lt;損失曲線!$J$14,3,IF(G47&lt;損失曲線!$J$15,4,IF(G47&lt;損失曲線!$J$16,5,IF(G47&lt;損失曲線!$J$17,6,IF(G47&lt;損失曲線!$J$18,7,IF(G47&lt;損失曲線!$J$19,8,IF(G47&lt;損失曲線!$J$20,9,IF(G47&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>43</v>
       </c>
@@ -10594,19 +11577,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D48" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E48">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G48" s="24">
+        <f t="shared" si="1"/>
+        <v>341.6666667064419</v>
+      </c>
+      <c r="H48" s="24">
+        <f>IF(G48&lt;損失曲線!$J$12,1,IF(G48&lt;損失曲線!$J$13,2,IF(G48&lt;損失曲線!$J$14,3,IF(G48&lt;損失曲線!$J$15,4,IF(G48&lt;損失曲線!$J$16,5,IF(G48&lt;損失曲線!$J$17,6,IF(G48&lt;損失曲線!$J$18,7,IF(G48&lt;損失曲線!$J$19,8,IF(G48&lt;損失曲線!$J$20,9,IF(G48&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>44</v>
       </c>
@@ -10617,19 +11608,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D49" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E49">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G49" s="24">
+        <f t="shared" si="1"/>
+        <v>351.66666670760605</v>
+      </c>
+      <c r="H49" s="24">
+        <f>IF(G49&lt;損失曲線!$J$12,1,IF(G49&lt;損失曲線!$J$13,2,IF(G49&lt;損失曲線!$J$14,3,IF(G49&lt;損失曲線!$J$15,4,IF(G49&lt;損失曲線!$J$16,5,IF(G49&lt;損失曲線!$J$17,6,IF(G49&lt;損失曲線!$J$18,7,IF(G49&lt;損失曲線!$J$19,8,IF(G49&lt;損失曲線!$J$20,9,IF(G49&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>45</v>
       </c>
@@ -10640,19 +11639,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D50" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E50">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G50" s="24">
+        <f t="shared" si="1"/>
+        <v>361.66666670877021</v>
+      </c>
+      <c r="H50" s="24">
+        <f>IF(G50&lt;損失曲線!$J$12,1,IF(G50&lt;損失曲線!$J$13,2,IF(G50&lt;損失曲線!$J$14,3,IF(G50&lt;損失曲線!$J$15,4,IF(G50&lt;損失曲線!$J$16,5,IF(G50&lt;損失曲線!$J$17,6,IF(G50&lt;損失曲線!$J$18,7,IF(G50&lt;損失曲線!$J$19,8,IF(G50&lt;損失曲線!$J$20,9,IF(G50&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>46</v>
       </c>
@@ -10663,19 +11670,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D51" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E51">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G51" s="24">
+        <f t="shared" si="1"/>
+        <v>371.66666670993436</v>
+      </c>
+      <c r="H51" s="24">
+        <f>IF(G51&lt;損失曲線!$J$12,1,IF(G51&lt;損失曲線!$J$13,2,IF(G51&lt;損失曲線!$J$14,3,IF(G51&lt;損失曲線!$J$15,4,IF(G51&lt;損失曲線!$J$16,5,IF(G51&lt;損失曲線!$J$17,6,IF(G51&lt;損失曲線!$J$18,7,IF(G51&lt;損失曲線!$J$19,8,IF(G51&lt;損失曲線!$J$20,9,IF(G51&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>47</v>
       </c>
@@ -10686,19 +11701,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D52" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E52">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G52" s="24">
+        <f t="shared" si="1"/>
+        <v>381.66666671109851</v>
+      </c>
+      <c r="H52" s="24">
+        <f>IF(G52&lt;損失曲線!$J$12,1,IF(G52&lt;損失曲線!$J$13,2,IF(G52&lt;損失曲線!$J$14,3,IF(G52&lt;損失曲線!$J$15,4,IF(G52&lt;損失曲線!$J$16,5,IF(G52&lt;損失曲線!$J$17,6,IF(G52&lt;損失曲線!$J$18,7,IF(G52&lt;損失曲線!$J$19,8,IF(G52&lt;損失曲線!$J$20,9,IF(G52&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>48</v>
       </c>
@@ -10709,19 +11732,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D53" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E53">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G53" s="24">
+        <f t="shared" si="1"/>
+        <v>391.66666671226267</v>
+      </c>
+      <c r="H53" s="24">
+        <f>IF(G53&lt;損失曲線!$J$12,1,IF(G53&lt;損失曲線!$J$13,2,IF(G53&lt;損失曲線!$J$14,3,IF(G53&lt;損失曲線!$J$15,4,IF(G53&lt;損失曲線!$J$16,5,IF(G53&lt;損失曲線!$J$17,6,IF(G53&lt;損失曲線!$J$18,7,IF(G53&lt;損失曲線!$J$19,8,IF(G53&lt;損失曲線!$J$20,9,IF(G53&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>49</v>
       </c>
@@ -10732,19 +11763,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D54" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E54">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G54" s="24">
+        <f t="shared" si="1"/>
+        <v>401.66666671342682</v>
+      </c>
+      <c r="H54" s="24">
+        <f>IF(G54&lt;損失曲線!$J$12,1,IF(G54&lt;損失曲線!$J$13,2,IF(G54&lt;損失曲線!$J$14,3,IF(G54&lt;損失曲線!$J$15,4,IF(G54&lt;損失曲線!$J$16,5,IF(G54&lt;損失曲線!$J$17,6,IF(G54&lt;損失曲線!$J$18,7,IF(G54&lt;損失曲線!$J$19,8,IF(G54&lt;損失曲線!$J$20,9,IF(G54&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>50</v>
       </c>
@@ -10755,19 +11794,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D55" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E55">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G55" s="24">
+        <f t="shared" si="1"/>
+        <v>411.66666671459097</v>
+      </c>
+      <c r="H55" s="24">
+        <f>IF(G55&lt;損失曲線!$J$12,1,IF(G55&lt;損失曲線!$J$13,2,IF(G55&lt;損失曲線!$J$14,3,IF(G55&lt;損失曲線!$J$15,4,IF(G55&lt;損失曲線!$J$16,5,IF(G55&lt;損失曲線!$J$17,6,IF(G55&lt;損失曲線!$J$18,7,IF(G55&lt;損失曲線!$J$19,8,IF(G55&lt;損失曲線!$J$20,9,IF(G55&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>51</v>
       </c>
@@ -10778,19 +11825,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D56" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E56">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G56" s="24">
+        <f t="shared" si="1"/>
+        <v>421.66666671575513</v>
+      </c>
+      <c r="H56" s="24">
+        <f>IF(G56&lt;損失曲線!$J$12,1,IF(G56&lt;損失曲線!$J$13,2,IF(G56&lt;損失曲線!$J$14,3,IF(G56&lt;損失曲線!$J$15,4,IF(G56&lt;損失曲線!$J$16,5,IF(G56&lt;損失曲線!$J$17,6,IF(G56&lt;損失曲線!$J$18,7,IF(G56&lt;損失曲線!$J$19,8,IF(G56&lt;損失曲線!$J$20,9,IF(G56&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>52</v>
       </c>
@@ -10801,19 +11856,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D57" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E57">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G57" s="24">
+        <f t="shared" si="1"/>
+        <v>431.66666671691928</v>
+      </c>
+      <c r="H57" s="24">
+        <f>IF(G57&lt;損失曲線!$J$12,1,IF(G57&lt;損失曲線!$J$13,2,IF(G57&lt;損失曲線!$J$14,3,IF(G57&lt;損失曲線!$J$15,4,IF(G57&lt;損失曲線!$J$16,5,IF(G57&lt;損失曲線!$J$17,6,IF(G57&lt;損失曲線!$J$18,7,IF(G57&lt;損失曲線!$J$19,8,IF(G57&lt;損失曲線!$J$20,9,IF(G57&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>53</v>
       </c>
@@ -10824,19 +11887,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D58" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E58">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G58" s="24">
+        <f t="shared" si="1"/>
+        <v>441.66666671808343</v>
+      </c>
+      <c r="H58" s="24">
+        <f>IF(G58&lt;損失曲線!$J$12,1,IF(G58&lt;損失曲線!$J$13,2,IF(G58&lt;損失曲線!$J$14,3,IF(G58&lt;損失曲線!$J$15,4,IF(G58&lt;損失曲線!$J$16,5,IF(G58&lt;損失曲線!$J$17,6,IF(G58&lt;損失曲線!$J$18,7,IF(G58&lt;損失曲線!$J$19,8,IF(G58&lt;損失曲線!$J$20,9,IF(G58&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>54</v>
       </c>
@@ -10847,19 +11918,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D59" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E59">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G59" s="24">
+        <f t="shared" si="1"/>
+        <v>451.66666671924759</v>
+      </c>
+      <c r="H59" s="24">
+        <f>IF(G59&lt;損失曲線!$J$12,1,IF(G59&lt;損失曲線!$J$13,2,IF(G59&lt;損失曲線!$J$14,3,IF(G59&lt;損失曲線!$J$15,4,IF(G59&lt;損失曲線!$J$16,5,IF(G59&lt;損失曲線!$J$17,6,IF(G59&lt;損失曲線!$J$18,7,IF(G59&lt;損失曲線!$J$19,8,IF(G59&lt;損失曲線!$J$20,9,IF(G59&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>55</v>
       </c>
@@ -10870,19 +11949,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D60" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E60">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G60" s="24">
+        <f t="shared" si="1"/>
+        <v>461.66666672041174</v>
+      </c>
+      <c r="H60" s="24">
+        <f>IF(G60&lt;損失曲線!$J$12,1,IF(G60&lt;損失曲線!$J$13,2,IF(G60&lt;損失曲線!$J$14,3,IF(G60&lt;損失曲線!$J$15,4,IF(G60&lt;損失曲線!$J$16,5,IF(G60&lt;損失曲線!$J$17,6,IF(G60&lt;損失曲線!$J$18,7,IF(G60&lt;損失曲線!$J$19,8,IF(G60&lt;損失曲線!$J$20,9,IF(G60&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>56</v>
       </c>
@@ -10893,19 +11980,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D61" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E61">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G61" s="24">
+        <f t="shared" si="1"/>
+        <v>471.66666672157589</v>
+      </c>
+      <c r="H61" s="24">
+        <f>IF(G61&lt;損失曲線!$J$12,1,IF(G61&lt;損失曲線!$J$13,2,IF(G61&lt;損失曲線!$J$14,3,IF(G61&lt;損失曲線!$J$15,4,IF(G61&lt;損失曲線!$J$16,5,IF(G61&lt;損失曲線!$J$17,6,IF(G61&lt;損失曲線!$J$18,7,IF(G61&lt;損失曲線!$J$19,8,IF(G61&lt;損失曲線!$J$20,9,IF(G61&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>57</v>
       </c>
@@ -10916,19 +12011,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D62" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E62">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G62" s="24">
+        <f t="shared" si="1"/>
+        <v>481.66666672274005</v>
+      </c>
+      <c r="H62" s="24">
+        <f>IF(G62&lt;損失曲線!$J$12,1,IF(G62&lt;損失曲線!$J$13,2,IF(G62&lt;損失曲線!$J$14,3,IF(G62&lt;損失曲線!$J$15,4,IF(G62&lt;損失曲線!$J$16,5,IF(G62&lt;損失曲線!$J$17,6,IF(G62&lt;損失曲線!$J$18,7,IF(G62&lt;損失曲線!$J$19,8,IF(G62&lt;損失曲線!$J$20,9,IF(G62&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="18">
         <v>58</v>
       </c>
@@ -10939,19 +12042,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D63" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E63">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G63" s="24">
+        <f t="shared" si="1"/>
+        <v>491.6666667239042</v>
+      </c>
+      <c r="H63" s="24">
+        <f>IF(G63&lt;損失曲線!$J$12,1,IF(G63&lt;損失曲線!$J$13,2,IF(G63&lt;損失曲線!$J$14,3,IF(G63&lt;損失曲線!$J$15,4,IF(G63&lt;損失曲線!$J$16,5,IF(G63&lt;損失曲線!$J$17,6,IF(G63&lt;損失曲線!$J$18,7,IF(G63&lt;損失曲線!$J$19,8,IF(G63&lt;損失曲線!$J$20,9,IF(G63&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>59</v>
       </c>
@@ -10962,19 +12073,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D64" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E64">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G64" s="24">
+        <f t="shared" si="1"/>
+        <v>501.66666672506835</v>
+      </c>
+      <c r="H64" s="24">
+        <f>IF(G64&lt;損失曲線!$J$12,1,IF(G64&lt;損失曲線!$J$13,2,IF(G64&lt;損失曲線!$J$14,3,IF(G64&lt;損失曲線!$J$15,4,IF(G64&lt;損失曲線!$J$16,5,IF(G64&lt;損失曲線!$J$17,6,IF(G64&lt;損失曲線!$J$18,7,IF(G64&lt;損失曲線!$J$19,8,IF(G64&lt;損失曲線!$J$20,9,IF(G64&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>60</v>
       </c>
@@ -10985,19 +12104,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D65" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E65">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G65" s="24">
+        <f t="shared" si="1"/>
+        <v>511.66666672623251</v>
+      </c>
+      <c r="H65" s="24">
+        <f>IF(G65&lt;損失曲線!$J$12,1,IF(G65&lt;損失曲線!$J$13,2,IF(G65&lt;損失曲線!$J$14,3,IF(G65&lt;損失曲線!$J$15,4,IF(G65&lt;損失曲線!$J$16,5,IF(G65&lt;損失曲線!$J$17,6,IF(G65&lt;損失曲線!$J$18,7,IF(G65&lt;損失曲線!$J$19,8,IF(G65&lt;損失曲線!$J$20,9,IF(G65&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>61</v>
       </c>
@@ -11008,19 +12135,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D66" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E66">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G66" s="24">
+        <f t="shared" si="1"/>
+        <v>521.66666672739666</v>
+      </c>
+      <c r="H66" s="24">
+        <f>IF(G66&lt;損失曲線!$J$12,1,IF(G66&lt;損失曲線!$J$13,2,IF(G66&lt;損失曲線!$J$14,3,IF(G66&lt;損失曲線!$J$15,4,IF(G66&lt;損失曲線!$J$16,5,IF(G66&lt;損失曲線!$J$17,6,IF(G66&lt;損失曲線!$J$18,7,IF(G66&lt;損失曲線!$J$19,8,IF(G66&lt;損失曲線!$J$20,9,IF(G66&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>62</v>
       </c>
@@ -11031,19 +12166,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D67" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E67">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G67" s="24">
+        <f t="shared" si="1"/>
+        <v>531.66666672856081</v>
+      </c>
+      <c r="H67" s="24">
+        <f>IF(G67&lt;損失曲線!$J$12,1,IF(G67&lt;損失曲線!$J$13,2,IF(G67&lt;損失曲線!$J$14,3,IF(G67&lt;損失曲線!$J$15,4,IF(G67&lt;損失曲線!$J$16,5,IF(G67&lt;損失曲線!$J$17,6,IF(G67&lt;損失曲線!$J$18,7,IF(G67&lt;損失曲線!$J$19,8,IF(G67&lt;損失曲線!$J$20,9,IF(G67&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>63</v>
       </c>
@@ -11054,19 +12197,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D68" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E68">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G68" s="24">
+        <f t="shared" si="1"/>
+        <v>541.66666672972497</v>
+      </c>
+      <c r="H68" s="24">
+        <f>IF(G68&lt;損失曲線!$J$12,1,IF(G68&lt;損失曲線!$J$13,2,IF(G68&lt;損失曲線!$J$14,3,IF(G68&lt;損失曲線!$J$15,4,IF(G68&lt;損失曲線!$J$16,5,IF(G68&lt;損失曲線!$J$17,6,IF(G68&lt;損失曲線!$J$18,7,IF(G68&lt;損失曲線!$J$19,8,IF(G68&lt;損失曲線!$J$20,9,IF(G68&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>64</v>
       </c>
@@ -11077,19 +12228,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D69" s="11">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E69">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G69" s="24">
+        <f t="shared" si="1"/>
+        <v>551.66666673088912</v>
+      </c>
+      <c r="H69" s="24">
+        <f>IF(G69&lt;損失曲線!$J$12,1,IF(G69&lt;損失曲線!$J$13,2,IF(G69&lt;損失曲線!$J$14,3,IF(G69&lt;損失曲線!$J$15,4,IF(G69&lt;損失曲線!$J$16,5,IF(G69&lt;損失曲線!$J$17,6,IF(G69&lt;損失曲線!$J$18,7,IF(G69&lt;損失曲線!$J$19,8,IF(G69&lt;損失曲線!$J$20,9,IF(G69&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>65</v>
       </c>
@@ -11100,19 +12259,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D70" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
       <c r="E70">
-        <f t="shared" ref="E70:E78" si="6">-D70</f>
+        <f t="shared" ref="E70:E78" si="7">-D70</f>
         <v>523.6009579884186</v>
       </c>
       <c r="F70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G70" s="24">
+        <f t="shared" si="1"/>
+        <v>561.66666673205327</v>
+      </c>
+      <c r="H70" s="24">
+        <f>IF(G70&lt;損失曲線!$J$12,1,IF(G70&lt;損失曲線!$J$13,2,IF(G70&lt;損失曲線!$J$14,3,IF(G70&lt;損失曲線!$J$15,4,IF(G70&lt;損失曲線!$J$16,5,IF(G70&lt;損失曲線!$J$17,6,IF(G70&lt;損失曲線!$J$18,7,IF(G70&lt;損失曲線!$J$19,8,IF(G70&lt;損失曲線!$J$20,9,IF(G70&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>66</v>
       </c>
@@ -11123,19 +12290,27 @@
         <v>-523.6009579884186</v>
       </c>
       <c r="D71" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
       <c r="E71">
+        <f t="shared" si="7"/>
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F71">
         <f t="shared" si="6"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G71" s="24">
+        <f t="shared" si="1"/>
+        <v>571.66666673321743</v>
+      </c>
+      <c r="H71" s="24">
+        <f>IF(G71&lt;損失曲線!$J$12,1,IF(G71&lt;損失曲線!$J$13,2,IF(G71&lt;損失曲線!$J$14,3,IF(G71&lt;損失曲線!$J$15,4,IF(G71&lt;損失曲線!$J$16,5,IF(G71&lt;損失曲線!$J$17,6,IF(G71&lt;損失曲線!$J$18,7,IF(G71&lt;損失曲線!$J$19,8,IF(G71&lt;損失曲線!$J$20,9,IF(G71&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>67</v>
       </c>
@@ -11149,14 +12324,22 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G72" s="24">
+        <f t="shared" ref="G72:G78" si="8">(($B$7-$B$6)*24)*F71+G71</f>
+        <v>581.66666673438158</v>
+      </c>
+      <c r="H72" s="24">
+        <f>IF(G72&lt;損失曲線!$J$12,1,IF(G72&lt;損失曲線!$J$13,2,IF(G72&lt;損失曲線!$J$14,3,IF(G72&lt;損失曲線!$J$15,4,IF(G72&lt;損失曲線!$J$16,5,IF(G72&lt;損失曲線!$J$17,6,IF(G72&lt;損失曲線!$J$18,7,IF(G72&lt;損失曲線!$J$19,8,IF(G72&lt;損失曲線!$J$20,9,IF(G72&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>68</v>
       </c>
@@ -11170,14 +12353,22 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G73" s="24">
+        <f t="shared" si="8"/>
+        <v>581.66666673438158</v>
+      </c>
+      <c r="H73" s="24">
+        <f>IF(G73&lt;損失曲線!$J$12,1,IF(G73&lt;損失曲線!$J$13,2,IF(G73&lt;損失曲線!$J$14,3,IF(G73&lt;損失曲線!$J$15,4,IF(G73&lt;損失曲線!$J$16,5,IF(G73&lt;損失曲線!$J$17,6,IF(G73&lt;損失曲線!$J$18,7,IF(G73&lt;損失曲線!$J$19,8,IF(G73&lt;損失曲線!$J$20,9,IF(G73&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>69</v>
       </c>
@@ -11191,14 +12382,22 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G74" s="24">
+        <f t="shared" si="8"/>
+        <v>581.66666673438158</v>
+      </c>
+      <c r="H74" s="24">
+        <f>IF(G74&lt;損失曲線!$J$12,1,IF(G74&lt;損失曲線!$J$13,2,IF(G74&lt;損失曲線!$J$14,3,IF(G74&lt;損失曲線!$J$15,4,IF(G74&lt;損失曲線!$J$16,5,IF(G74&lt;損失曲線!$J$17,6,IF(G74&lt;損失曲線!$J$18,7,IF(G74&lt;損失曲線!$J$19,8,IF(G74&lt;損失曲線!$J$20,9,IF(G74&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>70</v>
       </c>
@@ -11212,14 +12411,22 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G75" s="24">
+        <f t="shared" si="8"/>
+        <v>581.66666673438158</v>
+      </c>
+      <c r="H75" s="24">
+        <f>IF(G75&lt;損失曲線!$J$12,1,IF(G75&lt;損失曲線!$J$13,2,IF(G75&lt;損失曲線!$J$14,3,IF(G75&lt;損失曲線!$J$15,4,IF(G75&lt;損失曲線!$J$16,5,IF(G75&lt;損失曲線!$J$17,6,IF(G75&lt;損失曲線!$J$18,7,IF(G75&lt;損失曲線!$J$19,8,IF(G75&lt;損失曲線!$J$20,9,IF(G75&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>71</v>
       </c>
@@ -11233,14 +12440,22 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G76" s="24">
+        <f t="shared" si="8"/>
+        <v>581.66666673438158</v>
+      </c>
+      <c r="H76" s="24">
+        <f>IF(G76&lt;損失曲線!$J$12,1,IF(G76&lt;損失曲線!$J$13,2,IF(G76&lt;損失曲線!$J$14,3,IF(G76&lt;損失曲線!$J$15,4,IF(G76&lt;損失曲線!$J$16,5,IF(G76&lt;損失曲線!$J$17,6,IF(G76&lt;損失曲線!$J$18,7,IF(G76&lt;損失曲線!$J$19,8,IF(G76&lt;損失曲線!$J$20,9,IF(G76&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>72</v>
       </c>
@@ -11254,14 +12469,22 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G77" s="24">
+        <f t="shared" si="8"/>
+        <v>581.66666673438158</v>
+      </c>
+      <c r="H77" s="24">
+        <f>IF(G77&lt;損失曲線!$J$12,1,IF(G77&lt;損失曲線!$J$13,2,IF(G77&lt;損失曲線!$J$14,3,IF(G77&lt;損失曲線!$J$15,4,IF(G77&lt;損失曲線!$J$16,5,IF(G77&lt;損失曲線!$J$17,6,IF(G77&lt;損失曲線!$J$18,7,IF(G77&lt;損失曲線!$J$19,8,IF(G77&lt;損失曲線!$J$20,9,IF(G77&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>73</v>
       </c>
@@ -11275,11 +12498,19 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F78">
         <v>0</v>
+      </c>
+      <c r="G78" s="24">
+        <f t="shared" si="8"/>
+        <v>581.66666673438158</v>
+      </c>
+      <c r="H78" s="24">
+        <f>IF(G78&lt;損失曲線!$J$12,1,IF(G78&lt;損失曲線!$J$13,2,IF(G78&lt;損失曲線!$J$14,3,IF(G78&lt;損失曲線!$J$15,4,IF(G78&lt;損失曲線!$J$16,5,IF(G78&lt;損失曲線!$J$17,6,IF(G78&lt;損失曲線!$J$18,7,IF(G78&lt;損失曲線!$J$19,8,IF(G78&lt;損失曲線!$J$20,9,IF(G78&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -11298,9 +12529,9 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>6350</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>215900</xdr:rowOff>
+                    <xdr:rowOff>219075</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
@@ -11328,21 +12559,21 @@
       <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="18.08203125" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
@@ -11356,7 +12587,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
@@ -11370,7 +12601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>60</v>
       </c>
@@ -11384,7 +12615,7 @@
         <v>811.6256291049707</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -11392,19 +12623,19 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -11418,7 +12649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2</v>
       </c>
@@ -11432,7 +12663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>3</v>
       </c>
@@ -11446,7 +12677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>4</v>
       </c>
@@ -11460,7 +12691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>5</v>
       </c>
@@ -11474,7 +12705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>6</v>
       </c>
@@ -11488,7 +12719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>7</v>
       </c>
@@ -11502,7 +12733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>8</v>
       </c>
@@ -11516,7 +12747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>9</v>
       </c>
@@ -11530,7 +12761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10</v>
       </c>
@@ -11544,7 +12775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>11</v>
       </c>
@@ -11558,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>12</v>
       </c>
@@ -11572,7 +12803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>13</v>
       </c>
@@ -11587,7 +12818,7 @@
         <v>-523.6009579884186</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>14</v>
       </c>
@@ -11602,7 +12833,7 @@
         <v>-523.6009579884186</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>15</v>
       </c>
@@ -11617,7 +12848,7 @@
         <v>-523.6009579884186</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>16</v>
       </c>
@@ -11632,7 +12863,7 @@
         <v>-523.6009579884186</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>17</v>
       </c>
@@ -11647,7 +12878,7 @@
         <v>-523.6009579884186</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>18</v>
       </c>
@@ -11662,7 +12893,7 @@
         <v>-523.6009579884186</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>19</v>
       </c>
@@ -11677,7 +12908,7 @@
         <v>-523.6009579884186</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>20</v>
       </c>
@@ -11692,7 +12923,7 @@
         <v>-523.6009579884186</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>21</v>
       </c>
@@ -11707,7 +12938,7 @@
         <v>-523.6009579884186</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>22</v>
       </c>
@@ -11722,7 +12953,7 @@
         <v>-523.6009579884186</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>23</v>
       </c>
@@ -11737,7 +12968,7 @@
         <v>-523.6009579884186</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>24</v>
       </c>
@@ -11752,7 +12983,7 @@
         <v>-523.6009579884186</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>25</v>
       </c>
@@ -11767,7 +12998,7 @@
         <v>-523.6009579884186</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>26</v>
       </c>
@@ -11782,7 +13013,7 @@
         <v>-523.6009579884186</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>27</v>
       </c>
@@ -11797,7 +13028,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>28</v>
       </c>
@@ -11812,7 +13043,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>29</v>
       </c>
@@ -11827,7 +13058,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>30</v>
       </c>
@@ -11842,7 +13073,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>31</v>
       </c>
@@ -11857,7 +13088,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>32</v>
       </c>
@@ -11872,7 +13103,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>33</v>
       </c>
@@ -11887,7 +13118,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>34</v>
       </c>
@@ -11902,7 +13133,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>35</v>
       </c>
@@ -11917,7 +13148,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>36</v>
       </c>
@@ -11932,7 +13163,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>37</v>
       </c>
@@ -11947,7 +13178,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>38</v>
       </c>
@@ -11962,7 +13193,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>39</v>
       </c>
@@ -11977,7 +13208,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>40</v>
       </c>
@@ -11992,7 +13223,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>41</v>
       </c>
@@ -12007,7 +13238,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>42</v>
       </c>
@@ -12022,7 +13253,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>43</v>
       </c>
@@ -12037,7 +13268,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>44</v>
       </c>
@@ -12052,7 +13283,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>45</v>
       </c>
@@ -12067,7 +13298,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>46</v>
       </c>
@@ -12082,7 +13313,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>47</v>
       </c>
@@ -12097,7 +13328,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>48</v>
       </c>
@@ -12112,7 +13343,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="18">
         <v>49</v>
       </c>
@@ -12127,7 +13358,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>50</v>
       </c>
@@ -12142,7 +13373,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>51</v>
       </c>
@@ -12157,7 +13388,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>52</v>
       </c>
@@ -12172,7 +13403,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>53</v>
       </c>
@@ -12187,7 +13418,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>54</v>
       </c>
@@ -12202,7 +13433,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>55</v>
       </c>
@@ -12217,7 +13448,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>56</v>
       </c>
@@ -12232,7 +13463,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>57</v>
       </c>
@@ -12247,7 +13478,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>58</v>
       </c>
@@ -12262,7 +13493,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>59</v>
       </c>
@@ -12277,7 +13508,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>60</v>
       </c>
@@ -12292,7 +13523,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>61</v>
       </c>
@@ -12307,7 +13538,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>62</v>
       </c>
@@ -12322,7 +13553,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>63</v>
       </c>
@@ -12337,7 +13568,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>64</v>
       </c>
@@ -12352,7 +13583,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>65</v>
       </c>
@@ -12367,7 +13598,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>66</v>
       </c>
@@ -12382,7 +13613,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>67</v>
       </c>
@@ -12397,7 +13628,7 @@
         <v>-811.6256291049707</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>68</v>
       </c>
@@ -12411,7 +13642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>69</v>
       </c>
@@ -12425,7 +13656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>70</v>
       </c>
@@ -12439,7 +13670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>71</v>
       </c>
@@ -12453,7 +13684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>72</v>
       </c>
@@ -12467,7 +13698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>73</v>
       </c>
@@ -12481,7 +13712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>74</v>
       </c>
@@ -12495,7 +13726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>75</v>
       </c>
@@ -12509,7 +13740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>76</v>
       </c>
@@ -12523,7 +13754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>77</v>
       </c>
@@ -12537,7 +13768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>78</v>
       </c>
@@ -12551,7 +13782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>79</v>
       </c>
@@ -12580,22 +13811,22 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="20.58203125" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.9140625" customWidth="1"/>
-    <col min="5" max="5" width="11.9140625" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -12609,7 +13840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -12623,7 +13854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>70</v>
       </c>
@@ -12637,7 +13868,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -12645,19 +13876,19 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -12671,7 +13902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2</v>
       </c>
@@ -12685,7 +13916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>3</v>
       </c>
@@ -12699,7 +13930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>4</v>
       </c>
@@ -12713,7 +13944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>5</v>
       </c>
@@ -12727,7 +13958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>6</v>
       </c>
@@ -12741,7 +13972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>7</v>
       </c>
@@ -12755,7 +13986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>8</v>
       </c>
@@ -12769,7 +14000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>9</v>
       </c>
@@ -12783,7 +14014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10</v>
       </c>
@@ -12797,7 +14028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>11</v>
       </c>
@@ -12811,7 +14042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>12</v>
       </c>
@@ -12825,7 +14056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>13</v>
       </c>
@@ -12840,7 +14071,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>14</v>
       </c>
@@ -12855,7 +14086,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>15</v>
       </c>
@@ -12870,7 +14101,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>16</v>
       </c>
@@ -12885,7 +14116,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>17</v>
       </c>
@@ -12900,7 +14131,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>18</v>
       </c>
@@ -12915,7 +14146,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>19</v>
       </c>
@@ -12930,7 +14161,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>20</v>
       </c>
@@ -12945,7 +14176,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>21</v>
       </c>
@@ -12960,7 +14191,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>22</v>
       </c>
@@ -12975,7 +14206,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>23</v>
       </c>
@@ -12990,7 +14221,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>24</v>
       </c>
@@ -13005,7 +14236,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>25</v>
       </c>
@@ -13020,7 +14251,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>26</v>
       </c>
@@ -13035,7 +14266,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>27</v>
       </c>
@@ -13050,7 +14281,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>28</v>
       </c>
@@ -13065,7 +14296,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>29</v>
       </c>
@@ -13080,7 +14311,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>30</v>
       </c>
@@ -13095,7 +14326,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>31</v>
       </c>
@@ -13110,7 +14341,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>32</v>
       </c>
@@ -13125,7 +14356,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>33</v>
       </c>
@@ -13140,7 +14371,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>34</v>
       </c>
@@ -13155,7 +14386,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>35</v>
       </c>
@@ -13170,7 +14401,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>36</v>
       </c>
@@ -13185,7 +14416,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="17">
         <v>37</v>
       </c>
@@ -13200,7 +14431,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>38</v>
       </c>
@@ -13215,7 +14446,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>39</v>
       </c>
@@ -13230,7 +14461,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>40</v>
       </c>
@@ -13245,7 +14476,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>41</v>
       </c>
@@ -13260,7 +14491,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>42</v>
       </c>
@@ -13275,7 +14506,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>43</v>
       </c>
@@ -13290,7 +14521,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>44</v>
       </c>
@@ -13305,7 +14536,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>45</v>
       </c>
@@ -13320,7 +14551,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>46</v>
       </c>
@@ -13335,7 +14566,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>47</v>
       </c>
@@ -13350,7 +14581,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>48</v>
       </c>
@@ -13365,7 +14596,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>49</v>
       </c>
@@ -13380,7 +14611,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>50</v>
       </c>
@@ -13395,7 +14626,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>51</v>
       </c>
@@ -13410,7 +14641,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>52</v>
       </c>
@@ -13425,7 +14656,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>53</v>
       </c>
@@ -13440,7 +14671,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>54</v>
       </c>
@@ -13455,7 +14686,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>55</v>
       </c>
@@ -13470,7 +14701,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>56</v>
       </c>
@@ -13485,7 +14716,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>57</v>
       </c>
@@ -13500,7 +14731,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="18">
         <v>58</v>
       </c>
@@ -13515,7 +14746,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>59</v>
       </c>
@@ -13530,7 +14761,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>60</v>
       </c>
@@ -13545,7 +14776,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>61</v>
       </c>
@@ -13560,7 +14791,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>62</v>
       </c>
@@ -13575,7 +14806,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>63</v>
       </c>
@@ -13590,7 +14821,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>64</v>
       </c>
@@ -13605,7 +14836,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>65</v>
       </c>
@@ -13620,7 +14851,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>66</v>
       </c>
@@ -13635,7 +14866,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>67</v>
       </c>
@@ -13650,7 +14881,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>68</v>
       </c>
@@ -13664,7 +14895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>69</v>
       </c>
@@ -13678,7 +14909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>70</v>
       </c>
@@ -13692,7 +14923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>71</v>
       </c>
@@ -13706,7 +14937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>72</v>
       </c>
@@ -13720,7 +14951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>73</v>
       </c>
@@ -13749,22 +14980,22 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="20.58203125" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.9140625" customWidth="1"/>
-    <col min="5" max="5" width="11.9140625" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -13778,7 +15009,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -13792,7 +15023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>70</v>
       </c>
@@ -13806,7 +15037,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -13814,19 +15045,19 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -13840,7 +15071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2</v>
       </c>
@@ -13854,7 +15085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>3</v>
       </c>
@@ -13868,7 +15099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>4</v>
       </c>
@@ -13882,7 +15113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>5</v>
       </c>
@@ -13896,7 +15127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>6</v>
       </c>
@@ -13910,7 +15141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>7</v>
       </c>
@@ -13924,7 +15155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>8</v>
       </c>
@@ -13938,7 +15169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>9</v>
       </c>
@@ -13952,7 +15183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10</v>
       </c>
@@ -13966,7 +15197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>11</v>
       </c>
@@ -13980,7 +15211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>12</v>
       </c>
@@ -13994,7 +15225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>13</v>
       </c>
@@ -14009,7 +15240,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>14</v>
       </c>
@@ -14024,7 +15255,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>15</v>
       </c>
@@ -14039,7 +15270,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>16</v>
       </c>
@@ -14054,7 +15285,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>17</v>
       </c>
@@ -14069,7 +15300,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>18</v>
       </c>
@@ -14084,7 +15315,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>19</v>
       </c>
@@ -14099,7 +15330,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>20</v>
       </c>
@@ -14114,7 +15345,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>21</v>
       </c>
@@ -14129,7 +15360,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>22</v>
       </c>
@@ -14144,7 +15375,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>23</v>
       </c>
@@ -14159,7 +15390,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>24</v>
       </c>
@@ -14174,7 +15405,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>25</v>
       </c>
@@ -14189,7 +15420,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>26</v>
       </c>
@@ -14204,7 +15435,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>27</v>
       </c>
@@ -14219,7 +15450,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>28</v>
       </c>
@@ -14234,7 +15465,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>29</v>
       </c>
@@ -14249,7 +15480,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>30</v>
       </c>
@@ -14264,7 +15495,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>31</v>
       </c>
@@ -14279,7 +15510,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>32</v>
       </c>
@@ -14294,7 +15525,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>33</v>
       </c>
@@ -14309,7 +15540,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>34</v>
       </c>
@@ -14324,7 +15555,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>35</v>
       </c>
@@ -14339,7 +15570,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>36</v>
       </c>
@@ -14354,7 +15585,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="17">
         <v>37</v>
       </c>
@@ -14369,7 +15600,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>38</v>
       </c>
@@ -14384,7 +15615,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>39</v>
       </c>
@@ -14399,7 +15630,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>40</v>
       </c>
@@ -14414,7 +15645,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>41</v>
       </c>
@@ -14429,7 +15660,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>42</v>
       </c>
@@ -14444,7 +15675,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>43</v>
       </c>
@@ -14459,7 +15690,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>44</v>
       </c>
@@ -14474,7 +15705,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>45</v>
       </c>
@@ -14489,7 +15720,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>46</v>
       </c>
@@ -14504,7 +15735,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>47</v>
       </c>
@@ -14519,7 +15750,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>48</v>
       </c>
@@ -14534,7 +15765,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>49</v>
       </c>
@@ -14549,7 +15780,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>50</v>
       </c>
@@ -14564,7 +15795,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>51</v>
       </c>
@@ -14579,7 +15810,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>52</v>
       </c>
@@ -14594,7 +15825,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>53</v>
       </c>
@@ -14609,7 +15840,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>54</v>
       </c>
@@ -14624,7 +15855,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>55</v>
       </c>
@@ -14639,7 +15870,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>56</v>
       </c>
@@ -14654,7 +15885,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>57</v>
       </c>
@@ -14669,7 +15900,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="18">
         <v>58</v>
       </c>
@@ -14684,7 +15915,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>59</v>
       </c>
@@ -14699,7 +15930,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>60</v>
       </c>
@@ -14714,7 +15945,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>61</v>
       </c>
@@ -14729,7 +15960,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>62</v>
       </c>
@@ -14744,7 +15975,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>63</v>
       </c>
@@ -14759,7 +15990,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>64</v>
       </c>
@@ -14774,7 +16005,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>65</v>
       </c>
@@ -14789,7 +16020,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>66</v>
       </c>
@@ -14804,7 +16035,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>67</v>
       </c>
@@ -14819,7 +16050,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>68</v>
       </c>
@@ -14833,7 +16064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>69</v>
       </c>
@@ -14847,7 +16078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>70</v>
       </c>
@@ -14861,7 +16092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>71</v>
       </c>
@@ -14875,7 +16106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>72</v>
       </c>
@@ -14889,7 +16120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>73</v>
       </c>
@@ -14918,22 +16149,22 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="20.58203125" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.9140625" customWidth="1"/>
-    <col min="5" max="5" width="11.9140625" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -14947,7 +16178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -14961,7 +16192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>70</v>
       </c>
@@ -14975,7 +16206,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -14983,19 +16214,19 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -15009,7 +16240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2</v>
       </c>
@@ -15023,7 +16254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>3</v>
       </c>
@@ -15037,7 +16268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>4</v>
       </c>
@@ -15051,7 +16282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>5</v>
       </c>
@@ -15065,7 +16296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>6</v>
       </c>
@@ -15079,7 +16310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>7</v>
       </c>
@@ -15093,7 +16324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>8</v>
       </c>
@@ -15107,7 +16338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>9</v>
       </c>
@@ -15121,7 +16352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10</v>
       </c>
@@ -15135,7 +16366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>11</v>
       </c>
@@ -15149,7 +16380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>12</v>
       </c>
@@ -15163,7 +16394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>13</v>
       </c>
@@ -15178,7 +16409,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>14</v>
       </c>
@@ -15193,7 +16424,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>15</v>
       </c>
@@ -15208,7 +16439,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>16</v>
       </c>
@@ -15223,7 +16454,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>17</v>
       </c>
@@ -15238,7 +16469,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>18</v>
       </c>
@@ -15253,7 +16484,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>19</v>
       </c>
@@ -15268,7 +16499,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>20</v>
       </c>
@@ -15283,7 +16514,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>21</v>
       </c>
@@ -15298,7 +16529,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>22</v>
       </c>
@@ -15313,7 +16544,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>23</v>
       </c>
@@ -15328,7 +16559,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>24</v>
       </c>
@@ -15343,7 +16574,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>25</v>
       </c>
@@ -15358,7 +16589,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>26</v>
       </c>
@@ -15373,7 +16604,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>27</v>
       </c>
@@ -15388,7 +16619,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>28</v>
       </c>
@@ -15403,7 +16634,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>29</v>
       </c>
@@ -15418,7 +16649,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>30</v>
       </c>
@@ -15433,7 +16664,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>31</v>
       </c>
@@ -15448,7 +16679,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>32</v>
       </c>
@@ -15463,7 +16694,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>33</v>
       </c>
@@ -15478,7 +16709,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>34</v>
       </c>
@@ -15493,7 +16724,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>35</v>
       </c>
@@ -15508,7 +16739,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>36</v>
       </c>
@@ -15523,7 +16754,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="17">
         <v>37</v>
       </c>
@@ -15538,7 +16769,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>38</v>
       </c>
@@ -15553,7 +16784,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>39</v>
       </c>
@@ -15568,7 +16799,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>40</v>
       </c>
@@ -15583,7 +16814,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>41</v>
       </c>
@@ -15598,7 +16829,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>42</v>
       </c>
@@ -15613,7 +16844,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>43</v>
       </c>
@@ -15628,7 +16859,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>44</v>
       </c>
@@ -15643,7 +16874,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>45</v>
       </c>
@@ -15658,7 +16889,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>46</v>
       </c>
@@ -15673,7 +16904,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>47</v>
       </c>
@@ -15688,7 +16919,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>48</v>
       </c>
@@ -15703,7 +16934,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>49</v>
       </c>
@@ -15718,7 +16949,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>50</v>
       </c>
@@ -15733,7 +16964,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>51</v>
       </c>
@@ -15748,7 +16979,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>52</v>
       </c>
@@ -15763,7 +16994,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>53</v>
       </c>
@@ -15778,7 +17009,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>54</v>
       </c>
@@ -15793,7 +17024,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>55</v>
       </c>
@@ -15808,7 +17039,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>56</v>
       </c>
@@ -15823,7 +17054,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>57</v>
       </c>
@@ -15838,7 +17069,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="18">
         <v>58</v>
       </c>
@@ -15853,7 +17084,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>59</v>
       </c>
@@ -15868,7 +17099,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>60</v>
       </c>
@@ -15883,7 +17114,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>61</v>
       </c>
@@ -15898,7 +17129,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>62</v>
       </c>
@@ -15913,7 +17144,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>63</v>
       </c>
@@ -15928,7 +17159,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>64</v>
       </c>
@@ -15943,7 +17174,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>65</v>
       </c>
@@ -15958,7 +17189,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>66</v>
       </c>
@@ -15973,7 +17204,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>67</v>
       </c>
@@ -15988,7 +17219,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>68</v>
       </c>
@@ -16002,7 +17233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>69</v>
       </c>
@@ -16016,7 +17247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>70</v>
       </c>
@@ -16030,7 +17261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>71</v>
       </c>
@@ -16044,7 +17275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>72</v>
       </c>
@@ -16058,7 +17289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>73</v>
       </c>
@@ -16087,22 +17318,22 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="20.58203125" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.9140625" customWidth="1"/>
-    <col min="5" max="5" width="11.9140625" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -16116,7 +17347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -16130,7 +17361,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>70</v>
       </c>
@@ -16144,7 +17375,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -16152,19 +17383,19 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -16178,7 +17409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2</v>
       </c>
@@ -16192,7 +17423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>3</v>
       </c>
@@ -16206,7 +17437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>4</v>
       </c>
@@ -16220,7 +17451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>5</v>
       </c>
@@ -16234,7 +17465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>6</v>
       </c>
@@ -16248,7 +17479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>7</v>
       </c>
@@ -16262,7 +17493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>8</v>
       </c>
@@ -16276,7 +17507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>9</v>
       </c>
@@ -16290,7 +17521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10</v>
       </c>
@@ -16304,7 +17535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>11</v>
       </c>
@@ -16318,7 +17549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>12</v>
       </c>
@@ -16332,7 +17563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>13</v>
       </c>
@@ -16347,7 +17578,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>14</v>
       </c>
@@ -16362,7 +17593,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>15</v>
       </c>
@@ -16377,7 +17608,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>16</v>
       </c>
@@ -16392,7 +17623,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>17</v>
       </c>
@@ -16407,7 +17638,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>18</v>
       </c>
@@ -16422,7 +17653,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>19</v>
       </c>
@@ -16437,7 +17668,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>20</v>
       </c>
@@ -16452,7 +17683,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>21</v>
       </c>
@@ -16467,7 +17698,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>22</v>
       </c>
@@ -16482,7 +17713,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>23</v>
       </c>
@@ -16497,7 +17728,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>24</v>
       </c>
@@ -16512,7 +17743,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>25</v>
       </c>
@@ -16527,7 +17758,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>26</v>
       </c>
@@ -16542,7 +17773,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>27</v>
       </c>
@@ -16557,7 +17788,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>28</v>
       </c>
@@ -16572,7 +17803,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>29</v>
       </c>
@@ -16587,7 +17818,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>30</v>
       </c>
@@ -16602,7 +17833,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>31</v>
       </c>
@@ -16617,7 +17848,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>32</v>
       </c>
@@ -16632,7 +17863,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>33</v>
       </c>
@@ -16647,7 +17878,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>34</v>
       </c>
@@ -16662,7 +17893,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>35</v>
       </c>
@@ -16677,7 +17908,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>36</v>
       </c>
@@ -16692,7 +17923,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="17">
         <v>37</v>
       </c>
@@ -16707,7 +17938,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>38</v>
       </c>
@@ -16722,7 +17953,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>39</v>
       </c>
@@ -16737,7 +17968,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>40</v>
       </c>
@@ -16752,7 +17983,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>41</v>
       </c>
@@ -16767,7 +17998,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>42</v>
       </c>
@@ -16782,7 +18013,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>43</v>
       </c>
@@ -16797,7 +18028,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>44</v>
       </c>
@@ -16812,7 +18043,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>45</v>
       </c>
@@ -16827,7 +18058,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>46</v>
       </c>
@@ -16842,7 +18073,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>47</v>
       </c>
@@ -16857,7 +18088,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>48</v>
       </c>
@@ -16872,7 +18103,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>49</v>
       </c>
@@ -16887,7 +18118,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>50</v>
       </c>
@@ -16902,7 +18133,7 @@
         <v>705.01312277163879</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>51</v>
       </c>
@@ -16917,7 +18148,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>52</v>
       </c>
@@ -16932,7 +18163,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>53</v>
       </c>
@@ -16947,7 +18178,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>54</v>
       </c>
@@ -16962,7 +18193,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>55</v>
       </c>
@@ -16977,7 +18208,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>56</v>
       </c>
@@ -16992,7 +18223,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>57</v>
       </c>
@@ -17007,7 +18238,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="18">
         <v>58</v>
       </c>
@@ -17022,7 +18253,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>59</v>
       </c>
@@ -17037,7 +18268,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>60</v>
       </c>
@@ -17052,7 +18283,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>61</v>
       </c>
@@ -17067,7 +18298,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>62</v>
       </c>
@@ -17082,7 +18313,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>63</v>
       </c>
@@ -17097,7 +18328,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>64</v>
       </c>
@@ -17112,7 +18343,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>65</v>
       </c>
@@ -17127,7 +18358,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>66</v>
       </c>
@@ -17142,7 +18373,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>67</v>
       </c>
@@ -17157,7 +18388,7 @@
         <v>523.6009579884186</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>68</v>
       </c>
@@ -17171,7 +18402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>69</v>
       </c>
@@ -17185,7 +18416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>70</v>
       </c>
@@ -17199,7 +18430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>71</v>
       </c>
@@ -17213,7 +18444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>72</v>
       </c>
@@ -17227,7 +18458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>73</v>
       </c>
@@ -17252,20 +18483,20 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AA102"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="9" max="9" width="12.25" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -17281,41 +18512,8 @@
       <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="2" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -17332,6 +18530,17 @@
       <c r="F2">
         <v>1282.9645098039218</v>
       </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2" t="s">
         <v>6</v>
@@ -17349,7 +18558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:27" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17379,7 +18588,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -17396,6 +18605,18 @@
       <c r="F4">
         <v>1335.8503846153847</v>
       </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
       <c r="V4" s="5" t="s">
         <v>13</v>
       </c>
@@ -17416,7 +18637,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -17433,6 +18654,15 @@
       <c r="F5">
         <v>1382.9523684210526</v>
       </c>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
       <c r="V5" s="5" t="s">
         <v>15</v>
       </c>
@@ -17449,7 +18679,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -17466,6 +18696,15 @@
       <c r="F6">
         <v>1181.5514285714287</v>
       </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
       <c r="V6" s="5" t="s">
         <v>17</v>
       </c>
@@ -17485,7 +18724,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -17502,6 +18741,15 @@
       <c r="F7">
         <v>1386.39625</v>
       </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
       <c r="V7" s="5" t="s">
         <v>18</v>
       </c>
@@ -17513,7 +18761,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="7"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -17549,7 +18797,7 @@
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -17579,7 +18827,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="7"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -17596,12 +18844,31 @@
       <c r="F10">
         <v>1350.0267605633796</v>
       </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>55</v>
+      </c>
       <c r="V10" s="10" t="s">
         <v>23</v>
       </c>
       <c r="W10" s="7"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -17618,8 +18885,21 @@
       <c r="F11">
         <v>1197.4238888888888</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0</v>
+      </c>
+      <c r="K11" s="24">
+        <v>33</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -17636,8 +18916,32 @@
       <c r="F12">
         <v>646.27758064516149</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12" s="23">
+        <v>1</v>
+      </c>
+      <c r="J12" s="25">
+        <v>322</v>
+      </c>
+      <c r="K12" s="24">
+        <v>119</v>
+      </c>
+      <c r="L12" s="24">
+        <v>70</v>
+      </c>
+      <c r="M12" s="24">
+        <f>(K12-K11)*$AA$6*9.80665</f>
+        <v>210842.97499999998</v>
+      </c>
+      <c r="N12" s="24">
+        <f>(J12-J11)/L12*3600</f>
+        <v>16560</v>
+      </c>
+      <c r="O12" s="24">
+        <f>M12/N12</f>
+        <v>12.732063707729468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -17654,8 +18958,32 @@
       <c r="F13">
         <v>713.09083333333331</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13" s="23">
+        <v>2</v>
+      </c>
+      <c r="J13" s="25">
+        <v>580</v>
+      </c>
+      <c r="K13" s="24">
+        <v>210</v>
+      </c>
+      <c r="L13" s="24">
+        <v>60</v>
+      </c>
+      <c r="M13" s="24">
+        <f>(K13-K12)*$AA$6*9.80665</f>
+        <v>223101.28749999998</v>
+      </c>
+      <c r="N13" s="24">
+        <f>(J13-J12)/L13*3600</f>
+        <v>15480</v>
+      </c>
+      <c r="O13" s="24">
+        <f>M13/N13</f>
+        <v>14.412227874677001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -17672,8 +19000,32 @@
       <c r="F14">
         <v>929.75268518518521</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="I14" s="23">
+        <v>3</v>
+      </c>
+      <c r="J14" s="25">
+        <v>988</v>
+      </c>
+      <c r="K14" s="24">
+        <v>365</v>
+      </c>
+      <c r="L14" s="24">
+        <v>75</v>
+      </c>
+      <c r="M14" s="24">
+        <f>(K14-K13)*$AA$6*9.80665</f>
+        <v>380007.6875</v>
+      </c>
+      <c r="N14" s="24">
+        <f>(J14-J13)/L14*3600</f>
+        <v>19584</v>
+      </c>
+      <c r="O14" s="24">
+        <f>M14/N14</f>
+        <v>19.40398731107026</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -17690,8 +19042,32 @@
       <c r="F15">
         <v>1046.252403846154</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="I15" s="23">
+        <v>4</v>
+      </c>
+      <c r="J15" s="25">
+        <v>1211</v>
+      </c>
+      <c r="K15" s="24">
+        <v>516</v>
+      </c>
+      <c r="L15" s="24">
+        <v>70</v>
+      </c>
+      <c r="M15" s="24">
+        <f>(K15-K14)*$AA$6*9.80665</f>
+        <v>370201.03749999998</v>
+      </c>
+      <c r="N15" s="24">
+        <f>(J15-J14)/L15*3600</f>
+        <v>11468.571428571428</v>
+      </c>
+      <c r="O15" s="24">
+        <f>M15/N15</f>
+        <v>32.279612138764328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -17708,8 +19084,32 @@
       <c r="F16">
         <v>1164.6832558139533</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I16" s="23">
+        <v>5</v>
+      </c>
+      <c r="J16" s="25">
+        <v>1496</v>
+      </c>
+      <c r="K16" s="24">
+        <v>576</v>
+      </c>
+      <c r="L16" s="24">
+        <v>60</v>
+      </c>
+      <c r="M16" s="24">
+        <f>(K16-K15)*$AA$6*9.80665</f>
+        <v>147099.75</v>
+      </c>
+      <c r="N16" s="24">
+        <f>(J16-J15)/L16*3600</f>
+        <v>17100</v>
+      </c>
+      <c r="O16" s="24">
+        <f>M16/N16</f>
+        <v>8.602324561403508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -17726,8 +19126,32 @@
       <c r="F17">
         <v>1347.0154285714284</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I17" s="23">
+        <v>6</v>
+      </c>
+      <c r="J17" s="25">
+        <v>1756</v>
+      </c>
+      <c r="K17" s="24">
+        <v>503</v>
+      </c>
+      <c r="L17" s="24">
+        <v>70</v>
+      </c>
+      <c r="M17" s="24">
+        <f>(K17-K16)*$AA$6*9.80665</f>
+        <v>-178971.36249999999</v>
+      </c>
+      <c r="N17" s="24">
+        <f>(J17-J16)/L17*3600</f>
+        <v>13371.428571428572</v>
+      </c>
+      <c r="O17" s="24">
+        <f>M17/N17</f>
+        <v>-13.384610443376067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -17744,8 +19168,32 @@
       <c r="F18">
         <v>1088.0877941176473</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I18" s="23">
+        <v>7</v>
+      </c>
+      <c r="J18" s="25">
+        <v>2178</v>
+      </c>
+      <c r="K18" s="24">
+        <v>222</v>
+      </c>
+      <c r="L18" s="24">
+        <v>60</v>
+      </c>
+      <c r="M18" s="24">
+        <f>(K18-K17)*$AA$6*9.80665</f>
+        <v>-688917.16249999998</v>
+      </c>
+      <c r="N18" s="24">
+        <f>(J18-J17)/L18*3600</f>
+        <v>25320</v>
+      </c>
+      <c r="O18" s="24">
+        <f>M18/N18</f>
+        <v>-27.20841874012638</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -17762,8 +19210,32 @@
       <c r="F19">
         <v>1527.5992063492063</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I19" s="23">
+        <v>8</v>
+      </c>
+      <c r="J19" s="25">
+        <v>2432</v>
+      </c>
+      <c r="K19" s="24">
+        <v>138</v>
+      </c>
+      <c r="L19" s="24">
+        <v>70</v>
+      </c>
+      <c r="M19" s="24">
+        <f>(K19-K18)*$AA$6*9.80665</f>
+        <v>-205939.65</v>
+      </c>
+      <c r="N19" s="24">
+        <f>(J19-J18)/L19*3600</f>
+        <v>13062.857142857143</v>
+      </c>
+      <c r="O19" s="24">
+        <f>M19/N19</f>
+        <v>-15.765283792650918</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -17780,8 +19252,32 @@
       <c r="F20">
         <v>1158.028121454545</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I20" s="23">
+        <v>9</v>
+      </c>
+      <c r="J20" s="25">
+        <v>2719</v>
+      </c>
+      <c r="K20" s="24">
+        <v>12</v>
+      </c>
+      <c r="L20" s="24">
+        <v>60</v>
+      </c>
+      <c r="M20" s="24">
+        <f>(K20-K19)*$AA$6*9.80665</f>
+        <v>-308909.47499999998</v>
+      </c>
+      <c r="N20" s="24">
+        <f>(J20-J19)/L20*3600</f>
+        <v>17220</v>
+      </c>
+      <c r="O20" s="24">
+        <f>M20/N20</f>
+        <v>-17.938993902439023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -17798,8 +19294,32 @@
       <c r="F21">
         <v>337.38182871655317</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I21" s="23">
+        <v>10</v>
+      </c>
+      <c r="J21" s="25">
+        <v>3022</v>
+      </c>
+      <c r="K21" s="24">
+        <v>10</v>
+      </c>
+      <c r="L21" s="24">
+        <v>70</v>
+      </c>
+      <c r="M21" s="24">
+        <f>(K21-K20)*$AA$6*9.80665</f>
+        <v>-4903.3249999999998</v>
+      </c>
+      <c r="N21" s="24">
+        <f>(J21-J20)/L21*3600</f>
+        <v>15582.857142857141</v>
+      </c>
+      <c r="O21" s="24">
+        <f>M21/N21</f>
+        <v>-0.31466148698203156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -17816,8 +19336,11 @@
       <c r="F22">
         <v>1080.453636233766</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -17834,8 +19357,11 @@
       <c r="F23">
         <v>1062.2558162337662</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -17852,8 +19378,11 @@
       <c r="F24">
         <v>578.89550895104958</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -17871,7 +19400,7 @@
         <v>802.71962514155553</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -17889,7 +19418,7 @@
         <v>1105.1131234404679</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -17907,7 +19436,7 @@
         <v>578.89550895104958</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -17925,7 +19454,7 @@
         <v>802.71962514155553</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -17943,7 +19472,7 @@
         <v>1104.3356485135141</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -17961,7 +19490,7 @@
         <v>1539.5791562790696</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -17979,7 +19508,7 @@
         <v>316.98526455000012</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -17997,7 +19526,7 @@
         <v>286.15763618181813</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
@@ -18009,7 +19538,7 @@
         <v>208.19208389579663</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
@@ -18021,7 +19550,7 @@
         <v>280.96865836970011</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
@@ -18033,7 +19562,7 @@
         <v>301.74866036271197</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
@@ -18045,7 +19574,7 @@
         <v>300.21482576811644</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
@@ -18057,7 +19586,7 @@
         <v>403.07254538921069</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
@@ -18069,7 +19598,7 @@
         <v>351.73178333033184</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
@@ -18081,7 +19610,7 @@
         <v>406.76691655073535</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
@@ -18093,7 +19622,7 @@
         <v>384.76818586527151</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
@@ -18105,7 +19634,7 @@
         <v>450.830663057202</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
@@ -18117,7 +19646,7 @@
         <v>427.07565392742339</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
@@ -18129,7 +19658,7 @@
         <v>438.785808922878</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>42</v>
       </c>
@@ -18141,7 +19670,7 @@
         <v>448.00853866141244</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>43</v>
       </c>
@@ -18153,7 +19682,7 @@
         <v>418.78589079125436</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>44</v>
       </c>
@@ -18165,7 +19694,7 @@
         <v>522.94436505356919</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>45</v>
       </c>
@@ -18177,7 +19706,7 @@
         <v>357.91634586824796</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>46</v>
       </c>
@@ -18189,7 +19718,7 @@
         <v>306.2414713671476</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>47</v>
       </c>
@@ -18201,7 +19730,7 @@
         <v>435.02187030575368</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>48</v>
       </c>
@@ -18213,7 +19742,7 @@
         <v>400.93129547508607</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>49</v>
       </c>
@@ -18225,7 +19754,7 @@
         <v>432.77463523438212</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>50</v>
       </c>
@@ -18237,7 +19766,7 @@
         <v>427.13212065568689</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>51</v>
       </c>
@@ -18249,7 +19778,7 @@
         <v>428.41034827235524</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>52</v>
       </c>
@@ -18261,7 +19790,7 @@
         <v>517.77733432223192</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>53</v>
       </c>
@@ -18273,7 +19802,7 @@
         <v>473.5319659612415</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>54</v>
       </c>
@@ -18285,7 +19814,7 @@
         <v>639.67456198793286</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>55</v>
       </c>
@@ -18297,7 +19826,7 @@
         <v>592.31124888378918</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>56</v>
       </c>
@@ -18309,7 +19838,7 @@
         <v>698.34454958206481</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>57</v>
       </c>
@@ -18321,7 +19850,7 @@
         <v>594.4316737043215</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>58</v>
       </c>
@@ -18333,7 +19862,7 @@
         <v>429.03951212870567</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>59</v>
       </c>
@@ -18345,7 +19874,7 @@
         <v>608.10419177329629</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>60</v>
       </c>
@@ -18357,7 +19886,7 @@
         <v>586.24697612763998</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>61</v>
       </c>
@@ -18369,7 +19898,7 @@
         <v>636.66413240654379</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>62</v>
       </c>
@@ -18381,7 +19910,7 @@
         <v>691.00842213258909</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>63</v>
       </c>
@@ -18393,7 +19922,7 @@
         <v>755.26367322974011</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>64</v>
       </c>
@@ -18405,7 +19934,7 @@
         <v>796.66304018347887</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>65</v>
       </c>
@@ -18417,7 +19946,7 @@
         <v>687.85254762281738</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>66</v>
       </c>
@@ -18429,7 +19958,7 @@
         <v>758.64970055663844</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>67</v>
       </c>
@@ -18441,7 +19970,7 @@
         <v>721.0295653732594</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>68</v>
       </c>
@@ -18453,7 +19982,7 @@
         <v>630.56916639749272</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>69</v>
       </c>
@@ -18465,7 +19994,7 @@
         <v>688.85758623526272</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>70</v>
       </c>
@@ -18477,7 +20006,7 @@
         <v>720.61336688399786</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>71</v>
       </c>
@@ -18489,7 +20018,7 @@
         <v>781.49462753962507</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>72</v>
       </c>
@@ -18501,7 +20030,7 @@
         <v>491.25138567873921</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>73</v>
       </c>
@@ -18513,7 +20042,7 @@
         <v>675.49473546921024</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>74</v>
       </c>
@@ -18525,7 +20054,7 @@
         <v>727.78375237876219</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>75</v>
       </c>
@@ -18537,7 +20066,7 @@
         <v>771.00207362263836</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>76</v>
       </c>
@@ -18549,7 +20078,7 @@
         <v>566.06246564813819</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>77</v>
       </c>
@@ -18561,7 +20090,7 @@
         <v>806.66018446125702</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>78</v>
       </c>
@@ -18573,7 +20102,7 @@
         <v>925.75983588891631</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>79</v>
       </c>
@@ -18585,7 +20114,7 @@
         <v>826.5662243477974</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>80</v>
       </c>
@@ -18597,7 +20126,7 @@
         <v>967.19267314666638</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>81</v>
       </c>
@@ -18609,7 +20138,7 @@
         <v>553.57798315402567</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>82</v>
       </c>
@@ -18621,7 +20150,7 @@
         <v>672.36742799806325</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>83</v>
       </c>
@@ -18633,7 +20162,7 @@
         <v>836.22557058040161</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>84</v>
       </c>
@@ -18645,7 +20174,7 @@
         <v>775.43830323108614</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>85</v>
       </c>
@@ -18657,7 +20186,7 @@
         <v>906.888163340392</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>86</v>
       </c>
@@ -18669,7 +20198,7 @@
         <v>1109.3174588727761</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>87</v>
       </c>
@@ -18681,7 +20210,7 @@
         <v>900.13316691634611</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>88</v>
       </c>
@@ -18693,7 +20222,7 @@
         <v>982.48187278763487</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>89</v>
       </c>
@@ -18705,7 +20234,7 @@
         <v>1050.7051536953759</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>90</v>
       </c>
@@ -18717,7 +20246,7 @@
         <v>1195.4124864009634</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>91</v>
       </c>
@@ -18729,7 +20258,7 @@
         <v>1249.3739065170041</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>92</v>
       </c>
@@ -18741,7 +20270,7 @@
         <v>1267.0413421754465</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>93</v>
       </c>
@@ -18753,7 +20282,7 @@
         <v>548.98143326068021</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>94</v>
       </c>
@@ -18765,7 +20294,7 @@
         <v>1508.9847950789372</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>95</v>
       </c>
@@ -18777,7 +20306,7 @@
         <v>1471.5009348181823</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>96</v>
       </c>
@@ -18789,7 +20318,7 @@
         <v>1033.7238897483612</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>97</v>
       </c>
@@ -18801,7 +20330,7 @@
         <v>913.00122950270429</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>98</v>
       </c>
@@ -18813,7 +20342,7 @@
         <v>811.03016662755135</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>99</v>
       </c>
@@ -18825,7 +20354,7 @@
         <v>775.09202161877658</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>100</v>
       </c>

--- a/BWSC2019-EneMane/PM/PM.xlsx
+++ b/BWSC2019-EneMane/PM/PM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouho\Documents\GitHub\solar-energy-management-\BWSC2019-EneMane\PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49529CFD-436A-40C2-A101-0E46E886F9FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED242011-4DB0-4EBE-B64C-6D3419831BA3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48F4E5B9-CD80-4D92-94B2-C6C662884FF4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
   <si>
     <t>Trip</t>
     <phoneticPr fontId="2"/>
@@ -277,14 +277,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>n</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n+1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>速度[km/h]</t>
     <rPh sb="0" eb="2">
       <t>ソクド</t>
@@ -357,14 +349,51 @@
     <t>vd[km/h](事前予定)</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>スタート前の入力</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レース中の入力</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n+1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -411,7 +440,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +462,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,7 +575,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -571,12 +612,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -602,6 +637,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9545,14 +9607,14 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="16.58203125" customWidth="1"/>
-    <col min="3" max="3" width="23" style="11" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="11.08203125" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
@@ -9561,28 +9623,30 @@
       <c r="A1" t="s">
         <v>32</v>
       </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="D2" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>45</v>
+      <c r="G2" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -9592,13 +9656,13 @@
       <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="19" t="s">
         <v>42</v>
       </c>
       <c r="G3" s="7"/>
@@ -9611,10 +9675,10 @@
       <c r="B4" s="7">
         <v>705.01312277163879</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="20">
         <v>60</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="20">
         <v>523.6009579884186</v>
       </c>
     </row>
@@ -9625,10 +9689,10 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="22" t="s">
         <v>41</v>
       </c>
       <c r="E5" t="s">
@@ -9637,8 +9701,8 @@
       <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
+      <c r="G5" s="29" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -9648,10 +9712,10 @@
       <c r="B6" s="1">
         <v>43751.25</v>
       </c>
-      <c r="C6" s="12">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="C6" s="24">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22">
         <v>0</v>
       </c>
       <c r="E6">
@@ -9661,6 +9725,7 @@
       <c r="F6">
         <v>0</v>
       </c>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
@@ -9669,10 +9734,10 @@
       <c r="B7" s="1">
         <v>43751.256944444445</v>
       </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="C7" s="24">
+        <v>0</v>
+      </c>
+      <c r="D7" s="22">
         <v>0</v>
       </c>
       <c r="E7">
@@ -9682,6 +9747,7 @@
       <c r="F7">
         <v>0</v>
       </c>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
@@ -9690,10 +9756,10 @@
       <c r="B8" s="1">
         <v>43751.263888888891</v>
       </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="C8" s="24">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22">
         <v>0</v>
       </c>
       <c r="E8">
@@ -9703,6 +9769,7 @@
       <c r="F8">
         <v>0</v>
       </c>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
@@ -9711,10 +9778,10 @@
       <c r="B9" s="1">
         <v>43751.270833333336</v>
       </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="C9" s="24">
+        <v>0</v>
+      </c>
+      <c r="D9" s="22">
         <v>0</v>
       </c>
       <c r="E9">
@@ -9724,6 +9791,7 @@
       <c r="F9">
         <v>0</v>
       </c>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
@@ -9732,10 +9800,10 @@
       <c r="B10" s="1">
         <v>43751.277777777781</v>
       </c>
-      <c r="C10" s="12">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="C10" s="24">
+        <v>0</v>
+      </c>
+      <c r="D10" s="22">
         <v>0</v>
       </c>
       <c r="E10">
@@ -9745,6 +9813,7 @@
       <c r="F10">
         <v>0</v>
       </c>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
@@ -9753,10 +9822,10 @@
       <c r="B11" s="1">
         <v>43751.284722222219</v>
       </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="C11" s="24">
+        <v>0</v>
+      </c>
+      <c r="D11" s="22">
         <v>0</v>
       </c>
       <c r="E11">
@@ -9766,6 +9835,7 @@
       <c r="F11">
         <v>0</v>
       </c>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
@@ -9774,10 +9844,10 @@
       <c r="B12" s="1">
         <v>43751.291666666664</v>
       </c>
-      <c r="C12" s="12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="C12" s="24">
+        <v>0</v>
+      </c>
+      <c r="D12" s="22">
         <v>0</v>
       </c>
       <c r="E12">
@@ -9787,6 +9857,7 @@
       <c r="F12">
         <v>0</v>
       </c>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
@@ -9795,10 +9866,10 @@
       <c r="B13" s="1">
         <v>43751.298611111109</v>
       </c>
-      <c r="C13" s="12">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="C13" s="24">
+        <v>0</v>
+      </c>
+      <c r="D13" s="22">
         <v>0</v>
       </c>
       <c r="E13">
@@ -9808,6 +9879,7 @@
       <c r="F13">
         <v>0</v>
       </c>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
@@ -9816,10 +9888,10 @@
       <c r="B14" s="1">
         <v>43751.305555555555</v>
       </c>
-      <c r="C14" s="12">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="C14" s="24">
+        <v>0</v>
+      </c>
+      <c r="D14" s="22">
         <v>0</v>
       </c>
       <c r="E14">
@@ -9829,6 +9901,7 @@
       <c r="F14">
         <v>0</v>
       </c>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
@@ -9837,10 +9910,10 @@
       <c r="B15" s="1">
         <v>43751.3125</v>
       </c>
-      <c r="C15" s="12">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="C15" s="24">
+        <v>0</v>
+      </c>
+      <c r="D15" s="22">
         <v>0</v>
       </c>
       <c r="E15">
@@ -9850,6 +9923,7 @@
       <c r="F15">
         <v>0</v>
       </c>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
@@ -9858,10 +9932,10 @@
       <c r="B16" s="1">
         <v>43751.319444444445</v>
       </c>
-      <c r="C16" s="12">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="C16" s="24">
+        <v>0</v>
+      </c>
+      <c r="D16" s="22">
         <v>0</v>
       </c>
       <c r="E16">
@@ -9871,18 +9945,19 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>12</v>
       </c>
       <c r="B17" s="1">
         <v>43751.326388888891</v>
       </c>
-      <c r="C17" s="12">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="C17" s="24">
+        <v>0</v>
+      </c>
+      <c r="D17" s="22">
         <v>0</v>
       </c>
       <c r="E17">
@@ -9892,18 +9967,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>13</v>
       </c>
       <c r="B18" s="1">
         <v>43751.333333333336</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="22">
         <f t="shared" ref="D18:D42" si="1">-$B$4</f>
         <v>-705.01312277163879</v>
       </c>
@@ -9915,18 +9991,25 @@
         <f>$A$4</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18" s="29">
+        <f>F18*0</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>14</v>
       </c>
       <c r="B19" s="1">
         <v>43751.340277777781</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
@@ -9938,18 +10021,25 @@
         <f t="shared" ref="F19:F42" si="2">$A$4</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G19" s="29">
+        <f>F19*10/60</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>15</v>
       </c>
       <c r="B20" s="1">
         <v>43751.347222222219</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
@@ -9961,18 +10051,22 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G20" s="29">
+        <f>F20*10/60+G19</f>
+        <v>23.333333333333332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>16</v>
       </c>
       <c r="B21" s="1">
         <v>43751.354166666664</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
@@ -9984,18 +10078,22 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G21" s="29">
+        <f>F21*10/60+G20</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>17</v>
       </c>
       <c r="B22" s="1">
         <v>43751.361111111109</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
@@ -10007,18 +10105,22 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G22" s="29">
+        <f t="shared" ref="G21:G78" si="3">F22*10/60+G21</f>
+        <v>46.666666666666664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>18</v>
       </c>
       <c r="B23" s="1">
         <v>43751.368055555555</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
@@ -10030,18 +10132,22 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G23" s="29">
+        <f t="shared" si="3"/>
+        <v>58.333333333333329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>19</v>
       </c>
       <c r="B24" s="1">
         <v>43751.375</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
@@ -10053,18 +10159,22 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G24" s="29">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>20</v>
       </c>
       <c r="B25" s="1">
         <v>43751.381944444445</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
@@ -10076,18 +10186,22 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G25" s="29">
+        <f t="shared" si="3"/>
+        <v>81.666666666666671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>21</v>
       </c>
       <c r="B26" s="1">
         <v>43751.388888888891</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
@@ -10099,18 +10213,22 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G26" s="29">
+        <f t="shared" si="3"/>
+        <v>93.333333333333343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>22</v>
       </c>
       <c r="B27" s="1">
         <v>43751.395833333336</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
@@ -10122,18 +10240,22 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G27" s="29">
+        <f t="shared" si="3"/>
+        <v>105.00000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>23</v>
       </c>
       <c r="B28" s="1">
         <v>43751.402777777781</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
@@ -10145,18 +10267,22 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G28" s="29">
+        <f t="shared" si="3"/>
+        <v>116.66666666666669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>24</v>
       </c>
       <c r="B29" s="1">
         <v>43751.409722222219</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
@@ -10168,18 +10294,22 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G29" s="29">
+        <f t="shared" si="3"/>
+        <v>128.33333333333334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>25</v>
       </c>
       <c r="B30" s="1">
         <v>43751.416666666664</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
@@ -10191,18 +10321,22 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G30" s="29">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>26</v>
       </c>
       <c r="B31" s="1">
         <v>43751.423611111109</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
@@ -10214,18 +10348,22 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G31" s="29">
+        <f t="shared" si="3"/>
+        <v>151.66666666666666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>27</v>
       </c>
       <c r="B32" s="1">
         <v>43751.430555555555</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
@@ -10237,18 +10375,22 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G32" s="29">
+        <f t="shared" si="3"/>
+        <v>163.33333333333331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>28</v>
       </c>
       <c r="B33" s="1">
         <v>43751.4375</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
@@ -10260,18 +10402,22 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G33" s="29">
+        <f t="shared" si="3"/>
+        <v>174.99999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>29</v>
       </c>
       <c r="B34" s="1">
         <v>43751.444444444445</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
@@ -10283,18 +10429,22 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G34" s="29">
+        <f t="shared" si="3"/>
+        <v>186.66666666666663</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>30</v>
       </c>
       <c r="B35" s="1">
         <v>43751.451388888891</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
@@ -10306,18 +10456,22 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G35" s="29">
+        <f t="shared" si="3"/>
+        <v>198.33333333333329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>31</v>
       </c>
       <c r="B36" s="1">
         <v>43751.458333333336</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
@@ -10329,18 +10483,22 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G36" s="29">
+        <f t="shared" si="3"/>
+        <v>209.99999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>32</v>
       </c>
       <c r="B37" s="1">
         <v>43751.465277777781</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
@@ -10352,934 +10510,1102 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G37" s="29">
+        <f t="shared" si="3"/>
+        <v>221.6666666666666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>33</v>
       </c>
       <c r="B38" s="1">
         <v>43751.472222222219</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38:E69" si="3">-D38</f>
+        <f t="shared" ref="E38:E69" si="4">-D38</f>
         <v>705.01312277163879</v>
       </c>
       <c r="F38">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G38" s="29">
+        <f t="shared" si="3"/>
+        <v>233.33333333333326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>34</v>
       </c>
       <c r="B39" s="1">
         <v>43751.479166666664</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
       <c r="E39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>705.01312277163879</v>
       </c>
       <c r="F39">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G39" s="29">
+        <f t="shared" si="3"/>
+        <v>244.99999999999991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>35</v>
       </c>
       <c r="B40" s="1">
         <v>43751.486111111109</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
       <c r="E40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>705.01312277163879</v>
       </c>
       <c r="F40">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G40" s="29">
+        <f t="shared" si="3"/>
+        <v>256.66666666666657</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>36</v>
       </c>
       <c r="B41" s="1">
         <v>43751.493055555555</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
       <c r="E41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>705.01312277163879</v>
       </c>
       <c r="F41">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="17">
+      <c r="G41" s="29">
+        <f t="shared" si="3"/>
+        <v>268.33333333333326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="15">
         <v>37</v>
       </c>
       <c r="B42" s="1">
         <v>43751.5</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="24">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="22">
         <f t="shared" si="1"/>
         <v>-705.01312277163879</v>
       </c>
       <c r="E42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>705.01312277163879</v>
       </c>
       <c r="F42">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G42" s="29">
+        <f t="shared" si="3"/>
+        <v>279.99999999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>38</v>
       </c>
       <c r="B43" s="1">
         <v>43751.506944444445</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="22">
         <f>-$D$4</f>
         <v>-523.6009579884186</v>
       </c>
       <c r="E43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>523.6009579884186</v>
       </c>
       <c r="F43">
         <f>$C$4</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G43" s="29">
+        <f t="shared" si="3"/>
+        <v>289.99999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>39</v>
       </c>
       <c r="B44" s="1">
         <v>43751.513888888891</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D44" s="11">
-        <f t="shared" ref="D44:D71" si="4">-$D$4</f>
+      <c r="D44" s="22">
+        <f t="shared" ref="D44:D71" si="5">-$D$4</f>
         <v>-523.6009579884186</v>
       </c>
       <c r="E44">
+        <f t="shared" si="4"/>
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44:F71" si="6">$C$4</f>
+        <v>60</v>
+      </c>
+      <c r="G44" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F44">
-        <f t="shared" ref="F44:F71" si="5">$C$4</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>299.99999999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>40</v>
       </c>
       <c r="B45" s="1">
         <v>43751.520833333336</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E45">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E45">
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G45" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>309.99999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>41</v>
       </c>
       <c r="B46" s="1">
         <v>43751.527777777781</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E46">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E46">
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G46" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>319.99999999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>42</v>
       </c>
       <c r="B47" s="1">
         <v>43751.534722222219</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E47">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E47">
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G47" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>329.99999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>43</v>
       </c>
       <c r="B48" s="1">
         <v>43751.541666666664</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E48">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E48">
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G48" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>339.99999999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>44</v>
       </c>
       <c r="B49" s="1">
         <v>43751.548611111109</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E49">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E49">
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G49" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>349.99999999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>45</v>
       </c>
       <c r="B50" s="1">
         <v>43751.555555555555</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E50">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E50">
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G50" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>359.99999999999994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>46</v>
       </c>
       <c r="B51" s="1">
         <v>43751.5625</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E51">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E51">
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G51" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>369.99999999999994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>47</v>
       </c>
       <c r="B52" s="1">
         <v>43751.569444444445</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E52">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E52">
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G52" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>379.99999999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>48</v>
       </c>
       <c r="B53" s="1">
         <v>43751.576388888891</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E53">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E53">
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G53" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>389.99999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>49</v>
       </c>
       <c r="B54" s="1">
         <v>43751.583333333336</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E54">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E54">
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G54" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>399.99999999999994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>50</v>
       </c>
       <c r="B55" s="1">
         <v>43751.590277777781</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E55">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E55">
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G55" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>409.99999999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>51</v>
       </c>
       <c r="B56" s="1">
         <v>43751.597222222219</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E56">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E56">
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G56" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>419.99999999999994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>52</v>
       </c>
       <c r="B57" s="1">
         <v>43751.604166666664</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E57">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E57">
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G57" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>429.99999999999994</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>53</v>
       </c>
       <c r="B58" s="1">
         <v>43751.611111111109</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E58">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E58">
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G58" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>439.99999999999994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>54</v>
       </c>
       <c r="B59" s="1">
         <v>43751.618055555555</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E59">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E59">
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G59" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>449.99999999999994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>55</v>
       </c>
       <c r="B60" s="1">
         <v>43751.625</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E60">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E60">
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G60" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>459.99999999999994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>56</v>
       </c>
       <c r="B61" s="1">
         <v>43751.631944444445</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E61">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E61">
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G61" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>469.99999999999994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>57</v>
       </c>
       <c r="B62" s="1">
         <v>43751.638888888891</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E62">
         <f t="shared" si="4"/>
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G62" s="29">
+        <f t="shared" si="3"/>
+        <v>479.99999999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="16">
+        <v>58</v>
+      </c>
+      <c r="B63" s="17">
+        <v>43751.645833333336</v>
+      </c>
+      <c r="C63" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="E62">
+      <c r="D63" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="4"/>
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G63" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="18">
-        <v>58</v>
-      </c>
-      <c r="B63" s="19">
-        <v>43751.645833333336</v>
-      </c>
-      <c r="C63" s="12">
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="D63" s="11">
-        <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>489.99999999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>59</v>
       </c>
       <c r="B64" s="1">
         <v>43751.652777777781</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E64">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E64">
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G64" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>499.99999999999994</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>60</v>
       </c>
       <c r="B65" s="1">
         <v>43751.659722222219</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E65">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E65">
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G65" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>509.99999999999994</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>61</v>
       </c>
       <c r="B66" s="1">
         <v>43751.666666666664</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E66">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E66">
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G66" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>62</v>
       </c>
       <c r="B67" s="1">
         <v>43751.673611111109</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E67">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E67">
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G67" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F67">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>63</v>
       </c>
       <c r="B68" s="1">
         <v>43751.680555555555</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E68">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E68">
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G68" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>64</v>
       </c>
       <c r="B69" s="1">
         <v>43751.6875</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="22">
+        <f t="shared" si="5"/>
+        <v>-523.6009579884186</v>
+      </c>
+      <c r="E69">
         <f t="shared" si="4"/>
-        <v>-523.6009579884186</v>
-      </c>
-      <c r="E69">
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G69" s="29">
         <f t="shared" si="3"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>65</v>
       </c>
       <c r="B70" s="1">
         <v>43751.694444444445</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D70" s="11">
-        <f t="shared" si="4"/>
+      <c r="D70" s="22">
+        <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
       <c r="E70">
-        <f t="shared" ref="E70:E78" si="6">-D70</f>
+        <f t="shared" ref="E70:E78" si="7">-D70</f>
         <v>523.6009579884186</v>
       </c>
       <c r="F70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G70" s="29">
+        <f t="shared" si="3"/>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>66</v>
       </c>
       <c r="B71" s="1">
         <v>43751.701388888891</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="24">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D71" s="11">
-        <f t="shared" si="4"/>
+      <c r="D71" s="22">
+        <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
       <c r="E71">
+        <f t="shared" si="7"/>
+        <v>523.6009579884186</v>
+      </c>
+      <c r="F71">
         <f t="shared" si="6"/>
-        <v>523.6009579884186</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G71" s="29">
+        <f t="shared" si="3"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>67</v>
       </c>
       <c r="B72" s="1">
         <v>43751.708333333336</v>
       </c>
-      <c r="C72" s="12">
-        <v>0</v>
-      </c>
-      <c r="D72" s="11">
+      <c r="C72" s="24">
+        <v>0</v>
+      </c>
+      <c r="D72" s="22">
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G72" s="29">
+        <f t="shared" si="3"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>68</v>
       </c>
       <c r="B73" s="1">
         <v>43751.715277777781</v>
       </c>
-      <c r="C73" s="12">
-        <v>0</v>
-      </c>
-      <c r="D73" s="11">
+      <c r="C73" s="24">
+        <v>0</v>
+      </c>
+      <c r="D73" s="22">
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G73" s="29">
+        <f t="shared" si="3"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>69</v>
       </c>
       <c r="B74" s="1">
         <v>43751.722222222219</v>
       </c>
-      <c r="C74" s="12">
-        <v>0</v>
-      </c>
-      <c r="D74" s="11">
+      <c r="C74" s="24">
+        <v>0</v>
+      </c>
+      <c r="D74" s="22">
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G74" s="29">
+        <f t="shared" si="3"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>70</v>
       </c>
       <c r="B75" s="1">
         <v>43751.729166666664</v>
       </c>
-      <c r="C75" s="12">
-        <v>0</v>
-      </c>
-      <c r="D75" s="11">
+      <c r="C75" s="24">
+        <v>0</v>
+      </c>
+      <c r="D75" s="22">
         <v>0</v>
       </c>
       <c r="E75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G75" s="29">
+        <f t="shared" si="3"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>71</v>
       </c>
       <c r="B76" s="1">
         <v>43751.736111111109</v>
       </c>
-      <c r="C76" s="12">
-        <v>0</v>
-      </c>
-      <c r="D76" s="11">
+      <c r="C76" s="24">
+        <v>0</v>
+      </c>
+      <c r="D76" s="22">
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G76" s="29">
+        <f t="shared" si="3"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>72</v>
       </c>
       <c r="B77" s="1">
         <v>43751.743055555555</v>
       </c>
-      <c r="C77" s="12">
-        <v>0</v>
-      </c>
-      <c r="D77" s="11">
+      <c r="C77" s="24">
+        <v>0</v>
+      </c>
+      <c r="D77" s="22">
         <v>0</v>
       </c>
       <c r="E77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G77" s="29">
+        <f t="shared" si="3"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A78">
         <v>73</v>
       </c>
       <c r="B78" s="1">
         <v>43751.75</v>
       </c>
-      <c r="C78" s="13">
-        <v>0</v>
-      </c>
-      <c r="D78" s="11">
+      <c r="C78" s="25">
+        <v>0</v>
+      </c>
+      <c r="D78" s="22">
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F78">
         <v>0</v>
+      </c>
+      <c r="G78" s="29">
+        <f t="shared" si="3"/>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -11343,13 +11669,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -11392,23 +11718,23 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>59</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>43752.25</v>
       </c>
       <c r="C6">
@@ -11422,7 +11748,7 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>43752.256944444445</v>
       </c>
       <c r="C7">
@@ -11436,7 +11762,7 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>43752.263888888891</v>
       </c>
       <c r="C8">
@@ -11450,7 +11776,7 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>43752.270833333336</v>
       </c>
       <c r="C9">
@@ -11464,7 +11790,7 @@
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>43752.277777777781</v>
       </c>
       <c r="C10">
@@ -11478,7 +11804,7 @@
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>43752.284722222219</v>
       </c>
       <c r="C11">
@@ -11492,7 +11818,7 @@
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>43752.291666666664</v>
       </c>
       <c r="C12">
@@ -11506,7 +11832,7 @@
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <v>43752.298611111109</v>
       </c>
       <c r="C13">
@@ -11520,7 +11846,7 @@
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <v>43752.305555555555</v>
       </c>
       <c r="C14">
@@ -11534,7 +11860,7 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="14">
         <v>43752.3125</v>
       </c>
       <c r="C15">
@@ -11548,7 +11874,7 @@
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="14">
         <v>43752.319444444445</v>
       </c>
       <c r="C16">
@@ -11562,7 +11888,7 @@
       <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <v>43752.326388888891</v>
       </c>
       <c r="C17">
@@ -11576,7 +11902,7 @@
       <c r="A18">
         <v>13</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="14">
         <v>43752.333333333336</v>
       </c>
       <c r="C18">
@@ -11591,7 +11917,7 @@
       <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="14">
         <v>43752.340277777781</v>
       </c>
       <c r="C19">
@@ -11606,7 +11932,7 @@
       <c r="A20">
         <v>15</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="14">
         <v>43752.347222222219</v>
       </c>
       <c r="C20">
@@ -11621,7 +11947,7 @@
       <c r="A21">
         <v>16</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="14">
         <v>43752.354166666664</v>
       </c>
       <c r="C21">
@@ -11636,7 +11962,7 @@
       <c r="A22">
         <v>17</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="14">
         <v>43752.361111111109</v>
       </c>
       <c r="C22">
@@ -11651,7 +11977,7 @@
       <c r="A23">
         <v>18</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="14">
         <v>43752.368055555555</v>
       </c>
       <c r="C23">
@@ -11666,7 +11992,7 @@
       <c r="A24">
         <v>19</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="14">
         <v>43752.375</v>
       </c>
       <c r="C24">
@@ -11681,7 +12007,7 @@
       <c r="A25">
         <v>20</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="14">
         <v>43752.381944444445</v>
       </c>
       <c r="C25">
@@ -11696,7 +12022,7 @@
       <c r="A26">
         <v>21</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="14">
         <v>43752.388888888891</v>
       </c>
       <c r="C26">
@@ -11711,7 +12037,7 @@
       <c r="A27">
         <v>22</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="14">
         <v>43752.395833333336</v>
       </c>
       <c r="C27">
@@ -11726,7 +12052,7 @@
       <c r="A28">
         <v>23</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="14">
         <v>43752.402777777781</v>
       </c>
       <c r="C28">
@@ -11741,7 +12067,7 @@
       <c r="A29">
         <v>24</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="14">
         <v>43752.409722222219</v>
       </c>
       <c r="C29">
@@ -11756,7 +12082,7 @@
       <c r="A30">
         <v>25</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="14">
         <v>43752.416666666664</v>
       </c>
       <c r="C30">
@@ -11771,7 +12097,7 @@
       <c r="A31">
         <v>26</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="14">
         <v>43752.423611111109</v>
       </c>
       <c r="C31">
@@ -11786,7 +12112,7 @@
       <c r="A32">
         <v>27</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="14">
         <v>43752.430555555555</v>
       </c>
       <c r="C32">
@@ -11801,7 +12127,7 @@
       <c r="A33">
         <v>28</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="14">
         <v>43752.4375</v>
       </c>
       <c r="C33">
@@ -11816,7 +12142,7 @@
       <c r="A34">
         <v>29</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="14">
         <v>43752.444444444445</v>
       </c>
       <c r="C34">
@@ -11831,7 +12157,7 @@
       <c r="A35">
         <v>30</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="14">
         <v>43752.451388888891</v>
       </c>
       <c r="C35">
@@ -11846,7 +12172,7 @@
       <c r="A36">
         <v>31</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="14">
         <v>43752.458333333336</v>
       </c>
       <c r="C36">
@@ -11861,7 +12187,7 @@
       <c r="A37">
         <v>32</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="14">
         <v>43752.465277777781</v>
       </c>
       <c r="C37">
@@ -11876,7 +12202,7 @@
       <c r="A38">
         <v>33</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="14">
         <v>43752.472222222219</v>
       </c>
       <c r="C38">
@@ -11891,7 +12217,7 @@
       <c r="A39">
         <v>34</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="14">
         <v>43752.479166666664</v>
       </c>
       <c r="C39">
@@ -11906,7 +12232,7 @@
       <c r="A40">
         <v>35</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="14">
         <v>43752.486111111109</v>
       </c>
       <c r="C40">
@@ -11921,7 +12247,7 @@
       <c r="A41">
         <v>36</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="14">
         <v>43752.493055555555</v>
       </c>
       <c r="C41">
@@ -11936,7 +12262,7 @@
       <c r="A42">
         <v>37</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="14">
         <v>43752.5</v>
       </c>
       <c r="C42">
@@ -11951,7 +12277,7 @@
       <c r="A43">
         <v>38</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="14">
         <v>43752.506944444445</v>
       </c>
       <c r="C43">
@@ -11966,7 +12292,7 @@
       <c r="A44">
         <v>39</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="14">
         <v>43752.513888888891</v>
       </c>
       <c r="C44">
@@ -11981,7 +12307,7 @@
       <c r="A45">
         <v>40</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="14">
         <v>43752.520833333336</v>
       </c>
       <c r="C45">
@@ -11996,7 +12322,7 @@
       <c r="A46">
         <v>41</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="14">
         <v>43752.527777777781</v>
       </c>
       <c r="C46">
@@ -12011,7 +12337,7 @@
       <c r="A47">
         <v>42</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="14">
         <v>43752.534722222219</v>
       </c>
       <c r="C47">
@@ -12026,7 +12352,7 @@
       <c r="A48">
         <v>43</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="14">
         <v>43752.541666666664</v>
       </c>
       <c r="C48">
@@ -12041,7 +12367,7 @@
       <c r="A49">
         <v>44</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="14">
         <v>43752.548611111109</v>
       </c>
       <c r="C49">
@@ -12056,7 +12382,7 @@
       <c r="A50">
         <v>45</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="14">
         <v>43752.555555555555</v>
       </c>
       <c r="C50">
@@ -12071,7 +12397,7 @@
       <c r="A51">
         <v>46</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="14">
         <v>43752.5625</v>
       </c>
       <c r="C51">
@@ -12086,7 +12412,7 @@
       <c r="A52">
         <v>47</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="14">
         <v>43752.569444444445</v>
       </c>
       <c r="C52">
@@ -12101,7 +12427,7 @@
       <c r="A53">
         <v>48</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="14">
         <v>43752.576388888891</v>
       </c>
       <c r="C53">
@@ -12113,10 +12439,10 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="18">
+      <c r="A54" s="16">
         <v>49</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B54" s="18">
         <v>43752.583333333336</v>
       </c>
       <c r="C54">
@@ -12131,7 +12457,7 @@
       <c r="A55">
         <v>50</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="14">
         <v>43752.590277777781</v>
       </c>
       <c r="C55">
@@ -12146,7 +12472,7 @@
       <c r="A56">
         <v>51</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="14">
         <v>43752.597222222219</v>
       </c>
       <c r="C56">
@@ -12161,7 +12487,7 @@
       <c r="A57">
         <v>52</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="14">
         <v>43752.604166666664</v>
       </c>
       <c r="C57">
@@ -12176,7 +12502,7 @@
       <c r="A58">
         <v>53</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="14">
         <v>43752.611111111109</v>
       </c>
       <c r="C58">
@@ -12191,7 +12517,7 @@
       <c r="A59">
         <v>54</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="14">
         <v>43752.618055555555</v>
       </c>
       <c r="C59">
@@ -12206,7 +12532,7 @@
       <c r="A60">
         <v>55</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="14">
         <v>43752.625</v>
       </c>
       <c r="C60">
@@ -12221,7 +12547,7 @@
       <c r="A61">
         <v>56</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="14">
         <v>43752.631944444445</v>
       </c>
       <c r="C61">
@@ -12236,7 +12562,7 @@
       <c r="A62">
         <v>57</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="14">
         <v>43752.638888888891</v>
       </c>
       <c r="C62">
@@ -12251,7 +12577,7 @@
       <c r="A63">
         <v>58</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="14">
         <v>43752.645833333336</v>
       </c>
       <c r="C63">
@@ -12266,7 +12592,7 @@
       <c r="A64">
         <v>59</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="14">
         <v>43752.652777777781</v>
       </c>
       <c r="C64">
@@ -12281,7 +12607,7 @@
       <c r="A65">
         <v>60</v>
       </c>
-      <c r="B65" s="16">
+      <c r="B65" s="14">
         <v>43752.659722222219</v>
       </c>
       <c r="C65">
@@ -12296,7 +12622,7 @@
       <c r="A66">
         <v>61</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B66" s="14">
         <v>43752.666666666664</v>
       </c>
       <c r="C66">
@@ -12311,7 +12637,7 @@
       <c r="A67">
         <v>62</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B67" s="14">
         <v>43752.673611111109</v>
       </c>
       <c r="C67">
@@ -12326,7 +12652,7 @@
       <c r="A68">
         <v>63</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="14">
         <v>43752.680555555555</v>
       </c>
       <c r="C68">
@@ -12341,7 +12667,7 @@
       <c r="A69">
         <v>64</v>
       </c>
-      <c r="B69" s="16">
+      <c r="B69" s="14">
         <v>43752.6875</v>
       </c>
       <c r="C69">
@@ -12356,7 +12682,7 @@
       <c r="A70">
         <v>65</v>
       </c>
-      <c r="B70" s="16">
+      <c r="B70" s="14">
         <v>43752.694444444445</v>
       </c>
       <c r="C70">
@@ -12371,7 +12697,7 @@
       <c r="A71">
         <v>66</v>
       </c>
-      <c r="B71" s="16">
+      <c r="B71" s="14">
         <v>43752.701388888891</v>
       </c>
       <c r="C71">
@@ -12386,7 +12712,7 @@
       <c r="A72">
         <v>67</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B72" s="14">
         <v>43752.708333333336</v>
       </c>
       <c r="C72">
@@ -12401,7 +12727,7 @@
       <c r="A73">
         <v>68</v>
       </c>
-      <c r="B73" s="16">
+      <c r="B73" s="14">
         <v>43752.715277777781</v>
       </c>
       <c r="C73">
@@ -12415,7 +12741,7 @@
       <c r="A74">
         <v>69</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="14">
         <v>43752.722222222219</v>
       </c>
       <c r="C74">
@@ -12429,7 +12755,7 @@
       <c r="A75">
         <v>70</v>
       </c>
-      <c r="B75" s="16">
+      <c r="B75" s="14">
         <v>43752.729166666664</v>
       </c>
       <c r="C75">
@@ -12443,7 +12769,7 @@
       <c r="A76">
         <v>71</v>
       </c>
-      <c r="B76" s="16">
+      <c r="B76" s="14">
         <v>43752.736111111109</v>
       </c>
       <c r="C76">
@@ -12457,7 +12783,7 @@
       <c r="A77">
         <v>72</v>
       </c>
-      <c r="B77" s="16">
+      <c r="B77" s="14">
         <v>43752.743055555555</v>
       </c>
       <c r="C77">
@@ -12471,7 +12797,7 @@
       <c r="A78">
         <v>73</v>
       </c>
-      <c r="B78" s="16">
+      <c r="B78" s="14">
         <v>43752.75</v>
       </c>
       <c r="C78">
@@ -12485,7 +12811,7 @@
       <c r="A79">
         <v>74</v>
       </c>
-      <c r="B79" s="16">
+      <c r="B79" s="14">
         <v>43752.756944444445</v>
       </c>
       <c r="C79">
@@ -12499,7 +12825,7 @@
       <c r="A80">
         <v>75</v>
       </c>
-      <c r="B80" s="16">
+      <c r="B80" s="14">
         <v>43752.763888888891</v>
       </c>
       <c r="C80">
@@ -12513,7 +12839,7 @@
       <c r="A81">
         <v>76</v>
       </c>
-      <c r="B81" s="16">
+      <c r="B81" s="14">
         <v>43752.770833333336</v>
       </c>
       <c r="C81">
@@ -12527,7 +12853,7 @@
       <c r="A82">
         <v>77</v>
       </c>
-      <c r="B82" s="16">
+      <c r="B82" s="14">
         <v>43752.777777777781</v>
       </c>
       <c r="C82">
@@ -12541,7 +12867,7 @@
       <c r="A83">
         <v>78</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B83" s="14">
         <v>43752.784722222219</v>
       </c>
       <c r="C83">
@@ -12555,7 +12881,7 @@
       <c r="A84">
         <v>79</v>
       </c>
-      <c r="B84" s="16">
+      <c r="B84" s="14">
         <v>43752.791666666664</v>
       </c>
       <c r="C84">
@@ -12596,13 +12922,13 @@
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -12645,16 +12971,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>59</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -13186,7 +13512,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="17">
+      <c r="A42" s="15">
         <v>37</v>
       </c>
       <c r="B42" s="1">
@@ -13501,7 +13827,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="18">
+      <c r="A63" s="16">
         <v>58</v>
       </c>
       <c r="B63" s="1">
@@ -13765,13 +14091,13 @@
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -13814,16 +14140,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>59</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -14355,7 +14681,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="17">
+      <c r="A42" s="15">
         <v>37</v>
       </c>
       <c r="B42" s="1">
@@ -14670,7 +14996,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="18">
+      <c r="A63" s="16">
         <v>58</v>
       </c>
       <c r="B63" s="1">
@@ -14934,13 +15260,13 @@
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -14983,16 +15309,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>59</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -15524,7 +15850,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="17">
+      <c r="A42" s="15">
         <v>37</v>
       </c>
       <c r="B42" s="1">
@@ -15839,7 +16165,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="18">
+      <c r="A63" s="16">
         <v>58</v>
       </c>
       <c r="B63" s="1">
@@ -16103,13 +16429,13 @@
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -16152,16 +16478,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>59</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -16693,7 +17019,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="17">
+      <c r="A42" s="15">
         <v>37</v>
       </c>
       <c r="B42" s="1">
@@ -17008,7 +17334,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="18">
+      <c r="A63" s="16">
         <v>58</v>
       </c>
       <c r="B63" s="1">
@@ -17252,7 +17578,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AA102"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -17282,37 +17608,37 @@
         <v>24</v>
       </c>
       <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
         <v>48</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>49</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>50</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>51</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>52</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>55</v>
-      </c>
-      <c r="R1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">

--- a/BWSC2019-EneMane/PM/PM.xlsx
+++ b/BWSC2019-EneMane/PM/PM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouho\Documents\GitHub\solar-energy-management-\BWSC2019-EneMane\PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED242011-4DB0-4EBE-B64C-6D3419831BA3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0866B6F-73B8-4B83-B253-66446F868930}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48F4E5B9-CD80-4D92-94B2-C6C662884FF4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="61">
   <si>
     <t>Trip</t>
     <phoneticPr fontId="2"/>
@@ -208,10 +208,6 @@
     <t>PM(vd)</t>
   </si>
   <si>
-    <t>Trip</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>n+1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -277,54 +273,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>速度[km/h]</t>
-    <rPh sb="0" eb="2">
-      <t>ソクド</t>
-    </rPh>
+    <t>n</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n+1</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Kspost[km]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Trip1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Trip2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Trip3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Trip4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Trip5</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Trip6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Trip7</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Trip8</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Trip9</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Trip10</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -350,6 +307,74 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>標高[m]</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>位置エネ[J]</t>
+    <rPh sb="0" eb="2">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スタート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Trip間の走行時間[s]</t>
+    <rPh sb="4" eb="5">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均の勾配損失[W]</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウバイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソンシツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>距離[km]</t>
+    <rPh sb="0" eb="2">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>巡航速度[km/h]</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Trip番号</t>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>スタート前の入力</t>
     <rPh sb="4" eb="5">
       <t>マエ</t>
@@ -370,19 +395,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>１</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n+1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>２</t>
+    <t>PM(vd)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -393,7 +406,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="&quot;Trip&quot;0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -567,15 +580,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -639,10 +655,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -654,21 +694,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{229E9E11-2A29-47FC-9FC2-E5EC3864E7CB}"/>
     <cellStyle name="標準 2 2" xfId="1" xr:uid="{0F75D923-9FF7-4FC9-8B0B-7780F0EE2E7D}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7951,9 +7983,9 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>6350</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>215900</xdr:rowOff>
+          <xdr:rowOff>222250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
@@ -8140,16 +8172,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>90715</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158752</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>99785</xdr:rowOff>
+      <xdr:rowOff>113393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>435429</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>503465</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>99785</xdr:rowOff>
+      <xdr:rowOff>113393</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8164,8 +8196,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7547429" y="1687285"/>
-          <a:ext cx="2993571" cy="1133929"/>
+          <a:off x="9017002" y="1827893"/>
+          <a:ext cx="3066142" cy="1224643"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8257,6 +8289,668 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1256394</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3179537" y="1270001"/>
+          <a:ext cx="3746499" cy="843641"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>問題：勾配の計算で参照できない</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>損失曲線のタブ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>問題：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Vd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の計算に参照するのも面倒</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>課題：速度入力方法を検討すべき</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>111579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312963</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2503714" y="4030436"/>
+          <a:ext cx="3864428" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>現状：速度や損失値は変更なし</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>問題：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Trip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>番号に対する速度と計算値がバラバラ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>課題：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Trip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>番号に合わせて値を参照するなどにすべき</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（速度の入力方法の検討と同時に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>707571</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>81645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>208644</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7402285" y="3937002"/>
+          <a:ext cx="3492500" cy="1260928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9/30</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Trip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>100km</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>おきにしたから</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Kpost</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が約</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>100km*n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>100km</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>進んだとわかる）になったセルの行の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>列に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Vd(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>仮</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の値（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>D4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に入力した値）が自動で入るようにしたい</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>154214</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63502</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8282214" y="898072"/>
+          <a:ext cx="3302000" cy="752930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9/30</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>これはなし←勾配損失は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>vd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に依存するため</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>707572</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5896429" y="136071"/>
+          <a:ext cx="2440214" cy="653143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>421822</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>140608</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7116536" y="789214"/>
+          <a:ext cx="1165678" cy="485323"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8338,16 +9032,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>550333</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>557136</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>172812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8362,8 +9056,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8223250" y="804333"/>
-          <a:ext cx="5545667" cy="275167"/>
+          <a:off x="9020779" y="5698823"/>
+          <a:ext cx="5742971" cy="1087060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8398,6 +9092,21 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" strike="sngStrike" baseline="0"/>
+            <a:t>各</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" strike="sngStrike" baseline="0"/>
+            <a:t>Trip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" strike="sngStrike" baseline="0"/>
+            <a:t>毎で勾配を考慮した曲線を作っておく、シミュレーション時にはそれらを使用</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" strike="sngStrike" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>各</a:t>
           </a:r>
@@ -8407,7 +9116,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>毎で勾配を考慮した曲線を作っておく、シミュレーション時にはそれらを使用</a:t>
+            <a:t>毎の標高から、標高による位置エネルギーを算出。それを走行時間で割ることで平均の勾配損失量を算出。シミュで考慮する。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8416,16 +9125,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>74084</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>263073</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>698501</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>575657</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65466</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8442,8 +9151,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10678583" y="306917"/>
-          <a:ext cx="317501" cy="497416"/>
+          <a:off x="11584216" y="5145468"/>
+          <a:ext cx="312584" cy="553355"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8464,6 +9173,294 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>227239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9824357" y="2186668"/>
+          <a:ext cx="2177143" cy="2956832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>167820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="吹き出し: 角を丸めた四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11566071" y="1392463"/>
+          <a:ext cx="1133929" cy="648608"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -21560"/>
+            <a:gd name="adj2" fmla="val 68368"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>計算部分</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>最も右が出力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9153525" y="2205718"/>
+          <a:ext cx="684439" cy="2937782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>58964</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>179160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="吹き出し: 角を丸めた四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9320893" y="1798411"/>
+          <a:ext cx="562428" cy="340178"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 13089"/>
+            <a:gd name="adj2" fmla="val 66746"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9604,52 +10601,54 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C94B5CA-5A27-4BEC-8BE5-DD1CC7875D92}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="K15" sqref="K15:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="16.58203125" customWidth="1"/>
-    <col min="3" max="3" width="23" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="23" style="31" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="24" customWidth="1"/>
     <col min="5" max="5" width="11.08203125" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="26"/>
+        <v>31</v>
+      </c>
+      <c r="C1" s="29"/>
       <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>65</v>
-      </c>
       <c r="F2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -9660,62 +10659,66 @@
         <v>26</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7">
+        <v>41</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="26">
         <v>70</v>
       </c>
-      <c r="B4" s="7">
-        <v>705.01312277163879</v>
-      </c>
-      <c r="C4" s="20">
+      <c r="B4" s="26">
+        <v>705.01312277163879</v>
+      </c>
+      <c r="C4" s="30">
         <v>60</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="30">
         <v>523.6009579884186</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>41</v>
+      <c r="C5" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H5" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>43751.25</v>
       </c>
-      <c r="C6" s="24">
-        <v>0</v>
-      </c>
-      <c r="D6" s="22">
+      <c r="C6" s="32">
+        <v>0</v>
+      </c>
+      <c r="D6" s="27">
         <v>0</v>
       </c>
       <c r="E6">
@@ -9725,19 +10728,25 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="24">
+        <f>IF(G6&lt;損失曲線!$J$12,1,IF(G6&lt;損失曲線!$J$13,2,IF(G6&lt;損失曲線!$J$14,3,IF(G6&lt;損失曲線!$J$15,4,IF(G6&lt;損失曲線!$J$16,5,IF(G6&lt;損失曲線!$J$17,6,IF(G6&lt;損失曲線!$J$18,7,IF(G6&lt;損失曲線!$J$19,8,IF(G6&lt;損失曲線!$J$20,9,IF(G6&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>43751.256944444445</v>
       </c>
-      <c r="C7" s="24">
-        <v>0</v>
-      </c>
-      <c r="D7" s="22">
+      <c r="C7" s="32">
+        <v>0</v>
+      </c>
+      <c r="D7" s="27">
         <v>0</v>
       </c>
       <c r="E7">
@@ -9747,19 +10756,26 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7">
+        <f>(($B$7-$B$6)*24)*F6+G6</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="24">
+        <f>IF(G7&lt;損失曲線!$J$12,1,IF(G7&lt;損失曲線!$J$13,2,IF(G7&lt;損失曲線!$J$14,3,IF(G7&lt;損失曲線!$J$15,4,IF(G7&lt;損失曲線!$J$16,5,IF(G7&lt;損失曲線!$J$17,6,IF(G7&lt;損失曲線!$J$18,7,IF(G7&lt;損失曲線!$J$19,8,IF(G7&lt;損失曲線!$J$20,9,IF(G7&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>43751.263888888891</v>
       </c>
-      <c r="C8" s="24">
-        <v>0</v>
-      </c>
-      <c r="D8" s="22">
+      <c r="C8" s="32">
+        <v>0</v>
+      </c>
+      <c r="D8" s="27">
         <v>0</v>
       </c>
       <c r="E8">
@@ -9769,19 +10785,26 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8" s="22">
+        <f>(($B$7-$B$6)*24)*F7+G7</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="24">
+        <f>IF(G8&lt;損失曲線!$J$12,1,IF(G8&lt;損失曲線!$J$13,2,IF(G8&lt;損失曲線!$J$14,3,IF(G8&lt;損失曲線!$J$15,4,IF(G8&lt;損失曲線!$J$16,5,IF(G8&lt;損失曲線!$J$17,6,IF(G8&lt;損失曲線!$J$18,7,IF(G8&lt;損失曲線!$J$19,8,IF(G8&lt;損失曲線!$J$20,9,IF(G8&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" s="1">
         <v>43751.270833333336</v>
       </c>
-      <c r="C9" s="24">
-        <v>0</v>
-      </c>
-      <c r="D9" s="22">
+      <c r="C9" s="32">
+        <v>0</v>
+      </c>
+      <c r="D9" s="27">
         <v>0</v>
       </c>
       <c r="E9">
@@ -9791,19 +10814,26 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9" s="22">
+        <f t="shared" ref="G9:G71" si="1">(($B$7-$B$6)*24)*F8+G8</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="24">
+        <f>IF(G9&lt;損失曲線!$J$12,1,IF(G9&lt;損失曲線!$J$13,2,IF(G9&lt;損失曲線!$J$14,3,IF(G9&lt;損失曲線!$J$15,4,IF(G9&lt;損失曲線!$J$16,5,IF(G9&lt;損失曲線!$J$17,6,IF(G9&lt;損失曲線!$J$18,7,IF(G9&lt;損失曲線!$J$19,8,IF(G9&lt;損失曲線!$J$20,9,IF(G9&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" s="1">
         <v>43751.277777777781</v>
       </c>
-      <c r="C10" s="24">
-        <v>0</v>
-      </c>
-      <c r="D10" s="22">
+      <c r="C10" s="32">
+        <v>0</v>
+      </c>
+      <c r="D10" s="27">
         <v>0</v>
       </c>
       <c r="E10">
@@ -9813,19 +10843,26 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G10" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="24">
+        <f>IF(G10&lt;損失曲線!$J$12,1,IF(G10&lt;損失曲線!$J$13,2,IF(G10&lt;損失曲線!$J$14,3,IF(G10&lt;損失曲線!$J$15,4,IF(G10&lt;損失曲線!$J$16,5,IF(G10&lt;損失曲線!$J$17,6,IF(G10&lt;損失曲線!$J$18,7,IF(G10&lt;損失曲線!$J$19,8,IF(G10&lt;損失曲線!$J$20,9,IF(G10&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" s="1">
         <v>43751.284722222219</v>
       </c>
-      <c r="C11" s="24">
-        <v>0</v>
-      </c>
-      <c r="D11" s="22">
+      <c r="C11" s="32">
+        <v>0</v>
+      </c>
+      <c r="D11" s="27">
         <v>0</v>
       </c>
       <c r="E11">
@@ -9835,19 +10872,26 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="24">
+        <f>IF(G11&lt;損失曲線!$J$12,1,IF(G11&lt;損失曲線!$J$13,2,IF(G11&lt;損失曲線!$J$14,3,IF(G11&lt;損失曲線!$J$15,4,IF(G11&lt;損失曲線!$J$16,5,IF(G11&lt;損失曲線!$J$17,6,IF(G11&lt;損失曲線!$J$18,7,IF(G11&lt;損失曲線!$J$19,8,IF(G11&lt;損失曲線!$J$20,9,IF(G11&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>7</v>
       </c>
       <c r="B12" s="1">
         <v>43751.291666666664</v>
       </c>
-      <c r="C12" s="24">
-        <v>0</v>
-      </c>
-      <c r="D12" s="22">
+      <c r="C12" s="32">
+        <v>0</v>
+      </c>
+      <c r="D12" s="27">
         <v>0</v>
       </c>
       <c r="E12">
@@ -9857,19 +10901,26 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G12" s="22">
+        <f>(($B$7-$B$6)*24)*F11+G11</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="24">
+        <f>IF(G12&lt;損失曲線!$J$12,1,IF(G12&lt;損失曲線!$J$13,2,IF(G12&lt;損失曲線!$J$14,3,IF(G12&lt;損失曲線!$J$15,4,IF(G12&lt;損失曲線!$J$16,5,IF(G12&lt;損失曲線!$J$17,6,IF(G12&lt;損失曲線!$J$18,7,IF(G12&lt;損失曲線!$J$19,8,IF(G12&lt;損失曲線!$J$20,9,IF(G12&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>8</v>
       </c>
       <c r="B13" s="1">
         <v>43751.298611111109</v>
       </c>
-      <c r="C13" s="24">
-        <v>0</v>
-      </c>
-      <c r="D13" s="22">
+      <c r="C13" s="32">
+        <v>0</v>
+      </c>
+      <c r="D13" s="27">
         <v>0</v>
       </c>
       <c r="E13">
@@ -9879,19 +10930,26 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G13" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="24">
+        <f>IF(G13&lt;損失曲線!$J$12,1,IF(G13&lt;損失曲線!$J$13,2,IF(G13&lt;損失曲線!$J$14,3,IF(G13&lt;損失曲線!$J$15,4,IF(G13&lt;損失曲線!$J$16,5,IF(G13&lt;損失曲線!$J$17,6,IF(G13&lt;損失曲線!$J$18,7,IF(G13&lt;損失曲線!$J$19,8,IF(G13&lt;損失曲線!$J$20,9,IF(G13&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>9</v>
       </c>
       <c r="B14" s="1">
         <v>43751.305555555555</v>
       </c>
-      <c r="C14" s="24">
-        <v>0</v>
-      </c>
-      <c r="D14" s="22">
+      <c r="C14" s="32">
+        <v>0</v>
+      </c>
+      <c r="D14" s="27">
         <v>0</v>
       </c>
       <c r="E14">
@@ -9901,19 +10959,26 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="24">
+        <f>IF(G14&lt;損失曲線!$J$12,1,IF(G14&lt;損失曲線!$J$13,2,IF(G14&lt;損失曲線!$J$14,3,IF(G14&lt;損失曲線!$J$15,4,IF(G14&lt;損失曲線!$J$16,5,IF(G14&lt;損失曲線!$J$17,6,IF(G14&lt;損失曲線!$J$18,7,IF(G14&lt;損失曲線!$J$19,8,IF(G14&lt;損失曲線!$J$20,9,IF(G14&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>10</v>
       </c>
       <c r="B15" s="1">
         <v>43751.3125</v>
       </c>
-      <c r="C15" s="24">
-        <v>0</v>
-      </c>
-      <c r="D15" s="22">
+      <c r="C15" s="32">
+        <v>0</v>
+      </c>
+      <c r="D15" s="27">
         <v>0</v>
       </c>
       <c r="E15">
@@ -9923,19 +10988,29 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="24">
+        <f>IF(G15&lt;損失曲線!$J$12,1,IF(G15&lt;損失曲線!$J$13,2,IF(G15&lt;損失曲線!$J$14,3,IF(G15&lt;損失曲線!$J$15,4,IF(G15&lt;損失曲線!$J$16,5,IF(G15&lt;損失曲線!$J$17,6,IF(G15&lt;損失曲線!$J$18,7,IF(G15&lt;損失曲線!$J$19,8,IF(G15&lt;損失曲線!$J$20,9,IF(G15&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>11</v>
       </c>
       <c r="B16" s="1">
         <v>43751.319444444445</v>
       </c>
-      <c r="C16" s="24">
-        <v>0</v>
-      </c>
-      <c r="D16" s="22">
+      <c r="C16" s="32">
+        <v>0</v>
+      </c>
+      <c r="D16" s="27">
         <v>0</v>
       </c>
       <c r="E16">
@@ -9945,7 +11020,17 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" s="29"/>
+      <c r="G16" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="24">
+        <f>IF(G16&lt;損失曲線!$J$12,1,IF(G16&lt;損失曲線!$J$13,2,IF(G16&lt;損失曲線!$J$14,3,IF(G16&lt;損失曲線!$J$15,4,IF(G16&lt;損失曲線!$J$16,5,IF(G16&lt;損失曲線!$J$17,6,IF(G16&lt;損失曲線!$J$18,7,IF(G16&lt;損失曲線!$J$19,8,IF(G16&lt;損失曲線!$J$20,9,IF(G16&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
@@ -9954,10 +11039,10 @@
       <c r="B17" s="1">
         <v>43751.326388888891</v>
       </c>
-      <c r="C17" s="24">
-        <v>0</v>
-      </c>
-      <c r="D17" s="22">
+      <c r="C17" s="32">
+        <v>0</v>
+      </c>
+      <c r="D17" s="27">
         <v>0</v>
       </c>
       <c r="E17">
@@ -9967,7 +11052,14 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="29"/>
+      <c r="G17" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="24">
+        <f>IF(G17&lt;損失曲線!$J$12,1,IF(G17&lt;損失曲線!$J$13,2,IF(G17&lt;損失曲線!$J$14,3,IF(G17&lt;損失曲線!$J$15,4,IF(G17&lt;損失曲線!$J$16,5,IF(G17&lt;損失曲線!$J$17,6,IF(G17&lt;損失曲線!$J$18,7,IF(G17&lt;損失曲線!$J$19,8,IF(G17&lt;損失曲線!$J$20,9,IF(G17&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
@@ -9976,11 +11068,11 @@
       <c r="B18" s="1">
         <v>43751.333333333336</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D18" s="22">
-        <f t="shared" ref="D18:D42" si="1">-$B$4</f>
+      <c r="D18" s="27">
+        <f t="shared" ref="D18:D42" si="2">-$B$4</f>
         <v>-705.01312277163879</v>
       </c>
       <c r="E18">
@@ -9991,12 +11083,13 @@
         <f>$A$4</f>
         <v>70</v>
       </c>
-      <c r="G18" s="29">
-        <f>F18*0</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>60</v>
+      <c r="G18" s="22">
+        <f>(($B$7-$B$6)*24)*F17+G17</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="24">
+        <f>IF(G18&lt;損失曲線!$J$12,1,IF(G18&lt;損失曲線!$J$13,2,IF(G18&lt;損失曲線!$J$14,3,IF(G18&lt;損失曲線!$J$15,4,IF(G18&lt;損失曲線!$J$16,5,IF(G18&lt;損失曲線!$J$17,6,IF(G18&lt;損失曲線!$J$18,7,IF(G18&lt;損失曲線!$J$19,8,IF(G18&lt;損失曲線!$J$20,9,IF(G18&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -10006,27 +11099,28 @@
       <c r="B19" s="1">
         <v>43751.340277777781</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="27">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19:F42" si="3">$A$4</f>
+        <v>70</v>
+      </c>
+      <c r="G19" s="22">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F19">
-        <f t="shared" ref="F19:F42" si="2">$A$4</f>
-        <v>70</v>
-      </c>
-      <c r="G19" s="29">
-        <f>F19*10/60</f>
-        <v>11.666666666666666</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>61</v>
+        <v>11.666666668024845</v>
+      </c>
+      <c r="H19" s="24">
+        <f>IF(G19&lt;損失曲線!$J$12,1,IF(G19&lt;損失曲線!$J$13,2,IF(G19&lt;損失曲線!$J$14,3,IF(G19&lt;損失曲線!$J$15,4,IF(G19&lt;損失曲線!$J$16,5,IF(G19&lt;損失曲線!$J$17,6,IF(G19&lt;損失曲線!$J$18,7,IF(G19&lt;損失曲線!$J$19,8,IF(G19&lt;損失曲線!$J$20,9,IF(G19&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -10036,24 +11130,28 @@
       <c r="B20" s="1">
         <v>43751.347222222219</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="27">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G20" s="22">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="G20" s="29">
-        <f>F20*10/60+G19</f>
-        <v>23.333333333333332</v>
+        <v>23.333333336049691</v>
+      </c>
+      <c r="H20" s="24">
+        <f>IF(G20&lt;損失曲線!$J$12,1,IF(G20&lt;損失曲線!$J$13,2,IF(G20&lt;損失曲線!$J$14,3,IF(G20&lt;損失曲線!$J$15,4,IF(G20&lt;損失曲線!$J$16,5,IF(G20&lt;損失曲線!$J$17,6,IF(G20&lt;損失曲線!$J$18,7,IF(G20&lt;損失曲線!$J$19,8,IF(G20&lt;損失曲線!$J$20,9,IF(G20&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -10063,24 +11161,28 @@
       <c r="B21" s="1">
         <v>43751.354166666664</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="27">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G21" s="22">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="G21" s="29">
-        <f>F21*10/60+G20</f>
-        <v>35</v>
+        <v>35.000000004074536</v>
+      </c>
+      <c r="H21" s="24">
+        <f>IF(G21&lt;損失曲線!$J$12,1,IF(G21&lt;損失曲線!$J$13,2,IF(G21&lt;損失曲線!$J$14,3,IF(G21&lt;損失曲線!$J$15,4,IF(G21&lt;損失曲線!$J$16,5,IF(G21&lt;損失曲線!$J$17,6,IF(G21&lt;損失曲線!$J$18,7,IF(G21&lt;損失曲線!$J$19,8,IF(G21&lt;損失曲線!$J$20,9,IF(G21&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -10090,24 +11192,28 @@
       <c r="B22" s="1">
         <v>43751.361111111109</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="27">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G22" s="22">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="G22" s="29">
-        <f t="shared" ref="G21:G78" si="3">F22*10/60+G21</f>
-        <v>46.666666666666664</v>
+        <v>46.666666672099382</v>
+      </c>
+      <c r="H22" s="24">
+        <f>IF(G22&lt;損失曲線!$J$12,1,IF(G22&lt;損失曲線!$J$13,2,IF(G22&lt;損失曲線!$J$14,3,IF(G22&lt;損失曲線!$J$15,4,IF(G22&lt;損失曲線!$J$16,5,IF(G22&lt;損失曲線!$J$17,6,IF(G22&lt;損失曲線!$J$18,7,IF(G22&lt;損失曲線!$J$19,8,IF(G22&lt;損失曲線!$J$20,9,IF(G22&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -10117,24 +11223,28 @@
       <c r="B23" s="1">
         <v>43751.368055555555</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="27">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G23" s="22">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="G23" s="29">
-        <f t="shared" si="3"/>
-        <v>58.333333333333329</v>
+        <v>58.333333340124227</v>
+      </c>
+      <c r="H23" s="24">
+        <f>IF(G23&lt;損失曲線!$J$12,1,IF(G23&lt;損失曲線!$J$13,2,IF(G23&lt;損失曲線!$J$14,3,IF(G23&lt;損失曲線!$J$15,4,IF(G23&lt;損失曲線!$J$16,5,IF(G23&lt;損失曲線!$J$17,6,IF(G23&lt;損失曲線!$J$18,7,IF(G23&lt;損失曲線!$J$19,8,IF(G23&lt;損失曲線!$J$20,9,IF(G23&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -10144,11 +11254,11 @@
       <c r="B24" s="1">
         <v>43751.375</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D24" s="22">
-        <f t="shared" si="1"/>
+      <c r="D24" s="27">
+        <f t="shared" si="2"/>
         <v>-705.01312277163879</v>
       </c>
       <c r="E24">
@@ -10156,12 +11266,16 @@
         <v>705.01312277163879</v>
       </c>
       <c r="F24">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="G24" s="29">
         <f t="shared" si="3"/>
         <v>70</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="1"/>
+        <v>70.000000008149073</v>
+      </c>
+      <c r="H24" s="24">
+        <f>IF(G24&lt;損失曲線!$J$12,1,IF(G24&lt;損失曲線!$J$13,2,IF(G24&lt;損失曲線!$J$14,3,IF(G24&lt;損失曲線!$J$15,4,IF(G24&lt;損失曲線!$J$16,5,IF(G24&lt;損失曲線!$J$17,6,IF(G24&lt;損失曲線!$J$18,7,IF(G24&lt;損失曲線!$J$19,8,IF(G24&lt;損失曲線!$J$20,9,IF(G24&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -10171,24 +11285,28 @@
       <c r="B25" s="1">
         <v>43751.381944444445</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="27">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G25" s="22">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="G25" s="29">
-        <f t="shared" si="3"/>
-        <v>81.666666666666671</v>
+        <v>81.666666676173918</v>
+      </c>
+      <c r="H25" s="24">
+        <f>IF(G25&lt;損失曲線!$J$12,1,IF(G25&lt;損失曲線!$J$13,2,IF(G25&lt;損失曲線!$J$14,3,IF(G25&lt;損失曲線!$J$15,4,IF(G25&lt;損失曲線!$J$16,5,IF(G25&lt;損失曲線!$J$17,6,IF(G25&lt;損失曲線!$J$18,7,IF(G25&lt;損失曲線!$J$19,8,IF(G25&lt;損失曲線!$J$20,9,IF(G25&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -10198,24 +11316,28 @@
       <c r="B26" s="1">
         <v>43751.388888888891</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="27">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G26" s="22">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="G26" s="29">
-        <f t="shared" si="3"/>
-        <v>93.333333333333343</v>
+        <v>93.333333344198763</v>
+      </c>
+      <c r="H26" s="24">
+        <f>IF(G26&lt;損失曲線!$J$12,1,IF(G26&lt;損失曲線!$J$13,2,IF(G26&lt;損失曲線!$J$14,3,IF(G26&lt;損失曲線!$J$15,4,IF(G26&lt;損失曲線!$J$16,5,IF(G26&lt;損失曲線!$J$17,6,IF(G26&lt;損失曲線!$J$18,7,IF(G26&lt;損失曲線!$J$19,8,IF(G26&lt;損失曲線!$J$20,9,IF(G26&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -10225,24 +11347,28 @@
       <c r="B27" s="1">
         <v>43751.395833333336</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="27">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G27" s="22">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="G27" s="29">
-        <f t="shared" si="3"/>
-        <v>105.00000000000001</v>
+        <v>105.00000001222361</v>
+      </c>
+      <c r="H27" s="24">
+        <f>IF(G27&lt;損失曲線!$J$12,1,IF(G27&lt;損失曲線!$J$13,2,IF(G27&lt;損失曲線!$J$14,3,IF(G27&lt;損失曲線!$J$15,4,IF(G27&lt;損失曲線!$J$16,5,IF(G27&lt;損失曲線!$J$17,6,IF(G27&lt;損失曲線!$J$18,7,IF(G27&lt;損失曲線!$J$19,8,IF(G27&lt;損失曲線!$J$20,9,IF(G27&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -10252,24 +11378,28 @@
       <c r="B28" s="1">
         <v>43751.402777777781</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="27">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G28" s="22">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="G28" s="29">
-        <f t="shared" si="3"/>
-        <v>116.66666666666669</v>
+        <v>116.66666668024845</v>
+      </c>
+      <c r="H28" s="24">
+        <f>IF(G28&lt;損失曲線!$J$12,1,IF(G28&lt;損失曲線!$J$13,2,IF(G28&lt;損失曲線!$J$14,3,IF(G28&lt;損失曲線!$J$15,4,IF(G28&lt;損失曲線!$J$16,5,IF(G28&lt;損失曲線!$J$17,6,IF(G28&lt;損失曲線!$J$18,7,IF(G28&lt;損失曲線!$J$19,8,IF(G28&lt;損失曲線!$J$20,9,IF(G28&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -10279,24 +11409,28 @@
       <c r="B29" s="1">
         <v>43751.409722222219</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="27">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G29" s="22">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="G29" s="29">
-        <f t="shared" si="3"/>
-        <v>128.33333333333334</v>
+        <v>128.3333333482733</v>
+      </c>
+      <c r="H29" s="24">
+        <f>IF(G29&lt;損失曲線!$J$12,1,IF(G29&lt;損失曲線!$J$13,2,IF(G29&lt;損失曲線!$J$14,3,IF(G29&lt;損失曲線!$J$15,4,IF(G29&lt;損失曲線!$J$16,5,IF(G29&lt;損失曲線!$J$17,6,IF(G29&lt;損失曲線!$J$18,7,IF(G29&lt;損失曲線!$J$19,8,IF(G29&lt;損失曲線!$J$20,9,IF(G29&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -10306,24 +11440,28 @@
       <c r="B30" s="1">
         <v>43751.416666666664</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="27">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G30" s="22">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="G30" s="29">
-        <f t="shared" si="3"/>
-        <v>140</v>
+        <v>140.00000001629815</v>
+      </c>
+      <c r="H30" s="24">
+        <f>IF(G30&lt;損失曲線!$J$12,1,IF(G30&lt;損失曲線!$J$13,2,IF(G30&lt;損失曲線!$J$14,3,IF(G30&lt;損失曲線!$J$15,4,IF(G30&lt;損失曲線!$J$16,5,IF(G30&lt;損失曲線!$J$17,6,IF(G30&lt;損失曲線!$J$18,7,IF(G30&lt;損失曲線!$J$19,8,IF(G30&lt;損失曲線!$J$20,9,IF(G30&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -10333,24 +11471,28 @@
       <c r="B31" s="1">
         <v>43751.423611111109</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="27">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G31" s="22">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="G31" s="29">
-        <f t="shared" si="3"/>
-        <v>151.66666666666666</v>
+        <v>151.66666668432299</v>
+      </c>
+      <c r="H31" s="24">
+        <f>IF(G31&lt;損失曲線!$J$12,1,IF(G31&lt;損失曲線!$J$13,2,IF(G31&lt;損失曲線!$J$14,3,IF(G31&lt;損失曲線!$J$15,4,IF(G31&lt;損失曲線!$J$16,5,IF(G31&lt;損失曲線!$J$17,6,IF(G31&lt;損失曲線!$J$18,7,IF(G31&lt;損失曲線!$J$19,8,IF(G31&lt;損失曲線!$J$20,9,IF(G31&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -10360,173 +11502,197 @@
       <c r="B32" s="1">
         <v>43751.430555555555</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="27">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G32" s="22">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="G32" s="29">
-        <f t="shared" si="3"/>
-        <v>163.33333333333331</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>163.33333335234784</v>
+      </c>
+      <c r="H32" s="24">
+        <f>IF(G32&lt;損失曲線!$J$12,1,IF(G32&lt;損失曲線!$J$13,2,IF(G32&lt;損失曲線!$J$14,3,IF(G32&lt;損失曲線!$J$15,4,IF(G32&lt;損失曲線!$J$16,5,IF(G32&lt;損失曲線!$J$17,6,IF(G32&lt;損失曲線!$J$18,7,IF(G32&lt;損失曲線!$J$19,8,IF(G32&lt;損失曲線!$J$20,9,IF(G32&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>28</v>
       </c>
       <c r="B33" s="1">
         <v>43751.4375</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="27">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G33" s="22">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="G33" s="29">
-        <f t="shared" si="3"/>
-        <v>174.99999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>175.00000002037268</v>
+      </c>
+      <c r="H33" s="24">
+        <f>IF(G33&lt;損失曲線!$J$12,1,IF(G33&lt;損失曲線!$J$13,2,IF(G33&lt;損失曲線!$J$14,3,IF(G33&lt;損失曲線!$J$15,4,IF(G33&lt;損失曲線!$J$16,5,IF(G33&lt;損失曲線!$J$17,6,IF(G33&lt;損失曲線!$J$18,7,IF(G33&lt;損失曲線!$J$19,8,IF(G33&lt;損失曲線!$J$20,9,IF(G33&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>29</v>
       </c>
       <c r="B34" s="1">
         <v>43751.444444444445</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="27">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G34" s="22">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="G34" s="29">
-        <f t="shared" si="3"/>
-        <v>186.66666666666663</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>186.66666668839753</v>
+      </c>
+      <c r="H34" s="24">
+        <f>IF(G34&lt;損失曲線!$J$12,1,IF(G34&lt;損失曲線!$J$13,2,IF(G34&lt;損失曲線!$J$14,3,IF(G34&lt;損失曲線!$J$15,4,IF(G34&lt;損失曲線!$J$16,5,IF(G34&lt;損失曲線!$J$17,6,IF(G34&lt;損失曲線!$J$18,7,IF(G34&lt;損失曲線!$J$19,8,IF(G34&lt;損失曲線!$J$20,9,IF(G34&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>30</v>
       </c>
       <c r="B35" s="1">
         <v>43751.451388888891</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="27">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G35" s="22">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="G35" s="29">
-        <f t="shared" si="3"/>
-        <v>198.33333333333329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>198.33333335642237</v>
+      </c>
+      <c r="H35" s="24">
+        <f>IF(G35&lt;損失曲線!$J$12,1,IF(G35&lt;損失曲線!$J$13,2,IF(G35&lt;損失曲線!$J$14,3,IF(G35&lt;損失曲線!$J$15,4,IF(G35&lt;損失曲線!$J$16,5,IF(G35&lt;損失曲線!$J$17,6,IF(G35&lt;損失曲線!$J$18,7,IF(G35&lt;損失曲線!$J$19,8,IF(G35&lt;損失曲線!$J$20,9,IF(G35&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>31</v>
       </c>
       <c r="B36" s="1">
         <v>43751.458333333336</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="27">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G36" s="22">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="G36" s="29">
-        <f t="shared" si="3"/>
-        <v>209.99999999999994</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>210.00000002444722</v>
+      </c>
+      <c r="H36" s="24">
+        <f>IF(G36&lt;損失曲線!$J$12,1,IF(G36&lt;損失曲線!$J$13,2,IF(G36&lt;損失曲線!$J$14,3,IF(G36&lt;損失曲線!$J$15,4,IF(G36&lt;損失曲線!$J$16,5,IF(G36&lt;損失曲線!$J$17,6,IF(G36&lt;損失曲線!$J$18,7,IF(G36&lt;損失曲線!$J$19,8,IF(G36&lt;損失曲線!$J$20,9,IF(G36&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>32</v>
       </c>
       <c r="B37" s="1">
         <v>43751.465277777781</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="27">
+        <f t="shared" si="2"/>
+        <v>-705.01312277163879</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>705.01312277163879</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G37" s="22">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>705.01312277163879</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="G37" s="29">
-        <f t="shared" si="3"/>
-        <v>221.6666666666666</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>221.66666669247206</v>
+      </c>
+      <c r="H37" s="24">
+        <f>IF(G37&lt;損失曲線!$J$12,1,IF(G37&lt;損失曲線!$J$13,2,IF(G37&lt;損失曲線!$J$14,3,IF(G37&lt;損失曲線!$J$15,4,IF(G37&lt;損失曲線!$J$16,5,IF(G37&lt;損失曲線!$J$17,6,IF(G37&lt;損失曲線!$J$18,7,IF(G37&lt;損失曲線!$J$19,8,IF(G37&lt;損失曲線!$J$20,9,IF(G37&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>33</v>
       </c>
       <c r="B38" s="1">
         <v>43751.472222222219</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D38" s="22">
-        <f t="shared" si="1"/>
+      <c r="D38" s="27">
+        <f t="shared" si="2"/>
         <v>-705.01312277163879</v>
       </c>
       <c r="E38">
@@ -10534,26 +11700,30 @@
         <v>705.01312277163879</v>
       </c>
       <c r="F38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="G38" s="29">
-        <f t="shared" si="3"/>
-        <v>233.33333333333326</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G38" s="22">
+        <f t="shared" si="1"/>
+        <v>233.33333336049691</v>
+      </c>
+      <c r="H38" s="24">
+        <f>IF(G38&lt;損失曲線!$J$12,1,IF(G38&lt;損失曲線!$J$13,2,IF(G38&lt;損失曲線!$J$14,3,IF(G38&lt;損失曲線!$J$15,4,IF(G38&lt;損失曲線!$J$16,5,IF(G38&lt;損失曲線!$J$17,6,IF(G38&lt;損失曲線!$J$18,7,IF(G38&lt;損失曲線!$J$19,8,IF(G38&lt;損失曲線!$J$20,9,IF(G38&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>34</v>
       </c>
       <c r="B39" s="1">
         <v>43751.479166666664</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D39" s="22">
-        <f t="shared" si="1"/>
+      <c r="D39" s="27">
+        <f t="shared" si="2"/>
         <v>-705.01312277163879</v>
       </c>
       <c r="E39">
@@ -10561,26 +11731,30 @@
         <v>705.01312277163879</v>
       </c>
       <c r="F39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="G39" s="29">
-        <f t="shared" si="3"/>
-        <v>244.99999999999991</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G39" s="22">
+        <f t="shared" si="1"/>
+        <v>245.00000002852175</v>
+      </c>
+      <c r="H39" s="24">
+        <f>IF(G39&lt;損失曲線!$J$12,1,IF(G39&lt;損失曲線!$J$13,2,IF(G39&lt;損失曲線!$J$14,3,IF(G39&lt;損失曲線!$J$15,4,IF(G39&lt;損失曲線!$J$16,5,IF(G39&lt;損失曲線!$J$17,6,IF(G39&lt;損失曲線!$J$18,7,IF(G39&lt;損失曲線!$J$19,8,IF(G39&lt;損失曲線!$J$20,9,IF(G39&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>35</v>
       </c>
       <c r="B40" s="1">
         <v>43751.486111111109</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D40" s="22">
-        <f t="shared" si="1"/>
+      <c r="D40" s="27">
+        <f t="shared" si="2"/>
         <v>-705.01312277163879</v>
       </c>
       <c r="E40">
@@ -10588,26 +11762,30 @@
         <v>705.01312277163879</v>
       </c>
       <c r="F40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="G40" s="29">
-        <f t="shared" si="3"/>
-        <v>256.66666666666657</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G40" s="22">
+        <f t="shared" si="1"/>
+        <v>256.6666666965466</v>
+      </c>
+      <c r="H40" s="24">
+        <f>IF(G40&lt;損失曲線!$J$12,1,IF(G40&lt;損失曲線!$J$13,2,IF(G40&lt;損失曲線!$J$14,3,IF(G40&lt;損失曲線!$J$15,4,IF(G40&lt;損失曲線!$J$16,5,IF(G40&lt;損失曲線!$J$17,6,IF(G40&lt;損失曲線!$J$18,7,IF(G40&lt;損失曲線!$J$19,8,IF(G40&lt;損失曲線!$J$20,9,IF(G40&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>36</v>
       </c>
       <c r="B41" s="1">
         <v>43751.493055555555</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D41" s="22">
-        <f t="shared" si="1"/>
+      <c r="D41" s="27">
+        <f t="shared" si="2"/>
         <v>-705.01312277163879</v>
       </c>
       <c r="E41">
@@ -10615,26 +11793,30 @@
         <v>705.01312277163879</v>
       </c>
       <c r="F41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="G41" s="29">
-        <f t="shared" si="3"/>
-        <v>268.33333333333326</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G41" s="22">
+        <f t="shared" si="1"/>
+        <v>268.33333336457144</v>
+      </c>
+      <c r="H41" s="24">
+        <f>IF(G41&lt;損失曲線!$J$12,1,IF(G41&lt;損失曲線!$J$13,2,IF(G41&lt;損失曲線!$J$14,3,IF(G41&lt;損失曲線!$J$15,4,IF(G41&lt;損失曲線!$J$16,5,IF(G41&lt;損失曲線!$J$17,6,IF(G41&lt;損失曲線!$J$18,7,IF(G41&lt;損失曲線!$J$19,8,IF(G41&lt;損失曲線!$J$20,9,IF(G41&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="15">
         <v>37</v>
       </c>
       <c r="B42" s="1">
         <v>43751.5</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="32">
         <v>-705.01312277163879</v>
       </c>
-      <c r="D42" s="22">
-        <f t="shared" si="1"/>
+      <c r="D42" s="27">
+        <f t="shared" si="2"/>
         <v>-705.01312277163879</v>
       </c>
       <c r="E42">
@@ -10642,25 +11824,29 @@
         <v>705.01312277163879</v>
       </c>
       <c r="F42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="G42" s="29">
-        <f t="shared" si="3"/>
-        <v>279.99999999999994</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G42" s="22">
+        <f t="shared" si="1"/>
+        <v>280.00000003259629</v>
+      </c>
+      <c r="H42" s="24">
+        <f>IF(G42&lt;損失曲線!$J$12,1,IF(G42&lt;損失曲線!$J$13,2,IF(G42&lt;損失曲線!$J$14,3,IF(G42&lt;損失曲線!$J$15,4,IF(G42&lt;損失曲線!$J$16,5,IF(G42&lt;損失曲線!$J$17,6,IF(G42&lt;損失曲線!$J$18,7,IF(G42&lt;損失曲線!$J$19,8,IF(G42&lt;損失曲線!$J$20,9,IF(G42&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>38</v>
       </c>
       <c r="B43" s="1">
         <v>43751.506944444445</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="27">
         <f>-$D$4</f>
         <v>-523.6009579884186</v>
       </c>
@@ -10672,22 +11858,26 @@
         <f>$C$4</f>
         <v>60</v>
       </c>
-      <c r="G43" s="29">
-        <f t="shared" si="3"/>
-        <v>289.99999999999994</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G43" s="22">
+        <f t="shared" si="1"/>
+        <v>291.66666670062114</v>
+      </c>
+      <c r="H43" s="24">
+        <f>IF(G43&lt;損失曲線!$J$12,1,IF(G43&lt;損失曲線!$J$13,2,IF(G43&lt;損失曲線!$J$14,3,IF(G43&lt;損失曲線!$J$15,4,IF(G43&lt;損失曲線!$J$16,5,IF(G43&lt;損失曲線!$J$17,6,IF(G43&lt;損失曲線!$J$18,7,IF(G43&lt;損失曲線!$J$19,8,IF(G43&lt;損失曲線!$J$20,9,IF(G43&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>39</v>
       </c>
       <c r="B44" s="1">
         <v>43751.513888888891</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="27">
         <f t="shared" ref="D44:D71" si="5">-$D$4</f>
         <v>-523.6009579884186</v>
       </c>
@@ -10699,22 +11889,26 @@
         <f t="shared" ref="F44:F71" si="6">$C$4</f>
         <v>60</v>
       </c>
-      <c r="G44" s="29">
-        <f t="shared" si="3"/>
-        <v>299.99999999999994</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G44" s="22">
+        <f t="shared" si="1"/>
+        <v>301.66666670178529</v>
+      </c>
+      <c r="H44" s="24">
+        <f>IF(G44&lt;損失曲線!$J$12,1,IF(G44&lt;損失曲線!$J$13,2,IF(G44&lt;損失曲線!$J$14,3,IF(G44&lt;損失曲線!$J$15,4,IF(G44&lt;損失曲線!$J$16,5,IF(G44&lt;損失曲線!$J$17,6,IF(G44&lt;損失曲線!$J$18,7,IF(G44&lt;損失曲線!$J$19,8,IF(G44&lt;損失曲線!$J$20,9,IF(G44&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>40</v>
       </c>
       <c r="B45" s="1">
         <v>43751.520833333336</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -10726,22 +11920,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G45" s="29">
-        <f t="shared" si="3"/>
-        <v>309.99999999999994</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G45" s="22">
+        <f t="shared" si="1"/>
+        <v>311.66666670294944</v>
+      </c>
+      <c r="H45" s="24">
+        <f>IF(G45&lt;損失曲線!$J$12,1,IF(G45&lt;損失曲線!$J$13,2,IF(G45&lt;損失曲線!$J$14,3,IF(G45&lt;損失曲線!$J$15,4,IF(G45&lt;損失曲線!$J$16,5,IF(G45&lt;損失曲線!$J$17,6,IF(G45&lt;損失曲線!$J$18,7,IF(G45&lt;損失曲線!$J$19,8,IF(G45&lt;損失曲線!$J$20,9,IF(G45&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>41</v>
       </c>
       <c r="B46" s="1">
         <v>43751.527777777781</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -10753,22 +11951,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G46" s="29">
-        <f t="shared" si="3"/>
-        <v>319.99999999999994</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G46" s="22">
+        <f t="shared" si="1"/>
+        <v>321.6666667041136</v>
+      </c>
+      <c r="H46" s="24">
+        <f>IF(G46&lt;損失曲線!$J$12,1,IF(G46&lt;損失曲線!$J$13,2,IF(G46&lt;損失曲線!$J$14,3,IF(G46&lt;損失曲線!$J$15,4,IF(G46&lt;損失曲線!$J$16,5,IF(G46&lt;損失曲線!$J$17,6,IF(G46&lt;損失曲線!$J$18,7,IF(G46&lt;損失曲線!$J$19,8,IF(G46&lt;損失曲線!$J$20,9,IF(G46&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>42</v>
       </c>
       <c r="B47" s="1">
         <v>43751.534722222219</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -10780,22 +11982,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G47" s="29">
-        <f t="shared" si="3"/>
-        <v>329.99999999999994</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G47" s="22">
+        <f t="shared" si="1"/>
+        <v>331.66666670527775</v>
+      </c>
+      <c r="H47" s="24">
+        <f>IF(G47&lt;損失曲線!$J$12,1,IF(G47&lt;損失曲線!$J$13,2,IF(G47&lt;損失曲線!$J$14,3,IF(G47&lt;損失曲線!$J$15,4,IF(G47&lt;損失曲線!$J$16,5,IF(G47&lt;損失曲線!$J$17,6,IF(G47&lt;損失曲線!$J$18,7,IF(G47&lt;損失曲線!$J$19,8,IF(G47&lt;損失曲線!$J$20,9,IF(G47&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>43</v>
       </c>
       <c r="B48" s="1">
         <v>43751.541666666664</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -10807,22 +12013,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G48" s="29">
-        <f t="shared" si="3"/>
-        <v>339.99999999999994</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G48" s="22">
+        <f t="shared" si="1"/>
+        <v>341.6666667064419</v>
+      </c>
+      <c r="H48" s="24">
+        <f>IF(G48&lt;損失曲線!$J$12,1,IF(G48&lt;損失曲線!$J$13,2,IF(G48&lt;損失曲線!$J$14,3,IF(G48&lt;損失曲線!$J$15,4,IF(G48&lt;損失曲線!$J$16,5,IF(G48&lt;損失曲線!$J$17,6,IF(G48&lt;損失曲線!$J$18,7,IF(G48&lt;損失曲線!$J$19,8,IF(G48&lt;損失曲線!$J$20,9,IF(G48&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>44</v>
       </c>
       <c r="B49" s="1">
         <v>43751.548611111109</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -10834,22 +12044,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G49" s="29">
-        <f t="shared" si="3"/>
-        <v>349.99999999999994</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G49" s="22">
+        <f t="shared" si="1"/>
+        <v>351.66666670760605</v>
+      </c>
+      <c r="H49" s="24">
+        <f>IF(G49&lt;損失曲線!$J$12,1,IF(G49&lt;損失曲線!$J$13,2,IF(G49&lt;損失曲線!$J$14,3,IF(G49&lt;損失曲線!$J$15,4,IF(G49&lt;損失曲線!$J$16,5,IF(G49&lt;損失曲線!$J$17,6,IF(G49&lt;損失曲線!$J$18,7,IF(G49&lt;損失曲線!$J$19,8,IF(G49&lt;損失曲線!$J$20,9,IF(G49&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>45</v>
       </c>
       <c r="B50" s="1">
         <v>43751.555555555555</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -10861,22 +12075,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G50" s="29">
-        <f t="shared" si="3"/>
-        <v>359.99999999999994</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G50" s="22">
+        <f t="shared" si="1"/>
+        <v>361.66666670877021</v>
+      </c>
+      <c r="H50" s="24">
+        <f>IF(G50&lt;損失曲線!$J$12,1,IF(G50&lt;損失曲線!$J$13,2,IF(G50&lt;損失曲線!$J$14,3,IF(G50&lt;損失曲線!$J$15,4,IF(G50&lt;損失曲線!$J$16,5,IF(G50&lt;損失曲線!$J$17,6,IF(G50&lt;損失曲線!$J$18,7,IF(G50&lt;損失曲線!$J$19,8,IF(G50&lt;損失曲線!$J$20,9,IF(G50&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>46</v>
       </c>
       <c r="B51" s="1">
         <v>43751.5625</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -10888,22 +12106,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G51" s="29">
-        <f t="shared" si="3"/>
-        <v>369.99999999999994</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G51" s="22">
+        <f t="shared" si="1"/>
+        <v>371.66666670993436</v>
+      </c>
+      <c r="H51" s="24">
+        <f>IF(G51&lt;損失曲線!$J$12,1,IF(G51&lt;損失曲線!$J$13,2,IF(G51&lt;損失曲線!$J$14,3,IF(G51&lt;損失曲線!$J$15,4,IF(G51&lt;損失曲線!$J$16,5,IF(G51&lt;損失曲線!$J$17,6,IF(G51&lt;損失曲線!$J$18,7,IF(G51&lt;損失曲線!$J$19,8,IF(G51&lt;損失曲線!$J$20,9,IF(G51&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>47</v>
       </c>
       <c r="B52" s="1">
         <v>43751.569444444445</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -10915,22 +12137,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G52" s="29">
-        <f t="shared" si="3"/>
-        <v>379.99999999999994</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G52" s="22">
+        <f t="shared" si="1"/>
+        <v>381.66666671109851</v>
+      </c>
+      <c r="H52" s="24">
+        <f>IF(G52&lt;損失曲線!$J$12,1,IF(G52&lt;損失曲線!$J$13,2,IF(G52&lt;損失曲線!$J$14,3,IF(G52&lt;損失曲線!$J$15,4,IF(G52&lt;損失曲線!$J$16,5,IF(G52&lt;損失曲線!$J$17,6,IF(G52&lt;損失曲線!$J$18,7,IF(G52&lt;損失曲線!$J$19,8,IF(G52&lt;損失曲線!$J$20,9,IF(G52&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>48</v>
       </c>
       <c r="B53" s="1">
         <v>43751.576388888891</v>
       </c>
-      <c r="C53" s="24">
+      <c r="C53" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -10942,22 +12168,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G53" s="29">
-        <f t="shared" si="3"/>
-        <v>389.99999999999994</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G53" s="22">
+        <f t="shared" si="1"/>
+        <v>391.66666671226267</v>
+      </c>
+      <c r="H53" s="24">
+        <f>IF(G53&lt;損失曲線!$J$12,1,IF(G53&lt;損失曲線!$J$13,2,IF(G53&lt;損失曲線!$J$14,3,IF(G53&lt;損失曲線!$J$15,4,IF(G53&lt;損失曲線!$J$16,5,IF(G53&lt;損失曲線!$J$17,6,IF(G53&lt;損失曲線!$J$18,7,IF(G53&lt;損失曲線!$J$19,8,IF(G53&lt;損失曲線!$J$20,9,IF(G53&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>49</v>
       </c>
       <c r="B54" s="1">
         <v>43751.583333333336</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C54" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -10969,22 +12199,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G54" s="29">
-        <f t="shared" si="3"/>
-        <v>399.99999999999994</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G54" s="22">
+        <f t="shared" si="1"/>
+        <v>401.66666671342682</v>
+      </c>
+      <c r="H54" s="24">
+        <f>IF(G54&lt;損失曲線!$J$12,1,IF(G54&lt;損失曲線!$J$13,2,IF(G54&lt;損失曲線!$J$14,3,IF(G54&lt;損失曲線!$J$15,4,IF(G54&lt;損失曲線!$J$16,5,IF(G54&lt;損失曲線!$J$17,6,IF(G54&lt;損失曲線!$J$18,7,IF(G54&lt;損失曲線!$J$19,8,IF(G54&lt;損失曲線!$J$20,9,IF(G54&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>50</v>
       </c>
       <c r="B55" s="1">
         <v>43751.590277777781</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -10996,22 +12230,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G55" s="29">
-        <f t="shared" si="3"/>
-        <v>409.99999999999994</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G55" s="22">
+        <f t="shared" si="1"/>
+        <v>411.66666671459097</v>
+      </c>
+      <c r="H55" s="24">
+        <f>IF(G55&lt;損失曲線!$J$12,1,IF(G55&lt;損失曲線!$J$13,2,IF(G55&lt;損失曲線!$J$14,3,IF(G55&lt;損失曲線!$J$15,4,IF(G55&lt;損失曲線!$J$16,5,IF(G55&lt;損失曲線!$J$17,6,IF(G55&lt;損失曲線!$J$18,7,IF(G55&lt;損失曲線!$J$19,8,IF(G55&lt;損失曲線!$J$20,9,IF(G55&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>51</v>
       </c>
       <c r="B56" s="1">
         <v>43751.597222222219</v>
       </c>
-      <c r="C56" s="24">
+      <c r="C56" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -11023,22 +12261,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G56" s="29">
-        <f t="shared" si="3"/>
-        <v>419.99999999999994</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G56" s="22">
+        <f t="shared" si="1"/>
+        <v>421.66666671575513</v>
+      </c>
+      <c r="H56" s="24">
+        <f>IF(G56&lt;損失曲線!$J$12,1,IF(G56&lt;損失曲線!$J$13,2,IF(G56&lt;損失曲線!$J$14,3,IF(G56&lt;損失曲線!$J$15,4,IF(G56&lt;損失曲線!$J$16,5,IF(G56&lt;損失曲線!$J$17,6,IF(G56&lt;損失曲線!$J$18,7,IF(G56&lt;損失曲線!$J$19,8,IF(G56&lt;損失曲線!$J$20,9,IF(G56&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>52</v>
       </c>
       <c r="B57" s="1">
         <v>43751.604166666664</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C57" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -11050,22 +12292,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G57" s="29">
-        <f t="shared" si="3"/>
-        <v>429.99999999999994</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G57" s="22">
+        <f t="shared" si="1"/>
+        <v>431.66666671691928</v>
+      </c>
+      <c r="H57" s="24">
+        <f>IF(G57&lt;損失曲線!$J$12,1,IF(G57&lt;損失曲線!$J$13,2,IF(G57&lt;損失曲線!$J$14,3,IF(G57&lt;損失曲線!$J$15,4,IF(G57&lt;損失曲線!$J$16,5,IF(G57&lt;損失曲線!$J$17,6,IF(G57&lt;損失曲線!$J$18,7,IF(G57&lt;損失曲線!$J$19,8,IF(G57&lt;損失曲線!$J$20,9,IF(G57&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>53</v>
       </c>
       <c r="B58" s="1">
         <v>43751.611111111109</v>
       </c>
-      <c r="C58" s="24">
+      <c r="C58" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -11077,22 +12323,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G58" s="29">
-        <f t="shared" si="3"/>
-        <v>439.99999999999994</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G58" s="22">
+        <f t="shared" si="1"/>
+        <v>441.66666671808343</v>
+      </c>
+      <c r="H58" s="24">
+        <f>IF(G58&lt;損失曲線!$J$12,1,IF(G58&lt;損失曲線!$J$13,2,IF(G58&lt;損失曲線!$J$14,3,IF(G58&lt;損失曲線!$J$15,4,IF(G58&lt;損失曲線!$J$16,5,IF(G58&lt;損失曲線!$J$17,6,IF(G58&lt;損失曲線!$J$18,7,IF(G58&lt;損失曲線!$J$19,8,IF(G58&lt;損失曲線!$J$20,9,IF(G58&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>54</v>
       </c>
       <c r="B59" s="1">
         <v>43751.618055555555</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -11104,22 +12354,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G59" s="29">
-        <f t="shared" si="3"/>
-        <v>449.99999999999994</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G59" s="22">
+        <f t="shared" si="1"/>
+        <v>451.66666671924759</v>
+      </c>
+      <c r="H59" s="24">
+        <f>IF(G59&lt;損失曲線!$J$12,1,IF(G59&lt;損失曲線!$J$13,2,IF(G59&lt;損失曲線!$J$14,3,IF(G59&lt;損失曲線!$J$15,4,IF(G59&lt;損失曲線!$J$16,5,IF(G59&lt;損失曲線!$J$17,6,IF(G59&lt;損失曲線!$J$18,7,IF(G59&lt;損失曲線!$J$19,8,IF(G59&lt;損失曲線!$J$20,9,IF(G59&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>55</v>
       </c>
       <c r="B60" s="1">
         <v>43751.625</v>
       </c>
-      <c r="C60" s="24">
+      <c r="C60" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D60" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -11131,22 +12385,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G60" s="29">
-        <f t="shared" si="3"/>
-        <v>459.99999999999994</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G60" s="22">
+        <f t="shared" si="1"/>
+        <v>461.66666672041174</v>
+      </c>
+      <c r="H60" s="24">
+        <f>IF(G60&lt;損失曲線!$J$12,1,IF(G60&lt;損失曲線!$J$13,2,IF(G60&lt;損失曲線!$J$14,3,IF(G60&lt;損失曲線!$J$15,4,IF(G60&lt;損失曲線!$J$16,5,IF(G60&lt;損失曲線!$J$17,6,IF(G60&lt;損失曲線!$J$18,7,IF(G60&lt;損失曲線!$J$19,8,IF(G60&lt;損失曲線!$J$20,9,IF(G60&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>56</v>
       </c>
       <c r="B61" s="1">
         <v>43751.631944444445</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D61" s="22">
+      <c r="D61" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -11158,22 +12416,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G61" s="29">
-        <f t="shared" si="3"/>
-        <v>469.99999999999994</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G61" s="22">
+        <f t="shared" si="1"/>
+        <v>471.66666672157589</v>
+      </c>
+      <c r="H61" s="24">
+        <f>IF(G61&lt;損失曲線!$J$12,1,IF(G61&lt;損失曲線!$J$13,2,IF(G61&lt;損失曲線!$J$14,3,IF(G61&lt;損失曲線!$J$15,4,IF(G61&lt;損失曲線!$J$16,5,IF(G61&lt;損失曲線!$J$17,6,IF(G61&lt;損失曲線!$J$18,7,IF(G61&lt;損失曲線!$J$19,8,IF(G61&lt;損失曲線!$J$20,9,IF(G61&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>57</v>
       </c>
       <c r="B62" s="1">
         <v>43751.638888888891</v>
       </c>
-      <c r="C62" s="24">
+      <c r="C62" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D62" s="22">
+      <c r="D62" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -11185,22 +12447,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G62" s="29">
-        <f t="shared" si="3"/>
-        <v>479.99999999999994</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G62" s="22">
+        <f t="shared" si="1"/>
+        <v>481.66666672274005</v>
+      </c>
+      <c r="H62" s="24">
+        <f>IF(G62&lt;損失曲線!$J$12,1,IF(G62&lt;損失曲線!$J$13,2,IF(G62&lt;損失曲線!$J$14,3,IF(G62&lt;損失曲線!$J$15,4,IF(G62&lt;損失曲線!$J$16,5,IF(G62&lt;損失曲線!$J$17,6,IF(G62&lt;損失曲線!$J$18,7,IF(G62&lt;損失曲線!$J$19,8,IF(G62&lt;損失曲線!$J$20,9,IF(G62&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="16">
         <v>58</v>
       </c>
       <c r="B63" s="17">
         <v>43751.645833333336</v>
       </c>
-      <c r="C63" s="24">
+      <c r="C63" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D63" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -11212,22 +12478,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G63" s="29">
-        <f t="shared" si="3"/>
-        <v>489.99999999999994</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G63" s="22">
+        <f t="shared" si="1"/>
+        <v>491.6666667239042</v>
+      </c>
+      <c r="H63" s="24">
+        <f>IF(G63&lt;損失曲線!$J$12,1,IF(G63&lt;損失曲線!$J$13,2,IF(G63&lt;損失曲線!$J$14,3,IF(G63&lt;損失曲線!$J$15,4,IF(G63&lt;損失曲線!$J$16,5,IF(G63&lt;損失曲線!$J$17,6,IF(G63&lt;損失曲線!$J$18,7,IF(G63&lt;損失曲線!$J$19,8,IF(G63&lt;損失曲線!$J$20,9,IF(G63&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>59</v>
       </c>
       <c r="B64" s="1">
         <v>43751.652777777781</v>
       </c>
-      <c r="C64" s="24">
+      <c r="C64" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D64" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -11239,22 +12509,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G64" s="29">
-        <f t="shared" si="3"/>
-        <v>499.99999999999994</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G64" s="22">
+        <f t="shared" si="1"/>
+        <v>501.66666672506835</v>
+      </c>
+      <c r="H64" s="24">
+        <f>IF(G64&lt;損失曲線!$J$12,1,IF(G64&lt;損失曲線!$J$13,2,IF(G64&lt;損失曲線!$J$14,3,IF(G64&lt;損失曲線!$J$15,4,IF(G64&lt;損失曲線!$J$16,5,IF(G64&lt;損失曲線!$J$17,6,IF(G64&lt;損失曲線!$J$18,7,IF(G64&lt;損失曲線!$J$19,8,IF(G64&lt;損失曲線!$J$20,9,IF(G64&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>60</v>
       </c>
       <c r="B65" s="1">
         <v>43751.659722222219</v>
       </c>
-      <c r="C65" s="24">
+      <c r="C65" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -11266,22 +12540,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G65" s="29">
-        <f t="shared" si="3"/>
-        <v>509.99999999999994</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G65" s="22">
+        <f t="shared" si="1"/>
+        <v>511.66666672623251</v>
+      </c>
+      <c r="H65" s="24">
+        <f>IF(G65&lt;損失曲線!$J$12,1,IF(G65&lt;損失曲線!$J$13,2,IF(G65&lt;損失曲線!$J$14,3,IF(G65&lt;損失曲線!$J$15,4,IF(G65&lt;損失曲線!$J$16,5,IF(G65&lt;損失曲線!$J$17,6,IF(G65&lt;損失曲線!$J$18,7,IF(G65&lt;損失曲線!$J$19,8,IF(G65&lt;損失曲線!$J$20,9,IF(G65&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>61</v>
       </c>
       <c r="B66" s="1">
         <v>43751.666666666664</v>
       </c>
-      <c r="C66" s="24">
+      <c r="C66" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D66" s="22">
+      <c r="D66" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -11293,22 +12571,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G66" s="29">
-        <f t="shared" si="3"/>
-        <v>520</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G66" s="22">
+        <f t="shared" si="1"/>
+        <v>521.66666672739666</v>
+      </c>
+      <c r="H66" s="24">
+        <f>IF(G66&lt;損失曲線!$J$12,1,IF(G66&lt;損失曲線!$J$13,2,IF(G66&lt;損失曲線!$J$14,3,IF(G66&lt;損失曲線!$J$15,4,IF(G66&lt;損失曲線!$J$16,5,IF(G66&lt;損失曲線!$J$17,6,IF(G66&lt;損失曲線!$J$18,7,IF(G66&lt;損失曲線!$J$19,8,IF(G66&lt;損失曲線!$J$20,9,IF(G66&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>62</v>
       </c>
       <c r="B67" s="1">
         <v>43751.673611111109</v>
       </c>
-      <c r="C67" s="24">
+      <c r="C67" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D67" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -11320,22 +12602,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G67" s="29">
-        <f t="shared" si="3"/>
-        <v>530</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G67" s="22">
+        <f t="shared" si="1"/>
+        <v>531.66666672856081</v>
+      </c>
+      <c r="H67" s="24">
+        <f>IF(G67&lt;損失曲線!$J$12,1,IF(G67&lt;損失曲線!$J$13,2,IF(G67&lt;損失曲線!$J$14,3,IF(G67&lt;損失曲線!$J$15,4,IF(G67&lt;損失曲線!$J$16,5,IF(G67&lt;損失曲線!$J$17,6,IF(G67&lt;損失曲線!$J$18,7,IF(G67&lt;損失曲線!$J$19,8,IF(G67&lt;損失曲線!$J$20,9,IF(G67&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>63</v>
       </c>
       <c r="B68" s="1">
         <v>43751.680555555555</v>
       </c>
-      <c r="C68" s="24">
+      <c r="C68" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D68" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -11347,22 +12633,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G68" s="29">
-        <f t="shared" si="3"/>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G68" s="22">
+        <f t="shared" si="1"/>
+        <v>541.66666672972497</v>
+      </c>
+      <c r="H68" s="24">
+        <f>IF(G68&lt;損失曲線!$J$12,1,IF(G68&lt;損失曲線!$J$13,2,IF(G68&lt;損失曲線!$J$14,3,IF(G68&lt;損失曲線!$J$15,4,IF(G68&lt;損失曲線!$J$16,5,IF(G68&lt;損失曲線!$J$17,6,IF(G68&lt;損失曲線!$J$18,7,IF(G68&lt;損失曲線!$J$19,8,IF(G68&lt;損失曲線!$J$20,9,IF(G68&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>64</v>
       </c>
       <c r="B69" s="1">
         <v>43751.6875</v>
       </c>
-      <c r="C69" s="24">
+      <c r="C69" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D69" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -11374,22 +12664,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G69" s="29">
-        <f t="shared" si="3"/>
-        <v>550</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G69" s="22">
+        <f t="shared" si="1"/>
+        <v>551.66666673088912</v>
+      </c>
+      <c r="H69" s="24">
+        <f>IF(G69&lt;損失曲線!$J$12,1,IF(G69&lt;損失曲線!$J$13,2,IF(G69&lt;損失曲線!$J$14,3,IF(G69&lt;損失曲線!$J$15,4,IF(G69&lt;損失曲線!$J$16,5,IF(G69&lt;損失曲線!$J$17,6,IF(G69&lt;損失曲線!$J$18,7,IF(G69&lt;損失曲線!$J$19,8,IF(G69&lt;損失曲線!$J$20,9,IF(G69&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>65</v>
       </c>
       <c r="B70" s="1">
         <v>43751.694444444445</v>
       </c>
-      <c r="C70" s="24">
+      <c r="C70" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D70" s="22">
+      <c r="D70" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -11401,22 +12695,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G70" s="29">
-        <f t="shared" si="3"/>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G70" s="22">
+        <f t="shared" si="1"/>
+        <v>561.66666673205327</v>
+      </c>
+      <c r="H70" s="24">
+        <f>IF(G70&lt;損失曲線!$J$12,1,IF(G70&lt;損失曲線!$J$13,2,IF(G70&lt;損失曲線!$J$14,3,IF(G70&lt;損失曲線!$J$15,4,IF(G70&lt;損失曲線!$J$16,5,IF(G70&lt;損失曲線!$J$17,6,IF(G70&lt;損失曲線!$J$18,7,IF(G70&lt;損失曲線!$J$19,8,IF(G70&lt;損失曲線!$J$20,9,IF(G70&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>66</v>
       </c>
       <c r="B71" s="1">
         <v>43751.701388888891</v>
       </c>
-      <c r="C71" s="24">
+      <c r="C71" s="32">
         <v>-523.6009579884186</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="27">
         <f t="shared" si="5"/>
         <v>-523.6009579884186</v>
       </c>
@@ -11428,22 +12726,26 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G71" s="29">
-        <f t="shared" si="3"/>
-        <v>570</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G71" s="22">
+        <f t="shared" si="1"/>
+        <v>571.66666673321743</v>
+      </c>
+      <c r="H71" s="24">
+        <f>IF(G71&lt;損失曲線!$J$12,1,IF(G71&lt;損失曲線!$J$13,2,IF(G71&lt;損失曲線!$J$14,3,IF(G71&lt;損失曲線!$J$15,4,IF(G71&lt;損失曲線!$J$16,5,IF(G71&lt;損失曲線!$J$17,6,IF(G71&lt;損失曲線!$J$18,7,IF(G71&lt;損失曲線!$J$19,8,IF(G71&lt;損失曲線!$J$20,9,IF(G71&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>67</v>
       </c>
       <c r="B72" s="1">
         <v>43751.708333333336</v>
       </c>
-      <c r="C72" s="24">
-        <v>0</v>
-      </c>
-      <c r="D72" s="22">
+      <c r="C72" s="32">
+        <v>0</v>
+      </c>
+      <c r="D72" s="27">
         <v>0</v>
       </c>
       <c r="E72">
@@ -11453,22 +12755,26 @@
       <c r="F72">
         <v>0</v>
       </c>
-      <c r="G72" s="29">
-        <f t="shared" si="3"/>
-        <v>570</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G72" s="22">
+        <f t="shared" ref="G72:G78" si="8">(($B$7-$B$6)*24)*F71+G71</f>
+        <v>581.66666673438158</v>
+      </c>
+      <c r="H72" s="24">
+        <f>IF(G72&lt;損失曲線!$J$12,1,IF(G72&lt;損失曲線!$J$13,2,IF(G72&lt;損失曲線!$J$14,3,IF(G72&lt;損失曲線!$J$15,4,IF(G72&lt;損失曲線!$J$16,5,IF(G72&lt;損失曲線!$J$17,6,IF(G72&lt;損失曲線!$J$18,7,IF(G72&lt;損失曲線!$J$19,8,IF(G72&lt;損失曲線!$J$20,9,IF(G72&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>68</v>
       </c>
       <c r="B73" s="1">
         <v>43751.715277777781</v>
       </c>
-      <c r="C73" s="24">
-        <v>0</v>
-      </c>
-      <c r="D73" s="22">
+      <c r="C73" s="32">
+        <v>0</v>
+      </c>
+      <c r="D73" s="27">
         <v>0</v>
       </c>
       <c r="E73">
@@ -11478,22 +12784,26 @@
       <c r="F73">
         <v>0</v>
       </c>
-      <c r="G73" s="29">
-        <f t="shared" si="3"/>
-        <v>570</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G73" s="22">
+        <f t="shared" si="8"/>
+        <v>581.66666673438158</v>
+      </c>
+      <c r="H73" s="24">
+        <f>IF(G73&lt;損失曲線!$J$12,1,IF(G73&lt;損失曲線!$J$13,2,IF(G73&lt;損失曲線!$J$14,3,IF(G73&lt;損失曲線!$J$15,4,IF(G73&lt;損失曲線!$J$16,5,IF(G73&lt;損失曲線!$J$17,6,IF(G73&lt;損失曲線!$J$18,7,IF(G73&lt;損失曲線!$J$19,8,IF(G73&lt;損失曲線!$J$20,9,IF(G73&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>69</v>
       </c>
       <c r="B74" s="1">
         <v>43751.722222222219</v>
       </c>
-      <c r="C74" s="24">
-        <v>0</v>
-      </c>
-      <c r="D74" s="22">
+      <c r="C74" s="32">
+        <v>0</v>
+      </c>
+      <c r="D74" s="27">
         <v>0</v>
       </c>
       <c r="E74">
@@ -11503,22 +12813,26 @@
       <c r="F74">
         <v>0</v>
       </c>
-      <c r="G74" s="29">
-        <f t="shared" si="3"/>
-        <v>570</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G74" s="22">
+        <f t="shared" si="8"/>
+        <v>581.66666673438158</v>
+      </c>
+      <c r="H74" s="24">
+        <f>IF(G74&lt;損失曲線!$J$12,1,IF(G74&lt;損失曲線!$J$13,2,IF(G74&lt;損失曲線!$J$14,3,IF(G74&lt;損失曲線!$J$15,4,IF(G74&lt;損失曲線!$J$16,5,IF(G74&lt;損失曲線!$J$17,6,IF(G74&lt;損失曲線!$J$18,7,IF(G74&lt;損失曲線!$J$19,8,IF(G74&lt;損失曲線!$J$20,9,IF(G74&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>70</v>
       </c>
       <c r="B75" s="1">
         <v>43751.729166666664</v>
       </c>
-      <c r="C75" s="24">
-        <v>0</v>
-      </c>
-      <c r="D75" s="22">
+      <c r="C75" s="32">
+        <v>0</v>
+      </c>
+      <c r="D75" s="27">
         <v>0</v>
       </c>
       <c r="E75">
@@ -11528,22 +12842,26 @@
       <c r="F75">
         <v>0</v>
       </c>
-      <c r="G75" s="29">
-        <f t="shared" si="3"/>
-        <v>570</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G75" s="22">
+        <f t="shared" si="8"/>
+        <v>581.66666673438158</v>
+      </c>
+      <c r="H75" s="24">
+        <f>IF(G75&lt;損失曲線!$J$12,1,IF(G75&lt;損失曲線!$J$13,2,IF(G75&lt;損失曲線!$J$14,3,IF(G75&lt;損失曲線!$J$15,4,IF(G75&lt;損失曲線!$J$16,5,IF(G75&lt;損失曲線!$J$17,6,IF(G75&lt;損失曲線!$J$18,7,IF(G75&lt;損失曲線!$J$19,8,IF(G75&lt;損失曲線!$J$20,9,IF(G75&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>71</v>
       </c>
       <c r="B76" s="1">
         <v>43751.736111111109</v>
       </c>
-      <c r="C76" s="24">
-        <v>0</v>
-      </c>
-      <c r="D76" s="22">
+      <c r="C76" s="32">
+        <v>0</v>
+      </c>
+      <c r="D76" s="27">
         <v>0</v>
       </c>
       <c r="E76">
@@ -11553,22 +12871,26 @@
       <c r="F76">
         <v>0</v>
       </c>
-      <c r="G76" s="29">
-        <f t="shared" si="3"/>
-        <v>570</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G76" s="22">
+        <f t="shared" si="8"/>
+        <v>581.66666673438158</v>
+      </c>
+      <c r="H76" s="24">
+        <f>IF(G76&lt;損失曲線!$J$12,1,IF(G76&lt;損失曲線!$J$13,2,IF(G76&lt;損失曲線!$J$14,3,IF(G76&lt;損失曲線!$J$15,4,IF(G76&lt;損失曲線!$J$16,5,IF(G76&lt;損失曲線!$J$17,6,IF(G76&lt;損失曲線!$J$18,7,IF(G76&lt;損失曲線!$J$19,8,IF(G76&lt;損失曲線!$J$20,9,IF(G76&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>72</v>
       </c>
       <c r="B77" s="1">
         <v>43751.743055555555</v>
       </c>
-      <c r="C77" s="24">
-        <v>0</v>
-      </c>
-      <c r="D77" s="22">
+      <c r="C77" s="32">
+        <v>0</v>
+      </c>
+      <c r="D77" s="27">
         <v>0</v>
       </c>
       <c r="E77">
@@ -11578,22 +12900,26 @@
       <c r="F77">
         <v>0</v>
       </c>
-      <c r="G77" s="29">
-        <f t="shared" si="3"/>
-        <v>570</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G77" s="22">
+        <f t="shared" si="8"/>
+        <v>581.66666673438158</v>
+      </c>
+      <c r="H77" s="24">
+        <f>IF(G77&lt;損失曲線!$J$12,1,IF(G77&lt;損失曲線!$J$13,2,IF(G77&lt;損失曲線!$J$14,3,IF(G77&lt;損失曲線!$J$15,4,IF(G77&lt;損失曲線!$J$16,5,IF(G77&lt;損失曲線!$J$17,6,IF(G77&lt;損失曲線!$J$18,7,IF(G77&lt;損失曲線!$J$19,8,IF(G77&lt;損失曲線!$J$20,9,IF(G77&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A78">
         <v>73</v>
       </c>
       <c r="B78" s="1">
         <v>43751.75</v>
       </c>
-      <c r="C78" s="25">
-        <v>0</v>
-      </c>
-      <c r="D78" s="22">
+      <c r="C78" s="33">
+        <v>0</v>
+      </c>
+      <c r="D78" s="27">
         <v>0</v>
       </c>
       <c r="E78">
@@ -11603,9 +12929,13 @@
       <c r="F78">
         <v>0</v>
       </c>
-      <c r="G78" s="29">
-        <f t="shared" si="3"/>
-        <v>570</v>
+      <c r="G78" s="22">
+        <f t="shared" si="8"/>
+        <v>581.66666673438158</v>
+      </c>
+      <c r="H78" s="24">
+        <f>IF(G78&lt;損失曲線!$J$12,1,IF(G78&lt;損失曲線!$J$13,2,IF(G78&lt;損失曲線!$J$14,3,IF(G78&lt;損失曲線!$J$15,4,IF(G78&lt;損失曲線!$J$16,5,IF(G78&lt;損失曲線!$J$17,6,IF(G78&lt;損失曲線!$J$18,7,IF(G78&lt;損失曲線!$J$19,8,IF(G78&lt;損失曲線!$J$20,9,IF(G78&lt;損失曲線!$J$21,10,0))))))))))</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -11624,9 +12954,9 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>6350</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>215900</xdr:rowOff>
+                    <xdr:rowOff>222250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
@@ -11665,32 +12995,32 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>27</v>
@@ -11712,22 +13042,22 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -12909,15 +14239,15 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="20.58203125" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.9140625" customWidth="1"/>
-    <col min="5" max="5" width="11.9140625" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.08203125" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="11"/>
     </row>
@@ -12932,7 +14262,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -12971,16 +14301,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -14078,15 +15408,15 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="20.58203125" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.9140625" customWidth="1"/>
-    <col min="5" max="5" width="11.9140625" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.08203125" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="11"/>
     </row>
@@ -14101,7 +15431,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -14140,16 +15470,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -15247,15 +16577,15 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="20.58203125" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.9140625" customWidth="1"/>
-    <col min="5" max="5" width="11.9140625" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.08203125" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="11"/>
     </row>
@@ -15270,7 +16600,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -15309,16 +16639,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -16416,15 +17746,15 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="20.58203125" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.9140625" customWidth="1"/>
-    <col min="5" max="5" width="11.9140625" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.08203125" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="11"/>
     </row>
@@ -16439,7 +17769,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -16478,16 +17808,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -17578,8 +18908,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AA102"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -17588,7 +18918,8 @@
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="9" max="9" width="12.25" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.25" customWidth="1"/>
+    <col min="14" max="14" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -17607,39 +18938,6 @@
       <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="2" spans="1:27" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2">
@@ -17658,6 +18956,17 @@
       <c r="F2">
         <v>1282.9645098039218</v>
       </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2" t="s">
         <v>6</v>
@@ -17722,6 +19031,18 @@
       <c r="F4">
         <v>1335.8503846153847</v>
       </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
       <c r="V4" s="5" t="s">
         <v>13</v>
       </c>
@@ -17759,6 +19080,15 @@
       <c r="F5">
         <v>1382.9523684210526</v>
       </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
       <c r="V5" s="5" t="s">
         <v>15</v>
       </c>
@@ -17792,6 +19122,15 @@
       <c r="F6">
         <v>1181.5514285714287</v>
       </c>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
       <c r="V6" s="5" t="s">
         <v>17</v>
       </c>
@@ -17828,6 +19167,15 @@
       <c r="F7">
         <v>1386.39625</v>
       </c>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
       <c r="V7" s="5" t="s">
         <v>18</v>
       </c>
@@ -17922,6 +19270,25 @@
       <c r="F10">
         <v>1350.0267605633796</v>
       </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="V10" s="10" t="s">
         <v>23</v>
       </c>
@@ -17944,6 +19311,19 @@
       <c r="F11">
         <v>1197.4238888888888</v>
       </c>
+      <c r="I11" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="23">
+        <v>0</v>
+      </c>
+      <c r="K11" s="22">
+        <v>33</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
@@ -17962,6 +19342,30 @@
       <c r="F12">
         <v>646.27758064516149</v>
       </c>
+      <c r="I12" s="21">
+        <v>1</v>
+      </c>
+      <c r="J12" s="23">
+        <v>322</v>
+      </c>
+      <c r="K12" s="22">
+        <v>119</v>
+      </c>
+      <c r="L12" s="25">
+        <v>70</v>
+      </c>
+      <c r="M12" s="22">
+        <f t="shared" ref="M12:M21" si="1">(K12-K11)*$AA$6*9.80665</f>
+        <v>210842.97499999998</v>
+      </c>
+      <c r="N12" s="22">
+        <f t="shared" ref="N12:N21" si="2">(J12-J11)/L12*3600</f>
+        <v>16560</v>
+      </c>
+      <c r="O12" s="22">
+        <f t="shared" ref="O12:O21" si="3">M12/N12</f>
+        <v>12.732063707729468</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
@@ -17980,6 +19384,30 @@
       <c r="F13">
         <v>713.09083333333331</v>
       </c>
+      <c r="I13" s="21">
+        <v>2</v>
+      </c>
+      <c r="J13" s="23">
+        <v>580</v>
+      </c>
+      <c r="K13" s="22">
+        <v>210</v>
+      </c>
+      <c r="L13" s="25">
+        <v>60</v>
+      </c>
+      <c r="M13" s="22">
+        <f t="shared" si="1"/>
+        <v>223101.28749999998</v>
+      </c>
+      <c r="N13" s="22">
+        <f t="shared" si="2"/>
+        <v>15480</v>
+      </c>
+      <c r="O13" s="22">
+        <f t="shared" si="3"/>
+        <v>14.412227874677001</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
@@ -17998,6 +19426,30 @@
       <c r="F14">
         <v>929.75268518518521</v>
       </c>
+      <c r="I14" s="21">
+        <v>3</v>
+      </c>
+      <c r="J14" s="23">
+        <v>988</v>
+      </c>
+      <c r="K14" s="22">
+        <v>365</v>
+      </c>
+      <c r="L14" s="25">
+        <v>75</v>
+      </c>
+      <c r="M14" s="22">
+        <f t="shared" si="1"/>
+        <v>380007.6875</v>
+      </c>
+      <c r="N14" s="22">
+        <f t="shared" si="2"/>
+        <v>19584</v>
+      </c>
+      <c r="O14" s="22">
+        <f t="shared" si="3"/>
+        <v>19.40398731107026</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
@@ -18016,6 +19468,30 @@
       <c r="F15">
         <v>1046.252403846154</v>
       </c>
+      <c r="I15" s="21">
+        <v>4</v>
+      </c>
+      <c r="J15" s="23">
+        <v>1211</v>
+      </c>
+      <c r="K15" s="22">
+        <v>516</v>
+      </c>
+      <c r="L15" s="25">
+        <v>70</v>
+      </c>
+      <c r="M15" s="22">
+        <f t="shared" si="1"/>
+        <v>370201.03749999998</v>
+      </c>
+      <c r="N15" s="22">
+        <f t="shared" si="2"/>
+        <v>11468.571428571428</v>
+      </c>
+      <c r="O15" s="22">
+        <f t="shared" si="3"/>
+        <v>32.279612138764328</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
@@ -18034,8 +19510,32 @@
       <c r="F16">
         <v>1164.6832558139533</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I16" s="21">
+        <v>5</v>
+      </c>
+      <c r="J16" s="23">
+        <v>1496</v>
+      </c>
+      <c r="K16" s="22">
+        <v>576</v>
+      </c>
+      <c r="L16" s="25">
+        <v>60</v>
+      </c>
+      <c r="M16" s="22">
+        <f t="shared" si="1"/>
+        <v>147099.75</v>
+      </c>
+      <c r="N16" s="22">
+        <f t="shared" si="2"/>
+        <v>17100</v>
+      </c>
+      <c r="O16" s="22">
+        <f t="shared" si="3"/>
+        <v>8.602324561403508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>15</v>
       </c>
@@ -18052,8 +19552,32 @@
       <c r="F17">
         <v>1347.0154285714284</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I17" s="21">
+        <v>6</v>
+      </c>
+      <c r="J17" s="23">
+        <v>1756</v>
+      </c>
+      <c r="K17" s="22">
+        <v>503</v>
+      </c>
+      <c r="L17" s="25">
+        <v>70</v>
+      </c>
+      <c r="M17" s="22">
+        <f t="shared" si="1"/>
+        <v>-178971.36249999999</v>
+      </c>
+      <c r="N17" s="22">
+        <f t="shared" si="2"/>
+        <v>13371.428571428572</v>
+      </c>
+      <c r="O17" s="22">
+        <f t="shared" si="3"/>
+        <v>-13.384610443376067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>16</v>
       </c>
@@ -18070,8 +19594,32 @@
       <c r="F18">
         <v>1088.0877941176473</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I18" s="21">
+        <v>7</v>
+      </c>
+      <c r="J18" s="23">
+        <v>2178</v>
+      </c>
+      <c r="K18" s="22">
+        <v>222</v>
+      </c>
+      <c r="L18" s="25">
+        <v>60</v>
+      </c>
+      <c r="M18" s="22">
+        <f t="shared" si="1"/>
+        <v>-688917.16249999998</v>
+      </c>
+      <c r="N18" s="22">
+        <f t="shared" si="2"/>
+        <v>25320</v>
+      </c>
+      <c r="O18" s="22">
+        <f t="shared" si="3"/>
+        <v>-27.20841874012638</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>17</v>
       </c>
@@ -18088,8 +19636,32 @@
       <c r="F19">
         <v>1527.5992063492063</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I19" s="21">
+        <v>8</v>
+      </c>
+      <c r="J19" s="23">
+        <v>2432</v>
+      </c>
+      <c r="K19" s="22">
+        <v>138</v>
+      </c>
+      <c r="L19" s="25">
+        <v>70</v>
+      </c>
+      <c r="M19" s="22">
+        <f t="shared" si="1"/>
+        <v>-205939.65</v>
+      </c>
+      <c r="N19" s="22">
+        <f t="shared" si="2"/>
+        <v>13062.857142857143</v>
+      </c>
+      <c r="O19" s="22">
+        <f t="shared" si="3"/>
+        <v>-15.765283792650918</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>18</v>
       </c>
@@ -18106,8 +19678,32 @@
       <c r="F20">
         <v>1158.028121454545</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I20" s="21">
+        <v>9</v>
+      </c>
+      <c r="J20" s="23">
+        <v>2719</v>
+      </c>
+      <c r="K20" s="22">
+        <v>12</v>
+      </c>
+      <c r="L20" s="25">
+        <v>60</v>
+      </c>
+      <c r="M20" s="22">
+        <f t="shared" si="1"/>
+        <v>-308909.47499999998</v>
+      </c>
+      <c r="N20" s="22">
+        <f t="shared" si="2"/>
+        <v>17220</v>
+      </c>
+      <c r="O20" s="22">
+        <f t="shared" si="3"/>
+        <v>-17.938993902439023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>19</v>
       </c>
@@ -18124,8 +19720,32 @@
       <c r="F21">
         <v>337.38182871655317</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I21" s="21">
+        <v>10</v>
+      </c>
+      <c r="J21" s="23">
+        <v>3022</v>
+      </c>
+      <c r="K21" s="22">
+        <v>10</v>
+      </c>
+      <c r="L21" s="25">
+        <v>70</v>
+      </c>
+      <c r="M21" s="22">
+        <f t="shared" si="1"/>
+        <v>-4903.3249999999998</v>
+      </c>
+      <c r="N21" s="22">
+        <f t="shared" si="2"/>
+        <v>15582.857142857141</v>
+      </c>
+      <c r="O21" s="22">
+        <f t="shared" si="3"/>
+        <v>-0.31466148698203156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>20</v>
       </c>
@@ -18142,8 +19762,11 @@
       <c r="F22">
         <v>1080.453636233766</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>21</v>
       </c>
@@ -18160,8 +19783,11 @@
       <c r="F23">
         <v>1062.2558162337662</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>22</v>
       </c>
@@ -18178,8 +19804,11 @@
       <c r="F24">
         <v>578.89550895104958</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>23</v>
       </c>
@@ -18197,7 +19826,7 @@
         <v>802.71962514155553</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>24</v>
       </c>
@@ -18215,7 +19844,7 @@
         <v>1105.1131234404679</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>25</v>
       </c>
@@ -18233,7 +19862,7 @@
         <v>578.89550895104958</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>26</v>
       </c>
@@ -18251,7 +19880,7 @@
         <v>802.71962514155553</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>27</v>
       </c>
@@ -18269,7 +19898,7 @@
         <v>1104.3356485135141</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>28</v>
       </c>
@@ -18287,7 +19916,7 @@
         <v>1539.5791562790696</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>29</v>
       </c>
@@ -18305,7 +19934,7 @@
         <v>316.98526455000012</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>30</v>
       </c>
@@ -18340,7 +19969,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34:B65" si="1">(0.5*$W$3*$AA$4*(A34/3.6)^2+$AA$5*$AA$6*$W$7+$AA$5*$AA$6*SIN($W$10))*(A34/3.6)*(1/$AA$8)</f>
+        <f t="shared" ref="B34:B65" si="4">(0.5*$W$3*$AA$4*(A34/3.6)^2+$AA$5*$AA$6*$W$7+$AA$5*$AA$6*SIN($W$10))*(A34/3.6)*(1/$AA$8)</f>
         <v>193.97265152136708</v>
       </c>
       <c r="C34">
@@ -18352,7 +19981,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>202.25343700205974</v>
       </c>
       <c r="C35">
@@ -18364,7 +19993,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>210.73906618619708</v>
       </c>
       <c r="C36">
@@ -18376,7 +20005,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>219.43574645873184</v>
       </c>
       <c r="C37">
@@ -18388,7 +20017,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>228.349685204617</v>
       </c>
       <c r="C38">
@@ -18400,7 +20029,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>237.48708980880528</v>
       </c>
       <c r="C39">
@@ -18412,7 +20041,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>246.85416765624976</v>
       </c>
       <c r="C40">
@@ -18424,7 +20053,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>256.45712613190318</v>
       </c>
       <c r="C41">
@@ -18436,7 +20065,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>266.3021726207183</v>
       </c>
       <c r="C42">
@@ -18448,7 +20077,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>276.39551450764822</v>
       </c>
       <c r="C43">
@@ -18460,7 +20089,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>286.74335917764563</v>
       </c>
       <c r="C44">
@@ -18472,7 +20101,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>297.35191401566345</v>
       </c>
       <c r="C45">
@@ -18484,7 +20113,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>308.22738640665455</v>
       </c>
       <c r="C46">
@@ -18496,7 +20125,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>319.37598373557188</v>
       </c>
       <c r="C47">
@@ -18508,7 +20137,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>330.80391338736814</v>
       </c>
       <c r="C48">
@@ -18520,7 +20149,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>342.51738274699636</v>
       </c>
       <c r="C49">
@@ -18532,7 +20161,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>354.52259919940917</v>
       </c>
       <c r="C50">
@@ -18544,7 +20173,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>366.82577012955977</v>
       </c>
       <c r="C51">
@@ -18556,7 +20185,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>379.43310292240085</v>
       </c>
       <c r="C52">
@@ -18568,7 +20197,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>392.35080496288521</v>
       </c>
       <c r="C53">
@@ -18580,7 +20209,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>405.58508363596587</v>
       </c>
       <c r="C54">
@@ -18592,7 +20221,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>419.14214632659548</v>
       </c>
       <c r="C55">
@@ -18604,7 +20233,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>433.02820041972717</v>
       </c>
       <c r="C56">
@@ -18616,7 +20245,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>447.24945330031352</v>
       </c>
       <c r="C57">
@@ -18628,7 +20257,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>461.81211235330773</v>
       </c>
       <c r="C58">
@@ -18640,7 +20269,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>476.72238496366242</v>
       </c>
       <c r="C59">
@@ -18652,7 +20281,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>491.98647851633069</v>
       </c>
       <c r="C60">
@@ -18664,7 +20293,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>507.610600396265</v>
       </c>
       <c r="C61">
@@ -18676,7 +20305,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>523.6009579884186</v>
       </c>
       <c r="C62">
@@ -18688,7 +20317,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>539.96375867774407</v>
       </c>
       <c r="C63">
@@ -18700,7 +20329,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>556.70520984919472</v>
       </c>
       <c r="C64">
@@ -18712,7 +20341,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>573.83151888772295</v>
       </c>
       <c r="C65">
@@ -18724,7 +20353,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B97" si="2">(0.5*$W$3*$AA$4*(A66/3.6)^2+$AA$5*$AA$6*$W$7+$AA$5*$AA$6*SIN($W$10))*(A66/3.6)*(1/$AA$8)</f>
+        <f t="shared" ref="B66:B97" si="5">(0.5*$W$3*$AA$4*(A66/3.6)^2+$AA$5*$AA$6*$W$7+$AA$5*$AA$6*SIN($W$10))*(A66/3.6)*(1/$AA$8)</f>
         <v>591.34889317828186</v>
       </c>
       <c r="C66">
@@ -18736,7 +20365,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>609.26354010582406</v>
       </c>
       <c r="C67">
@@ -18748,7 +20377,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>627.58166705530289</v>
       </c>
       <c r="C68">
@@ -18760,7 +20389,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>646.30948141167084</v>
       </c>
       <c r="C69">
@@ -18772,7 +20401,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>665.45319055988102</v>
       </c>
       <c r="C70">
@@ -18784,7 +20413,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>685.01900188488617</v>
       </c>
       <c r="C71">
@@ -18796,7 +20425,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>705.01312277163879</v>
       </c>
       <c r="C72">
@@ -18808,7 +20437,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>725.44176060509221</v>
       </c>
       <c r="C73">
@@ -18820,7 +20449,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>746.31112277019929</v>
       </c>
       <c r="C74">
@@ -18832,7 +20461,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>767.62741665191288</v>
       </c>
       <c r="C75">
@@ -18844,7 +20473,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>789.39684963518562</v>
       </c>
       <c r="C76">
@@ -18856,7 +20485,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>811.6256291049707</v>
       </c>
       <c r="C77">
@@ -18868,7 +20497,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>834.31996244622042</v>
       </c>
       <c r="C78">
@@ -18880,7 +20509,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>857.48605704388854</v>
       </c>
       <c r="C79">
@@ -18892,7 +20521,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>881.13012028292735</v>
       </c>
       <c r="C80">
@@ -18904,7 +20533,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>905.25835954828938</v>
       </c>
       <c r="C81">
@@ -18916,7 +20545,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>929.87698222492816</v>
       </c>
       <c r="C82">
@@ -18928,7 +20557,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>954.99219569779643</v>
       </c>
       <c r="C83">
@@ -18940,7 +20569,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>980.61020735184684</v>
       </c>
       <c r="C84">
@@ -18952,7 +20581,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1006.7372245720319</v>
       </c>
       <c r="C85">
@@ -18964,7 +20593,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1033.3794547433056</v>
       </c>
       <c r="C86">
@@ -18976,7 +20605,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1060.5431052506201</v>
       </c>
       <c r="C87">
@@ -18988,7 +20617,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1088.2343834789278</v>
       </c>
       <c r="C88">
@@ -19000,7 +20629,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1116.4594968131821</v>
       </c>
       <c r="C89">
@@ -19012,7 +20641,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1145.2246526383365</v>
       </c>
       <c r="C90">
@@ -19024,7 +20653,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1174.5360583393426</v>
       </c>
       <c r="C91">
@@ -19036,7 +20665,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1204.3999213011543</v>
       </c>
       <c r="C92">
@@ -19048,7 +20677,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1234.8224489087238</v>
       </c>
       <c r="C93">
@@ -19060,7 +20689,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1265.8098485470039</v>
       </c>
       <c r="C94">
@@ -19072,7 +20701,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1297.3683276009483</v>
       </c>
       <c r="C95">
@@ -19084,7 +20713,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1329.5040934555088</v>
       </c>
       <c r="C96">
@@ -19096,7 +20725,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1362.2233534956392</v>
       </c>
       <c r="C97">
@@ -19108,7 +20737,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <f t="shared" ref="B98:B102" si="3">(0.5*$W$3*$AA$4*(A98/3.6)^2+$AA$5*$AA$6*$W$7+$AA$5*$AA$6*SIN($W$10))*(A98/3.6)*(1/$AA$8)</f>
+        <f t="shared" ref="B98:B102" si="6">(0.5*$W$3*$AA$4*(A98/3.6)^2+$AA$5*$AA$6*$W$7+$AA$5*$AA$6*SIN($W$10))*(A98/3.6)*(1/$AA$8)</f>
         <v>1395.5323151062917</v>
       </c>
       <c r="C98">
@@ -19120,7 +20749,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1429.4371856724197</v>
       </c>
       <c r="C99">
@@ -19132,7 +20761,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1463.9441725789759</v>
       </c>
       <c r="C100">
@@ -19144,7 +20773,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1499.059483210913</v>
       </c>
       <c r="C101">
@@ -19156,7 +20785,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1534.7893249531837</v>
       </c>
       <c r="C102">

--- a/BWSC2019-EneMane/PM/PM.xlsx
+++ b/BWSC2019-EneMane/PM/PM.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yousugoi\Desktop\solar-energy-management-\BWSC2019-EneMane\PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8967A3F-C791-44A4-B0A1-1DC66F7A6657}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EDBDA8-9F92-43F4-9552-6B38D2CA3C79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="1110" windowWidth="14385" windowHeight="13545" firstSheet="4" activeTab="6" xr2:uid="{48F4E5B9-CD80-4D92-94B2-C6C662884FF4}"/>
-    <workbookView xWindow="1515" yWindow="1155" windowWidth="16500" windowHeight="13545" xr2:uid="{322B08BC-70B4-4BE2-8B99-F313A0CE33B9}"/>
+    <workbookView xWindow="7005" yWindow="705" windowWidth="16605" windowHeight="13545" xr2:uid="{48F4E5B9-CD80-4D92-94B2-C6C662884FF4}"/>
   </bookViews>
   <sheets>
     <sheet name="PM_１" sheetId="1" r:id="rId1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="65">
   <si>
     <t>Trip</t>
     <phoneticPr fontId="2"/>
@@ -350,44 +349,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Trip間の距離エネ[J/km]</t>
-    <rPh sb="4" eb="5">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キョリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DAY1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DAY2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DAY3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DAY4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DAY5</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DAY6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DAY7</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>走行時間</t>
     <rPh sb="0" eb="2">
       <t>ソウコウ</t>
@@ -455,18 +416,35 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>Trip間の平均勾配損失[W]</t>
+    <rPh sb="4" eb="5">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウバイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソンシツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
     <numFmt numFmtId="178" formatCode="&quot;Trip&quot;0"/>
     <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="180" formatCode="&quot;DAY&quot;0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +487,14 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -636,7 +622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,6 +720,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1133,166 +1131,166 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>713.11722936886099</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>713.11722936886099</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>713.11722936886099</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>713.11722936886099</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>713.11722936886099</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>713.11722936886099</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>713.11722936886099</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>713.11722936886099</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>713.11722936886099</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>523.6009579884186</c:v>
+                  <c:v>531.77316632175189</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>523.6009579884186</c:v>
+                  <c:v>531.77316632175189</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>523.6009579884186</c:v>
+                  <c:v>531.77316632175189</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>523.6009579884186</c:v>
+                  <c:v>531.77316632175189</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>523.6009579884186</c:v>
+                  <c:v>531.77316632175189</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>523.6009579884186</c:v>
+                  <c:v>531.77316632175189</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>523.6009579884186</c:v>
+                  <c:v>531.77316632175189</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>523.6009579884186</c:v>
+                  <c:v>531.77316632175189</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>523.6009579884186</c:v>
+                  <c:v>531.77316632175189</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>523.6009579884186</c:v>
+                  <c:v>531.77316632175189</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>609.26354010582406</c:v>
+                  <c:v>627.04255891843786</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>609.26354010582406</c:v>
+                  <c:v>627.04255891843786</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>609.26354010582406</c:v>
+                  <c:v>627.04255891843786</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>609.26354010582406</c:v>
+                  <c:v>627.04255891843786</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>609.26354010582406</c:v>
+                  <c:v>627.04255891843786</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>609.26354010582406</c:v>
+                  <c:v>627.04255891843786</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>609.26354010582406</c:v>
+                  <c:v>627.04255891843786</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>609.26354010582406</c:v>
+                  <c:v>627.04255891843786</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>609.26354010582406</c:v>
+                  <c:v>627.04255891843786</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>609.26354010582406</c:v>
+                  <c:v>627.04255891843786</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>609.26354010582406</c:v>
+                  <c:v>627.04255891843786</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>711.73598646465871</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>711.73598646465871</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>711.73598646465871</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>711.73598646465871</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>711.73598646465871</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>711.73598646465871</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>711.73598646465871</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>714.54736582719431</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>714.54736582719431</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>714.54736582719431</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>714.54736582719431</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>714.54736582719431</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>714.54736582719431</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>714.54736582719431</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>714.54736582719431</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>714.54736582719431</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>740.76653422997208</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>740.76653422997208</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>740.76653422997208</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>740.76653422997208</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>740.76653422997208</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>740.76653422997208</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>712.95832531793508</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>705.01312277163879</c:v>
+                  <c:v>712.95832531793508</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>0</c:v>
@@ -1718,13 +1716,13 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>70</c:v>
@@ -8762,13 +8760,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>76199</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>227239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>658090</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -8785,8 +8783,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9953625" y="2151289"/>
-          <a:ext cx="2543175" cy="7630886"/>
+          <a:off x="9999517" y="2166875"/>
+          <a:ext cx="3647209" cy="7773761"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8824,13 +8822,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
+      <xdr:colOff>285748</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>122464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>13606</xdr:rowOff>
     </xdr:to>
@@ -8847,8 +8845,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10967356" y="612321"/>
-          <a:ext cx="1133929" cy="1360714"/>
+          <a:off x="11074975" y="607373"/>
+          <a:ext cx="1965615" cy="1345869"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -9582,7 +9580,7 @@
         <xdr:cNvPr id="12" name="吹き出し: 角を丸めた四角形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ADA9A70-F82E-42B9-8FA7-8843264B6EAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9656,7 +9654,7 @@
         <xdr:cNvPr id="13" name="吹き出し: 角を丸めた四角形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75BB871D-90AA-41E5-8419-7D63D242DAD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10852,11 +10850,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
-    </sheetView>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="1">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10881,6 +10876,10 @@
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
+      <c r="J1" s="35">
+        <v>1</v>
+      </c>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="31" t="s">
@@ -10973,10 +10972,10 @@
         <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -10995,11 +10994,11 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <f>VLOOKUP(PM_１!F6,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
+        <f>VLOOKUP(PM_１!F6,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F6&gt;0,VLOOKUP(H6,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="F6" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B6,B6&lt;=損失曲線・データ入力!$T$10),VLOOKUP(H6,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B6,B6&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H6,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="G6" s="22">
@@ -11032,11 +11031,11 @@
         <v>0</v>
       </c>
       <c r="E7" s="20">
-        <f>VLOOKUP(PM_１!F7,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
+        <f>VLOOKUP(PM_１!F7,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F7&gt;0,VLOOKUP(H7,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="F7" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B7,B7&lt;=損失曲線・データ入力!$T$10,I7=0),VLOOKUP(H7,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B7,B7&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H7,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="G7">
@@ -11072,11 +11071,11 @@
         <v>0</v>
       </c>
       <c r="E8" s="20">
-        <f>VLOOKUP(PM_１!F8,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
+        <f>VLOOKUP(PM_１!F8,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F8&gt;0,VLOOKUP(H8,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="F8" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B8,B8&lt;=損失曲線・データ入力!$T$10,I8=0),VLOOKUP(H8,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B8,B8&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H8,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="G8" s="20">
@@ -11112,11 +11111,11 @@
         <v>0</v>
       </c>
       <c r="E9" s="20">
-        <f>VLOOKUP(PM_１!F9,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
+        <f>VLOOKUP(PM_１!F9,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F9&gt;0,VLOOKUP(H9,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="F9" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B9,B9&lt;=損失曲線・データ入力!$T$10,I9=0),VLOOKUP(H9,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B9,B9&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H9,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="G9" s="20">
@@ -11152,11 +11151,11 @@
         <v>0</v>
       </c>
       <c r="E10" s="20">
-        <f>VLOOKUP(PM_１!F10,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
+        <f>VLOOKUP(PM_１!F10,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F10&gt;0,VLOOKUP(H10,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="F10" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B10,B10&lt;=損失曲線・データ入力!$T$10,I10=0),VLOOKUP(H10,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B10,B10&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H10,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="G10" s="20">
@@ -11192,11 +11191,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="20">
-        <f>VLOOKUP(PM_１!F11,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
+        <f>VLOOKUP(PM_１!F11,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F11&gt;0,VLOOKUP(H11,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="F11" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B11,B11&lt;=損失曲線・データ入力!$T$10,I11=0),VLOOKUP(H11,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B11,B11&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H11,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="G11" s="20">
@@ -11232,11 +11231,11 @@
         <v>0</v>
       </c>
       <c r="E12" s="20">
-        <f>VLOOKUP(PM_１!F12,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
+        <f>VLOOKUP(PM_１!F12,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F12&gt;0,VLOOKUP(H12,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="F12" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B12,B12&lt;=損失曲線・データ入力!$T$10,I12=0),VLOOKUP(H12,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B12,B12&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H12,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="G12" s="20">
@@ -11272,11 +11271,11 @@
         <v>0</v>
       </c>
       <c r="E13" s="20">
-        <f>VLOOKUP(PM_１!F13,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
+        <f>VLOOKUP(PM_１!F13,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F13&gt;0,VLOOKUP(H13,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="F13" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B13,B13&lt;=損失曲線・データ入力!$T$10,I13=0),VLOOKUP(H13,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B13,B13&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H13,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="G13" s="20">
@@ -11312,11 +11311,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="20">
-        <f>VLOOKUP(PM_１!F14,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
+        <f>VLOOKUP(PM_１!F14,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F14&gt;0,VLOOKUP(H14,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="F14" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B14,B14&lt;=損失曲線・データ入力!$T$10,I14=0),VLOOKUP(H14,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B14,B14&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H14,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="G14" s="20">
@@ -11352,11 +11351,11 @@
         <v>0</v>
       </c>
       <c r="E15" s="20">
-        <f>VLOOKUP(PM_１!F15,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
+        <f>VLOOKUP(PM_１!F15,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F15&gt;0,VLOOKUP(H15,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="F15" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B15,B15&lt;=損失曲線・データ入力!$T$10,I15=0),VLOOKUP(H15,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B15,B15&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H15,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="G15" s="20">
@@ -11376,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -11395,11 +11394,11 @@
         <v>0</v>
       </c>
       <c r="E16" s="20">
-        <f>VLOOKUP(PM_１!F16,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
+        <f>VLOOKUP(PM_１!F16,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F16&gt;0,VLOOKUP(H16,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="F16" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B16,B16&lt;=損失曲線・データ入力!$T$10,I16=0),VLOOKUP(H16,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B16,B16&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H16,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="G16" s="20">
@@ -11419,7 +11418,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
@@ -11438,11 +11437,11 @@
         <v>0</v>
       </c>
       <c r="E17" s="20">
-        <f>VLOOKUP(PM_１!F17,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
+        <f>VLOOKUP(PM_１!F17,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F17&gt;0,VLOOKUP(H17,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="F17" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B17,B17&lt;=損失曲線・データ入力!$T$10,I17=0),VLOOKUP(H17,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B17,B17&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H17,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="G17" s="20">
@@ -11478,11 +11477,11 @@
         <v>0</v>
       </c>
       <c r="E18" s="20">
-        <f>VLOOKUP(PM_１!F18,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
+        <f>VLOOKUP(PM_１!F18,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F18&gt;0,VLOOKUP(H18,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="F18" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B18,B18&lt;=損失曲線・データ入力!$T$10,I18=0),VLOOKUP(H18,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B18,B18&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H18,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="G18" s="20">
@@ -11511,18 +11510,18 @@
       </c>
       <c r="C19" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-713.11722936886099</v>
       </c>
       <c r="D19" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-713.11722936886099</v>
       </c>
       <c r="E19" s="20">
-        <f>VLOOKUP(PM_１!F19,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F19,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F19&gt;0,VLOOKUP(H19,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>713.11722936886099</v>
       </c>
       <c r="F19" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B19,B19&lt;=損失曲線・データ入力!$T$10,I19=0),VLOOKUP(H19,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B19,B19&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H19,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G19" s="20">
@@ -11551,18 +11550,18 @@
       </c>
       <c r="C20" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-713.11722936886099</v>
       </c>
       <c r="D20" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-713.11722936886099</v>
       </c>
       <c r="E20" s="20">
-        <f>VLOOKUP(PM_１!F20,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F20,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F20&gt;0,VLOOKUP(H20,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>713.11722936886099</v>
       </c>
       <c r="F20" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B20,B20&lt;=損失曲線・データ入力!$T$10,I20=0),VLOOKUP(H20,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B20,B20&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H20,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G20" s="20">
@@ -11591,18 +11590,18 @@
       </c>
       <c r="C21" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-713.11722936886099</v>
       </c>
       <c r="D21" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-713.11722936886099</v>
       </c>
       <c r="E21" s="20">
-        <f>VLOOKUP(PM_１!F21,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F21,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F21&gt;0,VLOOKUP(H21,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>713.11722936886099</v>
       </c>
       <c r="F21" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B21,B21&lt;=損失曲線・データ入力!$T$10,I21=0),VLOOKUP(H21,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B21,B21&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H21,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G21" s="20">
@@ -11631,18 +11630,18 @@
       </c>
       <c r="C22" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-713.11722936886099</v>
       </c>
       <c r="D22" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-713.11722936886099</v>
       </c>
       <c r="E22" s="20">
-        <f>VLOOKUP(PM_１!F22,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F22,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F22&gt;0,VLOOKUP(H22,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>713.11722936886099</v>
       </c>
       <c r="F22" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B22,B22&lt;=損失曲線・データ入力!$T$10,I22=0),VLOOKUP(H22,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B22,B22&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H22,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G22" s="20">
@@ -11671,18 +11670,18 @@
       </c>
       <c r="C23" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-713.11722936886099</v>
       </c>
       <c r="D23" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-713.11722936886099</v>
       </c>
       <c r="E23" s="20">
-        <f>VLOOKUP(PM_１!F23,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F23,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F23&gt;0,VLOOKUP(H23,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>713.11722936886099</v>
       </c>
       <c r="F23" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B23,B23&lt;=損失曲線・データ入力!$T$10,I23=0),VLOOKUP(H23,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B23,B23&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H23,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G23" s="20">
@@ -11711,18 +11710,18 @@
       </c>
       <c r="C24" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-713.11722936886099</v>
       </c>
       <c r="D24" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-713.11722936886099</v>
       </c>
       <c r="E24" s="20">
-        <f>VLOOKUP(PM_１!F24,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F24,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F24&gt;0,VLOOKUP(H24,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>713.11722936886099</v>
       </c>
       <c r="F24" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B24,B24&lt;=損失曲線・データ入力!$T$10,I24=0),VLOOKUP(H24,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B24,B24&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H24,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G24" s="20">
@@ -11751,18 +11750,18 @@
       </c>
       <c r="C25" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-713.11722936886099</v>
       </c>
       <c r="D25" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-713.11722936886099</v>
       </c>
       <c r="E25" s="20">
-        <f>VLOOKUP(PM_１!F25,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F25,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F25&gt;0,VLOOKUP(H25,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>713.11722936886099</v>
       </c>
       <c r="F25" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B25,B25&lt;=損失曲線・データ入力!$T$10,I25=0),VLOOKUP(H25,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B25,B25&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H25,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G25" s="20">
@@ -11791,18 +11790,18 @@
       </c>
       <c r="C26" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-713.11722936886099</v>
       </c>
       <c r="D26" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-713.11722936886099</v>
       </c>
       <c r="E26" s="20">
-        <f>VLOOKUP(PM_１!F26,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F26,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F26&gt;0,VLOOKUP(H26,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>713.11722936886099</v>
       </c>
       <c r="F26" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B26,B26&lt;=損失曲線・データ入力!$T$10,I26=0),VLOOKUP(H26,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B26,B26&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H26,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G26" s="20">
@@ -11831,18 +11830,18 @@
       </c>
       <c r="C27" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-713.11722936886099</v>
       </c>
       <c r="D27" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-713.11722936886099</v>
       </c>
       <c r="E27" s="20">
-        <f>VLOOKUP(PM_１!F27,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F27,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F27&gt;0,VLOOKUP(H27,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>713.11722936886099</v>
       </c>
       <c r="F27" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B27,B27&lt;=損失曲線・データ入力!$T$10,I27=0),VLOOKUP(H27,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B27,B27&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H27,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G27" s="20">
@@ -11871,18 +11870,18 @@
       </c>
       <c r="C28" s="26">
         <f t="shared" si="0"/>
-        <v>-523.6009579884186</v>
+        <v>-531.77316632175189</v>
       </c>
       <c r="D28" s="25">
         <f t="shared" si="1"/>
-        <v>-523.6009579884186</v>
+        <v>-531.77316632175189</v>
       </c>
       <c r="E28" s="20">
-        <f>VLOOKUP(PM_１!F28,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>523.6009579884186</v>
+        <f>VLOOKUP(PM_１!F28,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F28&gt;0,VLOOKUP(H28,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>531.77316632175189</v>
       </c>
       <c r="F28" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B28,B28&lt;=損失曲線・データ入力!$T$10,I28=0),VLOOKUP(H28,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B28,B28&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H28,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>60</v>
       </c>
       <c r="G28" s="20">
@@ -11911,18 +11910,18 @@
       </c>
       <c r="C29" s="26">
         <f t="shared" si="0"/>
-        <v>-523.6009579884186</v>
+        <v>-531.77316632175189</v>
       </c>
       <c r="D29" s="25">
         <f t="shared" si="1"/>
-        <v>-523.6009579884186</v>
+        <v>-531.77316632175189</v>
       </c>
       <c r="E29" s="20">
-        <f>VLOOKUP(PM_１!F29,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>523.6009579884186</v>
+        <f>VLOOKUP(PM_１!F29,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F29&gt;0,VLOOKUP(H29,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>531.77316632175189</v>
       </c>
       <c r="F29" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B29,B29&lt;=損失曲線・データ入力!$T$10,I29=0),VLOOKUP(H29,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B29,B29&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H29,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>60</v>
       </c>
       <c r="G29" s="20">
@@ -11951,18 +11950,18 @@
       </c>
       <c r="C30" s="26">
         <f t="shared" si="0"/>
-        <v>-523.6009579884186</v>
+        <v>-531.77316632175189</v>
       </c>
       <c r="D30" s="25">
         <f t="shared" si="1"/>
-        <v>-523.6009579884186</v>
+        <v>-531.77316632175189</v>
       </c>
       <c r="E30" s="20">
-        <f>VLOOKUP(PM_１!F30,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>523.6009579884186</v>
+        <f>VLOOKUP(PM_１!F30,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F30&gt;0,VLOOKUP(H30,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>531.77316632175189</v>
       </c>
       <c r="F30" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B30,B30&lt;=損失曲線・データ入力!$T$10,I30=0),VLOOKUP(H30,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B30,B30&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H30,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>60</v>
       </c>
       <c r="G30" s="20">
@@ -11991,18 +11990,18 @@
       </c>
       <c r="C31" s="26">
         <f t="shared" si="0"/>
-        <v>-523.6009579884186</v>
+        <v>-531.77316632175189</v>
       </c>
       <c r="D31" s="25">
         <f t="shared" si="1"/>
-        <v>-523.6009579884186</v>
+        <v>-531.77316632175189</v>
       </c>
       <c r="E31" s="20">
-        <f>VLOOKUP(PM_１!F31,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>523.6009579884186</v>
+        <f>VLOOKUP(PM_１!F31,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F31&gt;0,VLOOKUP(H31,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>531.77316632175189</v>
       </c>
       <c r="F31" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B31,B31&lt;=損失曲線・データ入力!$T$10,I31=0),VLOOKUP(H31,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B31,B31&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H31,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>60</v>
       </c>
       <c r="G31" s="20">
@@ -12031,18 +12030,18 @@
       </c>
       <c r="C32" s="26">
         <f t="shared" si="0"/>
-        <v>-523.6009579884186</v>
+        <v>-531.77316632175189</v>
       </c>
       <c r="D32" s="25">
         <f t="shared" si="1"/>
-        <v>-523.6009579884186</v>
+        <v>-531.77316632175189</v>
       </c>
       <c r="E32" s="20">
-        <f>VLOOKUP(PM_１!F32,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>523.6009579884186</v>
+        <f>VLOOKUP(PM_１!F32,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F32&gt;0,VLOOKUP(H32,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>531.77316632175189</v>
       </c>
       <c r="F32" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B32,B32&lt;=損失曲線・データ入力!$T$10,I32=0),VLOOKUP(H32,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B32,B32&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H32,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>60</v>
       </c>
       <c r="G32" s="20">
@@ -12071,18 +12070,18 @@
       </c>
       <c r="C33" s="26">
         <f t="shared" si="0"/>
-        <v>-523.6009579884186</v>
+        <v>-531.77316632175189</v>
       </c>
       <c r="D33" s="25">
         <f t="shared" si="1"/>
-        <v>-523.6009579884186</v>
+        <v>-531.77316632175189</v>
       </c>
       <c r="E33" s="20">
-        <f>VLOOKUP(PM_１!F33,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>523.6009579884186</v>
+        <f>VLOOKUP(PM_１!F33,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F33&gt;0,VLOOKUP(H33,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>531.77316632175189</v>
       </c>
       <c r="F33" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B33,B33&lt;=損失曲線・データ入力!$T$10,I33=0),VLOOKUP(H33,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B33,B33&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H33,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>60</v>
       </c>
       <c r="G33" s="20">
@@ -12111,18 +12110,18 @@
       </c>
       <c r="C34" s="26">
         <f t="shared" si="0"/>
-        <v>-523.6009579884186</v>
+        <v>-531.77316632175189</v>
       </c>
       <c r="D34" s="25">
         <f t="shared" si="1"/>
-        <v>-523.6009579884186</v>
+        <v>-531.77316632175189</v>
       </c>
       <c r="E34" s="20">
-        <f>VLOOKUP(PM_１!F34,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>523.6009579884186</v>
+        <f>VLOOKUP(PM_１!F34,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F34&gt;0,VLOOKUP(H34,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>531.77316632175189</v>
       </c>
       <c r="F34" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B34,B34&lt;=損失曲線・データ入力!$T$10,I34=0),VLOOKUP(H34,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B34,B34&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H34,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>60</v>
       </c>
       <c r="G34" s="20">
@@ -12151,18 +12150,18 @@
       </c>
       <c r="C35" s="26">
         <f t="shared" si="0"/>
-        <v>-523.6009579884186</v>
+        <v>-531.77316632175189</v>
       </c>
       <c r="D35" s="25">
         <f t="shared" si="1"/>
-        <v>-523.6009579884186</v>
+        <v>-531.77316632175189</v>
       </c>
       <c r="E35" s="20">
-        <f>VLOOKUP(PM_１!F35,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>523.6009579884186</v>
+        <f>VLOOKUP(PM_１!F35,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F35&gt;0,VLOOKUP(H35,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>531.77316632175189</v>
       </c>
       <c r="F35" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B35,B35&lt;=損失曲線・データ入力!$T$10,I35=0),VLOOKUP(H35,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B35,B35&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H35,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>60</v>
       </c>
       <c r="G35" s="20">
@@ -12191,18 +12190,18 @@
       </c>
       <c r="C36" s="26">
         <f t="shared" si="0"/>
-        <v>-523.6009579884186</v>
+        <v>-531.77316632175189</v>
       </c>
       <c r="D36" s="25">
         <f t="shared" si="1"/>
-        <v>-523.6009579884186</v>
+        <v>-531.77316632175189</v>
       </c>
       <c r="E36" s="20">
-        <f>VLOOKUP(PM_１!F36,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>523.6009579884186</v>
+        <f>VLOOKUP(PM_１!F36,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F36&gt;0,VLOOKUP(H36,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>531.77316632175189</v>
       </c>
       <c r="F36" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B36,B36&lt;=損失曲線・データ入力!$T$10,I36=0),VLOOKUP(H36,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B36,B36&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H36,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>60</v>
       </c>
       <c r="G36" s="20">
@@ -12231,18 +12230,18 @@
       </c>
       <c r="C37" s="26">
         <f t="shared" si="0"/>
-        <v>-523.6009579884186</v>
+        <v>-531.77316632175189</v>
       </c>
       <c r="D37" s="25">
         <f t="shared" si="1"/>
-        <v>-523.6009579884186</v>
+        <v>-531.77316632175189</v>
       </c>
       <c r="E37" s="20">
-        <f>VLOOKUP(PM_１!F37,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>523.6009579884186</v>
+        <f>VLOOKUP(PM_１!F37,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F37&gt;0,VLOOKUP(H37,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>531.77316632175189</v>
       </c>
       <c r="F37" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B37,B37&lt;=損失曲線・データ入力!$T$10,I37=0),VLOOKUP(H37,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B37,B37&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H37,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>60</v>
       </c>
       <c r="G37" s="20">
@@ -12271,18 +12270,18 @@
       </c>
       <c r="C38" s="26">
         <f t="shared" si="0"/>
-        <v>-609.26354010582406</v>
+        <v>-627.04255891843786</v>
       </c>
       <c r="D38" s="25">
         <f t="shared" si="1"/>
-        <v>-609.26354010582406</v>
+        <v>-627.04255891843786</v>
       </c>
       <c r="E38" s="20">
-        <f>VLOOKUP(PM_１!F38,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>609.26354010582406</v>
+        <f>VLOOKUP(PM_１!F38,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F38&gt;0,VLOOKUP(H38,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>627.04255891843786</v>
       </c>
       <c r="F38" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B38,B38&lt;=損失曲線・データ入力!$T$10,I38=0),VLOOKUP(H38,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B38,B38&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H38,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>65</v>
       </c>
       <c r="G38" s="20">
@@ -12311,18 +12310,18 @@
       </c>
       <c r="C39" s="26">
         <f t="shared" si="0"/>
-        <v>-609.26354010582406</v>
+        <v>-627.04255891843786</v>
       </c>
       <c r="D39" s="25">
         <f t="shared" si="1"/>
-        <v>-609.26354010582406</v>
+        <v>-627.04255891843786</v>
       </c>
       <c r="E39" s="20">
-        <f>VLOOKUP(PM_１!F39,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>609.26354010582406</v>
+        <f>VLOOKUP(PM_１!F39,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F39&gt;0,VLOOKUP(H39,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>627.04255891843786</v>
       </c>
       <c r="F39" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B39,B39&lt;=損失曲線・データ入力!$T$10,I39=0),VLOOKUP(H39,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B39,B39&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H39,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>65</v>
       </c>
       <c r="G39" s="20">
@@ -12351,18 +12350,18 @@
       </c>
       <c r="C40" s="26">
         <f t="shared" si="0"/>
-        <v>-609.26354010582406</v>
+        <v>-627.04255891843786</v>
       </c>
       <c r="D40" s="25">
         <f t="shared" si="1"/>
-        <v>-609.26354010582406</v>
+        <v>-627.04255891843786</v>
       </c>
       <c r="E40" s="20">
-        <f>VLOOKUP(PM_１!F40,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>609.26354010582406</v>
+        <f>VLOOKUP(PM_１!F40,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F40&gt;0,VLOOKUP(H40,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>627.04255891843786</v>
       </c>
       <c r="F40" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B40,B40&lt;=損失曲線・データ入力!$T$10,I40=0),VLOOKUP(H40,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B40,B40&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H40,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>65</v>
       </c>
       <c r="G40" s="20">
@@ -12391,18 +12390,18 @@
       </c>
       <c r="C41" s="26">
         <f t="shared" si="0"/>
-        <v>-609.26354010582406</v>
+        <v>-627.04255891843786</v>
       </c>
       <c r="D41" s="25">
         <f t="shared" si="1"/>
-        <v>-609.26354010582406</v>
+        <v>-627.04255891843786</v>
       </c>
       <c r="E41" s="20">
-        <f>VLOOKUP(PM_１!F41,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>609.26354010582406</v>
+        <f>VLOOKUP(PM_１!F41,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F41&gt;0,VLOOKUP(H41,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>627.04255891843786</v>
       </c>
       <c r="F41" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B41,B41&lt;=損失曲線・データ入力!$T$10,I41=0),VLOOKUP(H41,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B41,B41&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H41,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>65</v>
       </c>
       <c r="G41" s="20">
@@ -12431,18 +12430,18 @@
       </c>
       <c r="C42" s="26">
         <f t="shared" si="0"/>
-        <v>-609.26354010582406</v>
+        <v>-627.04255891843786</v>
       </c>
       <c r="D42" s="25">
         <f t="shared" si="1"/>
-        <v>-609.26354010582406</v>
+        <v>-627.04255891843786</v>
       </c>
       <c r="E42" s="20">
-        <f>VLOOKUP(PM_１!F42,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>609.26354010582406</v>
+        <f>VLOOKUP(PM_１!F42,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F42&gt;0,VLOOKUP(H42,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>627.04255891843786</v>
       </c>
       <c r="F42" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B42,B42&lt;=損失曲線・データ入力!$T$10,I42=0),VLOOKUP(H42,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B42,B42&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H42,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>65</v>
       </c>
       <c r="G42" s="20">
@@ -12471,18 +12470,18 @@
       </c>
       <c r="C43" s="26">
         <f t="shared" si="0"/>
-        <v>-609.26354010582406</v>
+        <v>-627.04255891843786</v>
       </c>
       <c r="D43" s="25">
         <f t="shared" si="1"/>
-        <v>-609.26354010582406</v>
+        <v>-627.04255891843786</v>
       </c>
       <c r="E43" s="20">
-        <f>VLOOKUP(PM_１!F43,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>609.26354010582406</v>
+        <f>VLOOKUP(PM_１!F43,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F43&gt;0,VLOOKUP(H43,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>627.04255891843786</v>
       </c>
       <c r="F43" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B43,B43&lt;=損失曲線・データ入力!$T$10,I43=0),VLOOKUP(H43,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B43,B43&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H43,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>65</v>
       </c>
       <c r="G43" s="20">
@@ -12511,18 +12510,18 @@
       </c>
       <c r="C44" s="26">
         <f t="shared" si="0"/>
-        <v>-609.26354010582406</v>
+        <v>-627.04255891843786</v>
       </c>
       <c r="D44" s="25">
         <f t="shared" si="1"/>
-        <v>-609.26354010582406</v>
+        <v>-627.04255891843786</v>
       </c>
       <c r="E44" s="20">
-        <f>VLOOKUP(PM_１!F44,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>609.26354010582406</v>
+        <f>VLOOKUP(PM_１!F44,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F44&gt;0,VLOOKUP(H44,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>627.04255891843786</v>
       </c>
       <c r="F44" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B44,B44&lt;=損失曲線・データ入力!$T$10,I44=0),VLOOKUP(H44,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B44,B44&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H44,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>65</v>
       </c>
       <c r="G44" s="20">
@@ -12551,18 +12550,18 @@
       </c>
       <c r="C45" s="26">
         <f t="shared" si="0"/>
-        <v>-609.26354010582406</v>
+        <v>-627.04255891843786</v>
       </c>
       <c r="D45" s="25">
         <f t="shared" si="1"/>
-        <v>-609.26354010582406</v>
+        <v>-627.04255891843786</v>
       </c>
       <c r="E45" s="20">
-        <f>VLOOKUP(PM_１!F45,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>609.26354010582406</v>
+        <f>VLOOKUP(PM_１!F45,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F45&gt;0,VLOOKUP(H45,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>627.04255891843786</v>
       </c>
       <c r="F45" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B45,B45&lt;=損失曲線・データ入力!$T$10,I45=0),VLOOKUP(H45,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B45,B45&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H45,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>65</v>
       </c>
       <c r="G45" s="20">
@@ -12591,18 +12590,18 @@
       </c>
       <c r="C46" s="26">
         <f t="shared" si="0"/>
-        <v>-609.26354010582406</v>
+        <v>-627.04255891843786</v>
       </c>
       <c r="D46" s="25">
         <f t="shared" si="1"/>
-        <v>-609.26354010582406</v>
+        <v>-627.04255891843786</v>
       </c>
       <c r="E46" s="20">
-        <f>VLOOKUP(PM_１!F46,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>609.26354010582406</v>
+        <f>VLOOKUP(PM_１!F46,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F46&gt;0,VLOOKUP(H46,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>627.04255891843786</v>
       </c>
       <c r="F46" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B46,B46&lt;=損失曲線・データ入力!$T$10,I46=0),VLOOKUP(H46,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B46,B46&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H46,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>65</v>
       </c>
       <c r="G46" s="20">
@@ -12631,18 +12630,18 @@
       </c>
       <c r="C47" s="26">
         <f t="shared" si="0"/>
-        <v>-609.26354010582406</v>
+        <v>-627.04255891843786</v>
       </c>
       <c r="D47" s="25">
         <f t="shared" si="1"/>
-        <v>-609.26354010582406</v>
+        <v>-627.04255891843786</v>
       </c>
       <c r="E47" s="20">
-        <f>VLOOKUP(PM_１!F47,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>609.26354010582406</v>
+        <f>VLOOKUP(PM_１!F47,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F47&gt;0,VLOOKUP(H47,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>627.04255891843786</v>
       </c>
       <c r="F47" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B47,B47&lt;=損失曲線・データ入力!$T$10,I47=0),VLOOKUP(H47,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B47,B47&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H47,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>65</v>
       </c>
       <c r="G47" s="20">
@@ -12671,18 +12670,18 @@
       </c>
       <c r="C48" s="26">
         <f t="shared" si="0"/>
-        <v>-609.26354010582406</v>
+        <v>-627.04255891843786</v>
       </c>
       <c r="D48" s="25">
         <f t="shared" si="1"/>
-        <v>-609.26354010582406</v>
+        <v>-627.04255891843786</v>
       </c>
       <c r="E48" s="20">
-        <f>VLOOKUP(PM_１!F48,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>609.26354010582406</v>
+        <f>VLOOKUP(PM_１!F48,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F48&gt;0,VLOOKUP(H48,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>627.04255891843786</v>
       </c>
       <c r="F48" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B48,B48&lt;=損失曲線・データ入力!$T$10,I48=0),VLOOKUP(H48,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B48,B48&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H48,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>65</v>
       </c>
       <c r="G48" s="20">
@@ -12711,19 +12710,19 @@
       </c>
       <c r="C49" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-711.73598646465871</v>
       </c>
       <c r="D49" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-711.73598646465871</v>
       </c>
       <c r="E49" s="20">
-        <f>VLOOKUP(PM_１!F49,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>0</v>
+        <f>VLOOKUP(PM_１!F49,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F49&gt;0,VLOOKUP(H49,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>711.73598646465871</v>
       </c>
       <c r="F49" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B49,B49&lt;=損失曲線・データ入力!$T$10,I49=0),VLOOKUP(H49,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
-        <v>0</v>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B49,B49&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H49,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <v>70</v>
       </c>
       <c r="G49" s="20">
         <f t="shared" si="3"/>
@@ -12751,23 +12750,23 @@
       </c>
       <c r="C50" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-711.73598646465871</v>
       </c>
       <c r="D50" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-711.73598646465871</v>
       </c>
       <c r="E50" s="20">
-        <f>VLOOKUP(PM_１!F50,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>0</v>
+        <f>VLOOKUP(PM_１!F50,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F50&gt;0,VLOOKUP(H50,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>711.73598646465871</v>
       </c>
       <c r="F50" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B50,B50&lt;=損失曲線・データ入力!$T$10,I50=0),VLOOKUP(H50,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
-        <v>0</v>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B50,B50&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H50,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <v>70</v>
       </c>
       <c r="G50" s="20">
         <f t="shared" si="3"/>
-        <v>324.16666670440463</v>
+        <v>335.83333337242948</v>
       </c>
       <c r="H50" s="15">
         <f>VLOOKUP(G50,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
@@ -12791,23 +12790,23 @@
       </c>
       <c r="C51" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-711.73598646465871</v>
       </c>
       <c r="D51" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-711.73598646465871</v>
       </c>
       <c r="E51" s="20">
-        <f>VLOOKUP(PM_１!F51,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>0</v>
+        <f>VLOOKUP(PM_１!F51,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F51&gt;0,VLOOKUP(H51,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>711.73598646465871</v>
       </c>
       <c r="F51" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B51,B51&lt;=損失曲線・データ入力!$T$10,I51=0),VLOOKUP(H51,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
-        <v>0</v>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B51,B51&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H51,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <v>70</v>
       </c>
       <c r="G51" s="20">
         <f t="shared" si="3"/>
-        <v>324.16666670440463</v>
+        <v>347.50000004045432</v>
       </c>
       <c r="H51" s="15">
         <f>VLOOKUP(G51,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
@@ -12831,23 +12830,23 @@
       </c>
       <c r="C52" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-711.73598646465871</v>
       </c>
       <c r="D52" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-711.73598646465871</v>
       </c>
       <c r="E52" s="20">
-        <f>VLOOKUP(PM_１!F52,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F52,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F52&gt;0,VLOOKUP(H52,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>711.73598646465871</v>
       </c>
       <c r="F52" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B52,B52&lt;=損失曲線・データ入力!$T$10,I52=0),VLOOKUP(H52,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B52,B52&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H52,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G52" s="20">
         <f t="shared" si="3"/>
-        <v>324.16666670440463</v>
+        <v>359.16666670847917</v>
       </c>
       <c r="H52" s="15">
         <f>VLOOKUP(G52,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
@@ -12871,23 +12870,23 @@
       </c>
       <c r="C53" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-711.73598646465871</v>
       </c>
       <c r="D53" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-711.73598646465871</v>
       </c>
       <c r="E53" s="20">
-        <f>VLOOKUP(PM_１!F53,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F53,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F53&gt;0,VLOOKUP(H53,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>711.73598646465871</v>
       </c>
       <c r="F53" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B53,B53&lt;=損失曲線・データ入力!$T$10,I53=0),VLOOKUP(H53,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B53,B53&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H53,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G53" s="20">
         <f t="shared" si="3"/>
-        <v>335.83333337242948</v>
+        <v>370.83333337650402</v>
       </c>
       <c r="H53" s="15">
         <f>VLOOKUP(G53,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
@@ -12911,23 +12910,23 @@
       </c>
       <c r="C54" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-711.73598646465871</v>
       </c>
       <c r="D54" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-711.73598646465871</v>
       </c>
       <c r="E54" s="20">
-        <f>VLOOKUP(PM_１!F54,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F54,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F54&gt;0,VLOOKUP(H54,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>711.73598646465871</v>
       </c>
       <c r="F54" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B54,B54&lt;=損失曲線・データ入力!$T$10,I54=0),VLOOKUP(H54,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B54,B54&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H54,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G54" s="20">
         <f t="shared" si="3"/>
-        <v>347.50000004045432</v>
+        <v>382.50000004452886</v>
       </c>
       <c r="H54" s="15">
         <f>VLOOKUP(G54,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
@@ -12951,23 +12950,23 @@
       </c>
       <c r="C55" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-711.73598646465871</v>
       </c>
       <c r="D55" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-711.73598646465871</v>
       </c>
       <c r="E55" s="20">
-        <f>VLOOKUP(PM_１!F55,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F55,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F55&gt;0,VLOOKUP(H55,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>711.73598646465871</v>
       </c>
       <c r="F55" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B55,B55&lt;=損失曲線・データ入力!$T$10,I55=0),VLOOKUP(H55,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B55,B55&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H55,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G55" s="20">
         <f t="shared" si="3"/>
-        <v>359.16666670847917</v>
+        <v>394.16666671255371</v>
       </c>
       <c r="H55" s="15">
         <f>VLOOKUP(G55,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
@@ -12991,27 +12990,27 @@
       </c>
       <c r="C56" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-714.54736582719431</v>
       </c>
       <c r="D56" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-714.54736582719431</v>
       </c>
       <c r="E56" s="20">
-        <f>VLOOKUP(PM_１!F56,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F56,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F56&gt;0,VLOOKUP(H56,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>714.54736582719431</v>
       </c>
       <c r="F56" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B56,B56&lt;=損失曲線・データ入力!$T$10,I56=0),VLOOKUP(H56,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B56,B56&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H56,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G56" s="20">
         <f t="shared" si="3"/>
-        <v>370.83333337650402</v>
+        <v>405.83333338057855</v>
       </c>
       <c r="H56" s="15">
         <f>VLOOKUP(G56,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I56" s="20">
         <f>IF(I55&gt;0,I55-10,IF(J55=VLOOKUP(H56-1,損失曲線・データ入力!$I$11:$Q$41,9,TRUE),I55,VLOOKUP(H56-1,損失曲線・データ入力!$I$11:$P$41,8,TRUE)))</f>
@@ -13031,27 +13030,27 @@
       </c>
       <c r="C57" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-714.54736582719431</v>
       </c>
       <c r="D57" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-714.54736582719431</v>
       </c>
       <c r="E57" s="20">
-        <f>VLOOKUP(PM_１!F57,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F57,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F57&gt;0,VLOOKUP(H57,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>714.54736582719431</v>
       </c>
       <c r="F57" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B57,B57&lt;=損失曲線・データ入力!$T$10,I57=0),VLOOKUP(H57,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B57,B57&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H57,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G57" s="20">
         <f t="shared" si="3"/>
-        <v>382.50000004452886</v>
+        <v>417.5000000486034</v>
       </c>
       <c r="H57" s="15">
         <f>VLOOKUP(G57,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I57" s="20">
         <f>IF(I56&gt;0,I56-10,IF(J56=VLOOKUP(H57-1,損失曲線・データ入力!$I$11:$Q$41,9,TRUE),I56,VLOOKUP(H57-1,損失曲線・データ入力!$I$11:$P$41,8,TRUE)))</f>
@@ -13071,27 +13070,27 @@
       </c>
       <c r="C58" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-714.54736582719431</v>
       </c>
       <c r="D58" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-714.54736582719431</v>
       </c>
       <c r="E58" s="20">
-        <f>VLOOKUP(PM_１!F58,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F58,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F58&gt;0,VLOOKUP(H58,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>714.54736582719431</v>
       </c>
       <c r="F58" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B58,B58&lt;=損失曲線・データ入力!$T$10,I58=0),VLOOKUP(H58,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B58,B58&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H58,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G58" s="20">
         <f t="shared" si="3"/>
-        <v>394.16666671255371</v>
+        <v>429.16666671662824</v>
       </c>
       <c r="H58" s="15">
         <f>VLOOKUP(G58,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I58" s="20">
         <f>IF(I57&gt;0,I57-10,IF(J57=VLOOKUP(H58-1,損失曲線・データ入力!$I$11:$Q$41,9,TRUE),I57,VLOOKUP(H58-1,損失曲線・データ入力!$I$11:$P$41,8,TRUE)))</f>
@@ -13111,23 +13110,23 @@
       </c>
       <c r="C59" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-714.54736582719431</v>
       </c>
       <c r="D59" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-714.54736582719431</v>
       </c>
       <c r="E59" s="20">
-        <f>VLOOKUP(PM_１!F59,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F59,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F59&gt;0,VLOOKUP(H59,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>714.54736582719431</v>
       </c>
       <c r="F59" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B59,B59&lt;=損失曲線・データ入力!$T$10,I59=0),VLOOKUP(H59,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B59,B59&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H59,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G59" s="20">
         <f t="shared" si="3"/>
-        <v>405.83333338057855</v>
+        <v>440.83333338465309</v>
       </c>
       <c r="H59" s="15">
         <f>VLOOKUP(G59,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
@@ -13151,23 +13150,23 @@
       </c>
       <c r="C60" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-714.54736582719431</v>
       </c>
       <c r="D60" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-714.54736582719431</v>
       </c>
       <c r="E60" s="20">
-        <f>VLOOKUP(PM_１!F60,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F60,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F60&gt;0,VLOOKUP(H60,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>714.54736582719431</v>
       </c>
       <c r="F60" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B60,B60&lt;=損失曲線・データ入力!$T$10,I60=0),VLOOKUP(H60,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B60,B60&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H60,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G60" s="20">
         <f t="shared" si="3"/>
-        <v>417.5000000486034</v>
+        <v>452.50000005267793</v>
       </c>
       <c r="H60" s="15">
         <f>VLOOKUP(G60,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
@@ -13191,23 +13190,23 @@
       </c>
       <c r="C61" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-714.54736582719431</v>
       </c>
       <c r="D61" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-714.54736582719431</v>
       </c>
       <c r="E61" s="20">
-        <f>VLOOKUP(PM_１!F61,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F61,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F61&gt;0,VLOOKUP(H61,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>714.54736582719431</v>
       </c>
       <c r="F61" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B61,B61&lt;=損失曲線・データ入力!$T$10,I61=0),VLOOKUP(H61,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B61,B61&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H61,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G61" s="20">
         <f t="shared" si="3"/>
-        <v>429.16666671662824</v>
+        <v>464.16666672070278</v>
       </c>
       <c r="H61" s="15">
         <f>VLOOKUP(G61,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
@@ -13231,23 +13230,23 @@
       </c>
       <c r="C62" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-714.54736582719431</v>
       </c>
       <c r="D62" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-714.54736582719431</v>
       </c>
       <c r="E62" s="20">
-        <f>VLOOKUP(PM_１!F62,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F62,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F62&gt;0,VLOOKUP(H62,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>714.54736582719431</v>
       </c>
       <c r="F62" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B62,B62&lt;=損失曲線・データ入力!$T$10,I62=0),VLOOKUP(H62,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B62,B62&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H62,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G62" s="20">
         <f t="shared" si="3"/>
-        <v>440.83333338465309</v>
+        <v>475.83333338872762</v>
       </c>
       <c r="H62" s="15">
         <f>VLOOKUP(G62,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
@@ -13271,23 +13270,23 @@
       </c>
       <c r="C63" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-714.54736582719431</v>
       </c>
       <c r="D63" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-714.54736582719431</v>
       </c>
       <c r="E63" s="20">
-        <f>VLOOKUP(PM_１!F63,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F63,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F63&gt;0,VLOOKUP(H63,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>714.54736582719431</v>
       </c>
       <c r="F63" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B63,B63&lt;=損失曲線・データ入力!$T$10,I63=0),VLOOKUP(H63,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B63,B63&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H63,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G63" s="20">
         <f t="shared" si="3"/>
-        <v>452.50000005267793</v>
+        <v>487.50000005675247</v>
       </c>
       <c r="H63" s="15">
         <f>VLOOKUP(G63,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
@@ -13311,23 +13310,23 @@
       </c>
       <c r="C64" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-714.54736582719431</v>
       </c>
       <c r="D64" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-714.54736582719431</v>
       </c>
       <c r="E64" s="20">
-        <f>VLOOKUP(PM_１!F64,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F64,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F64&gt;0,VLOOKUP(H64,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>714.54736582719431</v>
       </c>
       <c r="F64" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B64,B64&lt;=損失曲線・データ入力!$T$10,I64=0),VLOOKUP(H64,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B64,B64&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H64,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G64" s="20">
         <f t="shared" si="3"/>
-        <v>464.16666672070278</v>
+        <v>499.16666672477731</v>
       </c>
       <c r="H64" s="15">
         <f>VLOOKUP(G64,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
@@ -13351,27 +13350,27 @@
       </c>
       <c r="C65" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-740.76653422997208</v>
       </c>
       <c r="D65" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-740.76653422997208</v>
       </c>
       <c r="E65" s="20">
-        <f>VLOOKUP(PM_１!F65,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F65,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F65&gt;0,VLOOKUP(H65,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>740.76653422997208</v>
       </c>
       <c r="F65" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B65,B65&lt;=損失曲線・データ入力!$T$10,I65=0),VLOOKUP(H65,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B65,B65&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H65,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G65" s="20">
         <f t="shared" si="3"/>
-        <v>475.83333338872762</v>
+        <v>510.83333339280216</v>
       </c>
       <c r="H65" s="15">
         <f>VLOOKUP(G65,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I65" s="20">
         <f>IF(I64&gt;0,I64-10,IF(J64=VLOOKUP(H65-1,損失曲線・データ入力!$I$11:$Q$41,9,TRUE),I64,VLOOKUP(H65-1,損失曲線・データ入力!$I$11:$P$41,8,TRUE)))</f>
@@ -13391,27 +13390,27 @@
       </c>
       <c r="C66" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-740.76653422997208</v>
       </c>
       <c r="D66" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-740.76653422997208</v>
       </c>
       <c r="E66" s="20">
-        <f>VLOOKUP(PM_１!F66,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F66,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F66&gt;0,VLOOKUP(H66,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>740.76653422997208</v>
       </c>
       <c r="F66" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B66,B66&lt;=損失曲線・データ入力!$T$10,I66=0),VLOOKUP(H66,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B66,B66&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H66,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G66" s="20">
         <f t="shared" si="3"/>
-        <v>487.50000005675247</v>
+        <v>522.50000006082701</v>
       </c>
       <c r="H66" s="15">
         <f>VLOOKUP(G66,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I66" s="20">
         <f>IF(I65&gt;0,I65-10,IF(J65=VLOOKUP(H66-1,損失曲線・データ入力!$I$11:$Q$41,9,TRUE),I65,VLOOKUP(H66-1,損失曲線・データ入力!$I$11:$P$41,8,TRUE)))</f>
@@ -13431,27 +13430,27 @@
       </c>
       <c r="C67" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-740.76653422997208</v>
       </c>
       <c r="D67" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-740.76653422997208</v>
       </c>
       <c r="E67" s="20">
-        <f>VLOOKUP(PM_１!F67,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F67,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F67&gt;0,VLOOKUP(H67,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>740.76653422997208</v>
       </c>
       <c r="F67" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B67,B67&lt;=損失曲線・データ入力!$T$10,I67=0),VLOOKUP(H67,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B67,B67&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H67,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G67" s="20">
         <f t="shared" si="3"/>
-        <v>499.16666672477731</v>
+        <v>534.16666672885185</v>
       </c>
       <c r="H67" s="15">
         <f>VLOOKUP(G67,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I67" s="20">
         <f>IF(I66&gt;0,I66-10,IF(J66=VLOOKUP(H67-1,損失曲線・データ入力!$I$11:$Q$41,9,TRUE),I66,VLOOKUP(H67-1,損失曲線・データ入力!$I$11:$P$41,8,TRUE)))</f>
@@ -13471,23 +13470,23 @@
       </c>
       <c r="C68" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-740.76653422997208</v>
       </c>
       <c r="D68" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-740.76653422997208</v>
       </c>
       <c r="E68" s="20">
-        <f>VLOOKUP(PM_１!F68,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F68,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F68&gt;0,VLOOKUP(H68,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>740.76653422997208</v>
       </c>
       <c r="F68" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B68,B68&lt;=損失曲線・データ入力!$T$10,I68=0),VLOOKUP(H68,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B68,B68&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H68,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G68" s="20">
         <f t="shared" si="3"/>
-        <v>510.83333339280216</v>
+        <v>545.8333333968767</v>
       </c>
       <c r="H68" s="15">
         <f>VLOOKUP(G68,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
@@ -13511,23 +13510,23 @@
       </c>
       <c r="C69" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-740.76653422997208</v>
       </c>
       <c r="D69" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-740.76653422997208</v>
       </c>
       <c r="E69" s="20">
-        <f>VLOOKUP(PM_１!F69,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F69,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F69&gt;0,VLOOKUP(H69,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>740.76653422997208</v>
       </c>
       <c r="F69" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B69,B69&lt;=損失曲線・データ入力!$T$10,I69=0),VLOOKUP(H69,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B69,B69&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H69,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G69" s="20">
         <f t="shared" si="3"/>
-        <v>522.50000006082701</v>
+        <v>557.50000006490154</v>
       </c>
       <c r="H69" s="15">
         <f>VLOOKUP(G69,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
@@ -13551,23 +13550,23 @@
       </c>
       <c r="C70" s="26">
         <f t="shared" si="0"/>
-        <v>-705.01312277163879</v>
+        <v>-740.76653422997208</v>
       </c>
       <c r="D70" s="25">
         <f t="shared" si="1"/>
-        <v>-705.01312277163879</v>
+        <v>-740.76653422997208</v>
       </c>
       <c r="E70" s="20">
-        <f>VLOOKUP(PM_１!F70,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F70,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F70&gt;0,VLOOKUP(H70,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>740.76653422997208</v>
       </c>
       <c r="F70" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B70,B70&lt;=損失曲線・データ入力!$T$10,I70=0),VLOOKUP(H70,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B70,B70&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H70,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G70" s="20">
         <f t="shared" si="3"/>
-        <v>534.16666672885185</v>
+        <v>569.16666673292639</v>
       </c>
       <c r="H70" s="15">
         <f>VLOOKUP(G70,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
@@ -13591,31 +13590,31 @@
       </c>
       <c r="C71" s="26">
         <f t="shared" ref="C71:C78" si="4">-E71</f>
-        <v>-705.01312277163879</v>
+        <v>-712.95832531793508</v>
       </c>
       <c r="D71" s="25">
         <f t="shared" ref="D71:D78" si="5">-E71</f>
-        <v>-705.01312277163879</v>
+        <v>-712.95832531793508</v>
       </c>
       <c r="E71" s="20">
-        <f>VLOOKUP(PM_１!F71,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F71,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F71&gt;0,VLOOKUP(H71,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>712.95832531793508</v>
       </c>
       <c r="F71" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B71,B71&lt;=損失曲線・データ入力!$T$10,I71=0),VLOOKUP(H71,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B71,B71&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H71,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G71" s="20">
         <f t="shared" si="3"/>
-        <v>545.8333333968767</v>
+        <v>580.83333340095123</v>
       </c>
       <c r="H71" s="15">
         <f>VLOOKUP(G71,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I71" s="20">
         <f>IF(I70&gt;0,I70-10,IF(J70=VLOOKUP(H71-1,損失曲線・データ入力!$I$11:$Q$41,9,TRUE),I70,VLOOKUP(H71-1,損失曲線・データ入力!$I$11:$P$41,8,TRUE)))</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J71" s="20">
         <f t="shared" si="2"/>
@@ -13631,31 +13630,31 @@
       </c>
       <c r="C72" s="26">
         <f t="shared" si="4"/>
-        <v>-705.01312277163879</v>
+        <v>-712.95832531793508</v>
       </c>
       <c r="D72" s="25">
         <f t="shared" si="5"/>
-        <v>-705.01312277163879</v>
+        <v>-712.95832531793508</v>
       </c>
       <c r="E72" s="20">
-        <f>VLOOKUP(PM_１!F72,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
-        <v>705.01312277163879</v>
+        <f>VLOOKUP(PM_１!F72,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F72&gt;0,VLOOKUP(H72,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
+        <v>712.95832531793508</v>
       </c>
       <c r="F72" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B72,B72&lt;=損失曲線・データ入力!$T$10,I72=0),VLOOKUP(H72,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B72,B72&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H72,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>70</v>
       </c>
       <c r="G72" s="20">
         <f t="shared" ref="G72:G78" si="6">(($B$7-$B$6)*24)*F71+G71</f>
-        <v>557.50000006490154</v>
+        <v>592.50000006897608</v>
       </c>
       <c r="H72" s="15">
         <f>VLOOKUP(G72,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I72" s="20">
         <f>IF(I71&gt;0,I71-10,IF(J71=VLOOKUP(H72-1,損失曲線・データ入力!$I$11:$Q$41,9,TRUE),I71,VLOOKUP(H72-1,損失曲線・データ入力!$I$11:$P$41,8,TRUE)))</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J72" s="20">
         <f t="shared" ref="J72:J78" si="7">IF(AND(I71&gt;I72,I72=10),J71+1,J71)</f>
@@ -13678,24 +13677,24 @@
         <v>0</v>
       </c>
       <c r="E73" s="20">
-        <f>VLOOKUP(PM_１!F73,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
+        <f>VLOOKUP(PM_１!F73,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F73&gt;0,VLOOKUP(H73,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="F73" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B73,B73&lt;=損失曲線・データ入力!$T$10,I73=0),VLOOKUP(H73,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B73,B73&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H73,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="G73" s="20">
         <f t="shared" si="6"/>
-        <v>569.16666673292639</v>
+        <v>604.16666673700092</v>
       </c>
       <c r="H73" s="15">
         <f>VLOOKUP(G73,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I73" s="20">
         <f>IF(I72&gt;0,I72,IF(J72=VLOOKUP(H73-1,損失曲線・データ入力!$I$11:$Q$41,9,TRUE),I72,VLOOKUP(H73-1,損失曲線・データ入力!$I$11:$P$41,8,TRUE)))</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J73" s="20">
         <f t="shared" si="7"/>
@@ -13718,24 +13717,24 @@
         <v>0</v>
       </c>
       <c r="E74" s="20">
-        <f>VLOOKUP(PM_１!F74,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
+        <f>VLOOKUP(PM_１!F74,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F74&gt;0,VLOOKUP(H74,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="F74" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B74,B74&lt;=損失曲線・データ入力!$T$10,I74=0),VLOOKUP(H74,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B74,B74&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H74,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="G74" s="20">
         <f t="shared" si="6"/>
-        <v>569.16666673292639</v>
+        <v>604.16666673700092</v>
       </c>
       <c r="H74" s="15">
         <f>VLOOKUP(G74,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I74" s="20">
         <f>IF(I73&gt;0,I73,IF(J73=VLOOKUP(H74-1,損失曲線・データ入力!$I$11:$Q$41,9,TRUE),I73,VLOOKUP(H74-1,損失曲線・データ入力!$I$11:$P$41,8,TRUE)))</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J74" s="20">
         <f t="shared" si="7"/>
@@ -13758,24 +13757,24 @@
         <v>0</v>
       </c>
       <c r="E75" s="20">
-        <f>VLOOKUP(PM_１!F75,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
+        <f>VLOOKUP(PM_１!F75,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F75&gt;0,VLOOKUP(H75,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="F75" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B75,B75&lt;=損失曲線・データ入力!$T$10,I75=0),VLOOKUP(H75,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B75,B75&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H75,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="G75" s="20">
         <f t="shared" si="6"/>
-        <v>569.16666673292639</v>
+        <v>604.16666673700092</v>
       </c>
       <c r="H75" s="15">
         <f>VLOOKUP(G75,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I75" s="20">
         <f>IF(I74&gt;0,I74,IF(J74=VLOOKUP(H75-1,損失曲線・データ入力!$I$11:$Q$41,9,TRUE),I74,VLOOKUP(H75-1,損失曲線・データ入力!$I$11:$P$41,8,TRUE)))</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J75" s="20">
         <f t="shared" si="7"/>
@@ -13798,24 +13797,24 @@
         <v>0</v>
       </c>
       <c r="E76" s="20">
-        <f>VLOOKUP(PM_１!F76,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
+        <f>VLOOKUP(PM_１!F76,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F76&gt;0,VLOOKUP(H76,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="F76" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B76,B76&lt;=損失曲線・データ入力!$T$10,I76=0),VLOOKUP(H76,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B76,B76&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H76,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="G76" s="20">
         <f t="shared" si="6"/>
-        <v>569.16666673292639</v>
+        <v>604.16666673700092</v>
       </c>
       <c r="H76" s="15">
         <f>VLOOKUP(G76,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I76" s="20">
         <f>IF(I75&gt;0,I75,IF(J75=VLOOKUP(H76-1,損失曲線・データ入力!$I$11:$Q$41,9,TRUE),I75,VLOOKUP(H76-1,損失曲線・データ入力!$I$11:$P$41,8,TRUE)))</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J76" s="20">
         <f t="shared" si="7"/>
@@ -13838,24 +13837,24 @@
         <v>0</v>
       </c>
       <c r="E77" s="20">
-        <f>VLOOKUP(PM_１!F77,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
+        <f>VLOOKUP(PM_１!F77,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F77&gt;0,VLOOKUP(H77,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="F77" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B77,B77&lt;=損失曲線・データ入力!$T$10,I77=0),VLOOKUP(H77,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B77,B77&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H77,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="G77" s="20">
         <f t="shared" si="6"/>
-        <v>569.16666673292639</v>
+        <v>604.16666673700092</v>
       </c>
       <c r="H77" s="15">
         <f>VLOOKUP(G77,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I77" s="20">
         <f>IF(I76&gt;0,I76,IF(J76=VLOOKUP(H77-1,損失曲線・データ入力!$I$11:$Q$41,9,TRUE),I76,VLOOKUP(H77-1,損失曲線・データ入力!$I$11:$P$41,8,TRUE)))</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J77" s="20">
         <f t="shared" si="7"/>
@@ -13878,24 +13877,24 @@
         <v>0</v>
       </c>
       <c r="E78" s="20">
-        <f>VLOOKUP(PM_１!F78,損失曲線・データ入力!$A$2:$C$102,2,1)</f>
+        <f>VLOOKUP(PM_１!F78,損失曲線・データ入力!$A$2:$C$102,2,1)+IF(F78&gt;0,VLOOKUP(H78,損失曲線・データ入力!$I$11:$Q$41,6,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="F78" s="20">
-        <f>IF(AND(損失曲線・データ入力!$S$10&lt;=B78,B78&lt;=損失曲線・データ入力!$T$10,I78=0),VLOOKUP(H78,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
+        <f>IF(AND(VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,2,TRUE)&lt;=B78,B78&lt;=VLOOKUP($J$1,損失曲線・データ入力!$R$10:$T$16,3,TRUE)),VLOOKUP(H78,損失曲線・データ入力!$I$11:$O$41,4,TRUE),0)</f>
         <v>0</v>
       </c>
       <c r="G78" s="20">
         <f t="shared" si="6"/>
-        <v>569.16666673292639</v>
+        <v>604.16666673700092</v>
       </c>
       <c r="H78" s="15">
         <f>VLOOKUP(G78,損失曲線・データ入力!$J$11:$O$41,6,TRUE)+1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I78" s="20">
         <f>IF(I77&gt;0,I77,IF(J77=VLOOKUP(H78-1,損失曲線・データ入力!$I$11:$Q$41,9,TRUE),I77,VLOOKUP(H78-1,損失曲線・データ入力!$I$11:$P$41,8,TRUE)))</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J78" s="20">
         <f t="shared" si="7"/>
@@ -13947,7 +13946,6 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -15200,7 +15198,6 @@
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -16370,7 +16367,6 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -17540,7 +17536,6 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -18710,7 +18705,6 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -19877,10 +19871,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AE102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -19890,6 +19883,8 @@
     <col min="9" max="9" width="12.25" customWidth="1"/>
     <col min="13" max="13" width="11.25" customWidth="1"/>
     <col min="14" max="14" width="10.625" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.4">
@@ -19914,7 +19909,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>(0.5*$AA$3*$AE$4*(A2/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A2/3.6)*(1/$AE$8)</f>
+        <f t="shared" ref="B2:B33" si="0">(0.5*$AA$3*$AE$4*(A2/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A2/3.6)*(1/$AE$8)</f>
         <v>0</v>
       </c>
       <c r="C2">
@@ -19958,7 +19953,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>(0.5*$AA$3*$AE$4*(A3/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A3/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>5.0032862255788872</v>
       </c>
       <c r="C3">
@@ -19988,7 +19983,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f>(0.5*$AA$3*$AE$4*(A4/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A4/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>10.012779836110642</v>
       </c>
       <c r="C4">
@@ -20036,7 +20031,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f>(0.5*$AA$3*$AE$4*(A5/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A5/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>15.03468821654813</v>
       </c>
       <c r="C5">
@@ -20077,7 +20072,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f>(0.5*$AA$3*$AE$4*(A6/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A6/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>20.075218751844218</v>
       </c>
       <c r="C6">
@@ -20121,7 +20116,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f>(0.5*$AA$3*$AE$4*(A7/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A7/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>25.140578826951778</v>
       </c>
       <c r="C7">
@@ -20157,7 +20152,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <f>(0.5*$AA$3*$AE$4*(A8/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A8/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>30.236975826823667</v>
       </c>
       <c r="C8">
@@ -20170,7 +20165,7 @@
         <v>1273.0566666666666</v>
       </c>
       <c r="R8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="Z8" s="5" t="s">
         <v>19</v>
@@ -20196,7 +20191,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <f>(0.5*$AA$3*$AE$4*(A9/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A9/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>35.370617136412768</v>
       </c>
       <c r="C9">
@@ -20209,10 +20204,10 @@
         <v>1360.1941666666667</v>
       </c>
       <c r="R9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="S9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Z9" s="5" t="s">
         <v>21</v>
@@ -20232,7 +20227,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <f>(0.5*$AA$3*$AE$4*(A10/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A10/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>40.547710140671938</v>
       </c>
       <c r="C10">
@@ -20258,19 +20253,19 @@
         <v>51</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="O10" s="20"/>
       <c r="P10" t="s">
-        <v>67</v>
-      </c>
-      <c r="R10" t="s">
-        <v>57</v>
-      </c>
-      <c r="S10" s="28">
+        <v>59</v>
+      </c>
+      <c r="R10" s="34">
+        <v>1</v>
+      </c>
+      <c r="S10" s="33">
         <v>43751.340277777781</v>
       </c>
-      <c r="T10" s="28">
+      <c r="T10" s="33">
         <v>43751.708333333336</v>
       </c>
       <c r="AA10" s="10" t="s">
@@ -20283,7 +20278,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <f>(0.5*$AA$3*$AE$4*(A11/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A11/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>45.774462224554043</v>
       </c>
       <c r="C11">
@@ -20298,10 +20293,10 @@
       <c r="I11" s="19">
         <v>0</v>
       </c>
-      <c r="J11" s="21">
-        <v>0</v>
-      </c>
-      <c r="K11" s="20">
+      <c r="J11" s="36">
+        <v>0</v>
+      </c>
+      <c r="K11" s="22">
         <v>33</v>
       </c>
       <c r="L11" s="15"/>
@@ -20310,13 +20305,13 @@
       <c r="O11" s="19">
         <v>0</v>
       </c>
-      <c r="R11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S11" s="28">
+      <c r="R11" s="34">
+        <v>2</v>
+      </c>
+      <c r="S11" s="33">
         <v>43752.333333333336</v>
       </c>
-      <c r="T11" s="28">
+      <c r="T11" s="33">
         <v>43752.708333333336</v>
       </c>
     </row>
@@ -20325,7 +20320,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f>(0.5*$AA$3*$AE$4*(A12/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A12/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>51.05708077301194</v>
       </c>
       <c r="C12">
@@ -20340,33 +20335,33 @@
       <c r="I12" s="19">
         <v>1</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="36">
         <v>100</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="36">
         <v>50</v>
       </c>
       <c r="L12" s="22">
         <v>70</v>
       </c>
       <c r="M12" s="20">
-        <f>(K12-K11)*$AE$6*9.80665</f>
+        <f t="shared" ref="M12:M41" si="1">(K12-K11)*$AE$6*9.80665</f>
         <v>41678.262499999997</v>
       </c>
       <c r="N12" s="20">
-        <f>M12/(J12-J11)</f>
-        <v>416.782625</v>
+        <f>M12/(J12-J11)*L12/3600</f>
+        <v>8.1041065972222217</v>
       </c>
       <c r="O12" s="19">
         <v>1</v>
       </c>
-      <c r="R12" t="s">
-        <v>59</v>
-      </c>
-      <c r="S12" s="28">
+      <c r="R12" s="34">
+        <v>3</v>
+      </c>
+      <c r="S12" s="33">
         <v>43753.333333333336</v>
       </c>
-      <c r="T12" s="28">
+      <c r="T12" s="33">
         <v>43753.708333333336</v>
       </c>
     </row>
@@ -20375,7 +20370,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <f>(0.5*$AA$3*$AE$4*(A13/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A13/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>56.401773170998517</v>
       </c>
       <c r="C13">
@@ -20390,42 +20385,38 @@
       <c r="I13" s="19">
         <v>2</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="36">
         <v>200</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="36">
         <v>70</v>
       </c>
       <c r="L13" s="22">
         <v>60</v>
       </c>
       <c r="M13" s="20">
-        <f>(K13-K12)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>49033.25</v>
       </c>
       <c r="N13" s="20">
-        <f t="shared" ref="N13:N41" si="0">M13/(J13-J12)</f>
-        <v>490.33249999999998</v>
+        <f t="shared" ref="N13:N41" si="2">M13/(J13-J12)*L13/3600</f>
+        <v>8.172208333333332</v>
       </c>
       <c r="O13" s="19">
         <v>2</v>
       </c>
-      <c r="R13" t="s">
-        <v>60</v>
-      </c>
-      <c r="S13" s="28">
-        <v>43754.333333333336</v>
-      </c>
-      <c r="T13" s="28">
-        <v>43754.708333333336</v>
-      </c>
+      <c r="R13" s="34">
+        <v>4</v>
+      </c>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <f>(0.5*$AA$3*$AE$4*(A14/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A14/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>61.814746803466619</v>
       </c>
       <c r="C14">
@@ -20440,22 +20431,22 @@
       <c r="I14" s="19">
         <v>3</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="36">
         <v>322</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="22">
         <v>119</v>
       </c>
       <c r="L14" s="22">
         <v>65</v>
       </c>
       <c r="M14" s="20">
-        <f>(K14-K13)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>120131.46249999999</v>
       </c>
       <c r="N14" s="20">
-        <f t="shared" si="0"/>
-        <v>984.68411885245894</v>
+        <f t="shared" si="2"/>
+        <v>17.779018812613842</v>
       </c>
       <c r="O14" s="19">
         <v>3</v>
@@ -20466,8 +20457,8 @@
       <c r="Q14">
         <v>1</v>
       </c>
-      <c r="R14" t="s">
-        <v>61</v>
+      <c r="R14" s="34">
+        <v>5</v>
       </c>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
@@ -20477,7 +20468,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <f>(0.5*$AA$3*$AE$4*(A15/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A15/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>67.302209055369147</v>
       </c>
       <c r="C15">
@@ -20492,28 +20483,28 @@
       <c r="I15" s="19">
         <v>4</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="36">
         <v>400</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="36">
         <v>130</v>
       </c>
       <c r="L15" s="22">
         <v>70</v>
       </c>
       <c r="M15" s="20">
-        <f>(K15-K14)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>26968.287499999999</v>
       </c>
       <c r="N15" s="20">
-        <f t="shared" si="0"/>
-        <v>345.74727564102562</v>
+        <f t="shared" si="2"/>
+        <v>6.7228636930199421</v>
       </c>
       <c r="O15" s="19">
         <v>4</v>
       </c>
-      <c r="R15" t="s">
-        <v>62</v>
+      <c r="R15" s="34">
+        <v>6</v>
       </c>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
@@ -20523,7 +20514,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <f>(0.5*$AA$3*$AE$4*(A16/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A16/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>72.870367311658939</v>
       </c>
       <c r="C16">
@@ -20538,28 +20529,28 @@
       <c r="I16" s="19">
         <v>5</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="36">
         <v>500</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="36">
         <v>150</v>
       </c>
       <c r="L16" s="22">
         <v>70</v>
       </c>
       <c r="M16" s="20">
-        <f>(K16-K15)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>49033.25</v>
       </c>
       <c r="N16" s="20">
-        <f t="shared" si="0"/>
-        <v>490.33249999999998</v>
+        <f t="shared" si="2"/>
+        <v>9.5342430555555566</v>
       </c>
       <c r="O16" s="19">
         <v>5</v>
       </c>
-      <c r="R16" t="s">
-        <v>63</v>
+      <c r="R16" s="34">
+        <v>7</v>
       </c>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
@@ -20569,7 +20560,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <f>(0.5*$AA$3*$AE$4*(A17/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A17/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>78.525428957288881</v>
       </c>
       <c r="C17">
@@ -20584,22 +20575,22 @@
       <c r="I17" s="19">
         <v>6</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="36">
         <v>580</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="22">
         <v>210</v>
       </c>
       <c r="L17" s="22">
         <v>70</v>
       </c>
       <c r="M17" s="20">
-        <f>(K17-K16)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>147099.75</v>
       </c>
       <c r="N17" s="20">
-        <f t="shared" si="0"/>
-        <v>1838.746875</v>
+        <f t="shared" si="2"/>
+        <v>35.753411458333332</v>
       </c>
       <c r="O17" s="19">
         <v>6</v>
@@ -20616,7 +20607,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <f>(0.5*$AA$3*$AE$4*(A18/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A18/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>84.273601377211804</v>
       </c>
       <c r="C18">
@@ -20631,22 +20622,22 @@
       <c r="I18" s="19">
         <v>7</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="36">
         <v>700</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="36">
         <v>230</v>
       </c>
       <c r="L18" s="22">
         <v>70</v>
       </c>
       <c r="M18" s="20">
-        <f>(K18-K17)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>49033.25</v>
       </c>
       <c r="N18" s="20">
-        <f t="shared" si="0"/>
-        <v>408.61041666666665</v>
+        <f t="shared" si="2"/>
+        <v>7.9452025462962954</v>
       </c>
       <c r="O18" s="19">
         <v>7</v>
@@ -20657,7 +20648,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <f>(0.5*$AA$3*$AE$4*(A19/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A19/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>90.12109195638061</v>
       </c>
       <c r="C19">
@@ -20672,22 +20663,22 @@
       <c r="I19" s="19">
         <v>8</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="36">
         <v>800</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="36">
         <v>270</v>
       </c>
       <c r="L19" s="22">
         <v>70</v>
       </c>
       <c r="M19" s="20">
-        <f>(K19-K18)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>98066.5</v>
       </c>
       <c r="N19" s="20">
-        <f t="shared" si="0"/>
-        <v>980.66499999999996</v>
+        <f t="shared" si="2"/>
+        <v>19.068486111111113</v>
       </c>
       <c r="O19" s="19">
         <v>8</v>
@@ -20698,7 +20689,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <f>(0.5*$AA$3*$AE$4*(A20/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A20/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>96.074108079748143</v>
       </c>
       <c r="C20">
@@ -20713,22 +20704,22 @@
       <c r="I20" s="19">
         <v>9</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="36">
         <v>900</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="36">
         <v>330</v>
       </c>
       <c r="L20" s="22">
         <v>70</v>
       </c>
       <c r="M20" s="20">
-        <f>(K20-K19)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>147099.75</v>
       </c>
       <c r="N20" s="20">
-        <f t="shared" si="0"/>
-        <v>1470.9974999999999</v>
+        <f t="shared" si="2"/>
+        <v>28.602729166666666</v>
       </c>
       <c r="O20" s="19">
         <v>9</v>
@@ -20739,7 +20730,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <f>(0.5*$AA$3*$AE$4*(A21/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A21/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>102.13885713226732</v>
       </c>
       <c r="C21">
@@ -20754,22 +20745,22 @@
       <c r="I21" s="19">
         <v>10</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="36">
         <v>988</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="22">
         <v>365</v>
       </c>
       <c r="L21" s="22">
         <v>70</v>
       </c>
       <c r="M21" s="20">
-        <f>(K21-K20)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>85808.1875</v>
       </c>
       <c r="N21" s="20">
-        <f t="shared" si="0"/>
-        <v>975.09303977272725</v>
+        <f t="shared" si="2"/>
+        <v>18.960142440025255</v>
       </c>
       <c r="O21" s="19">
         <v>10</v>
@@ -20786,7 +20777,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <f>(0.5*$AA$3*$AE$4*(A22/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A22/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>108.32154649889094</v>
       </c>
       <c r="C22">
@@ -20801,22 +20792,22 @@
       <c r="I22" s="19">
         <v>11</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="36">
         <v>1100</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="36">
         <v>440</v>
       </c>
       <c r="L22" s="22">
         <v>70</v>
       </c>
       <c r="M22" s="20">
-        <f>(K22-K21)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>183874.6875</v>
       </c>
       <c r="N22" s="20">
-        <f t="shared" si="0"/>
-        <v>1641.73828125</v>
+        <f t="shared" si="2"/>
+        <v>31.922688802083332</v>
       </c>
       <c r="O22" s="19">
         <v>11</v>
@@ -20827,7 +20818,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <f>(0.5*$AA$3*$AE$4*(A23/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A23/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>114.62838356457189</v>
       </c>
       <c r="C23">
@@ -20842,22 +20833,22 @@
       <c r="I23" s="19">
         <v>12</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="36">
         <v>1211</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="22">
         <v>516</v>
       </c>
       <c r="L23" s="22">
         <v>70</v>
       </c>
       <c r="M23" s="20">
-        <f>(K23-K22)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>186326.34999999998</v>
       </c>
       <c r="N23" s="20">
-        <f t="shared" si="0"/>
-        <v>1678.6157657657654</v>
+        <f t="shared" si="2"/>
+        <v>32.639751001000995</v>
       </c>
       <c r="O23" s="19">
         <v>12</v>
@@ -20874,7 +20865,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <f>(0.5*$AA$3*$AE$4*(A24/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A24/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>121.06557571426306</v>
       </c>
       <c r="C24">
@@ -20889,22 +20880,22 @@
       <c r="I24" s="19">
         <v>13</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="36">
         <v>1300</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="36">
         <v>550</v>
       </c>
       <c r="L24" s="22">
         <v>70</v>
       </c>
       <c r="M24" s="20">
-        <f>(K24-K23)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>83356.524999999994</v>
       </c>
       <c r="N24" s="20">
-        <f t="shared" si="0"/>
-        <v>936.59016853932576</v>
+        <f t="shared" si="2"/>
+        <v>18.21147549937578</v>
       </c>
       <c r="O24" s="19">
         <v>13</v>
@@ -20915,7 +20906,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <f>(0.5*$AA$3*$AE$4*(A25/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A25/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>127.63933033291732</v>
       </c>
       <c r="C25">
@@ -20930,22 +20921,22 @@
       <c r="I25" s="19">
         <v>14</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="36">
         <v>1400</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="36">
         <v>560</v>
       </c>
       <c r="L25" s="22">
         <v>70</v>
       </c>
       <c r="M25" s="20">
-        <f>(K25-K24)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>24516.625</v>
       </c>
       <c r="N25" s="20">
-        <f t="shared" si="0"/>
-        <v>245.16624999999999</v>
+        <f t="shared" si="2"/>
+        <v>4.7671215277777783</v>
       </c>
       <c r="O25" s="19">
         <v>14</v>
@@ -20956,7 +20947,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <f>(0.5*$AA$3*$AE$4*(A26/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A26/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>134.35585480548752</v>
       </c>
       <c r="C26">
@@ -20971,22 +20962,22 @@
       <c r="I26" s="19">
         <v>15</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="36">
         <v>1496</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="22">
         <v>576</v>
       </c>
       <c r="L26" s="22">
         <v>70</v>
       </c>
       <c r="M26" s="20">
-        <f>(K26-K25)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>39226.6</v>
       </c>
       <c r="N26" s="20">
-        <f t="shared" si="0"/>
-        <v>408.61041666666665</v>
+        <f t="shared" si="2"/>
+        <v>7.9452025462962954</v>
       </c>
       <c r="O26" s="19">
         <v>15</v>
@@ -21003,7 +20994,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <f>(0.5*$AA$3*$AE$4*(A27/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A27/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>141.22135651692653</v>
       </c>
       <c r="C27">
@@ -21018,22 +21009,22 @@
       <c r="I27" s="19">
         <v>16</v>
       </c>
-      <c r="J27" s="24">
+      <c r="J27" s="36">
         <v>1600</v>
       </c>
-      <c r="K27" s="24">
+      <c r="K27" s="36">
         <v>560</v>
       </c>
       <c r="L27" s="22">
         <v>70</v>
       </c>
       <c r="M27" s="20">
-        <f>(K27-K26)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>-39226.6</v>
       </c>
       <c r="N27" s="20">
-        <f t="shared" si="0"/>
-        <v>-377.17884615384617</v>
+        <f t="shared" si="2"/>
+        <v>-7.3340331196581197</v>
       </c>
       <c r="O27" s="19">
         <v>16</v>
@@ -21044,7 +21035,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <f>(0.5*$AA$3*$AE$4*(A28/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A28/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>148.24204285218721</v>
       </c>
       <c r="C28">
@@ -21059,22 +21050,22 @@
       <c r="I28" s="19">
         <v>17</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="36">
         <v>1700</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="36">
         <v>500</v>
       </c>
       <c r="L28" s="22">
         <v>70</v>
       </c>
       <c r="M28" s="20">
-        <f>(K28-K27)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>-147099.75</v>
       </c>
       <c r="N28" s="20">
-        <f t="shared" si="0"/>
-        <v>-1470.9974999999999</v>
+        <f t="shared" si="2"/>
+        <v>-28.602729166666666</v>
       </c>
       <c r="O28" s="19">
         <v>17</v>
@@ -21085,7 +21076,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <f>(0.5*$AA$3*$AE$4*(A29/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A29/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>155.42412119622242</v>
       </c>
       <c r="C29">
@@ -21100,22 +21091,22 @@
       <c r="I29" s="19">
         <v>18</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="36">
         <v>1756</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="22">
         <v>503</v>
       </c>
       <c r="L29" s="22">
         <v>70</v>
       </c>
       <c r="M29" s="20">
-        <f>(K29-K28)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>7354.9874999999993</v>
       </c>
       <c r="N29" s="20">
-        <f t="shared" si="0"/>
-        <v>131.33906249999998</v>
+        <f t="shared" si="2"/>
+        <v>2.5538151041666661</v>
       </c>
       <c r="O29" s="19">
         <v>18</v>
@@ -21132,7 +21123,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <f>(0.5*$AA$3*$AE$4*(A30/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A30/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>162.77379893398509</v>
       </c>
       <c r="C30">
@@ -21147,22 +21138,22 @@
       <c r="I30" s="19">
         <v>19</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="36">
         <v>1900</v>
       </c>
-      <c r="K30" s="24">
+      <c r="K30" s="36">
         <v>470</v>
       </c>
       <c r="L30" s="22">
         <v>70</v>
       </c>
       <c r="M30" s="20">
-        <f>(K30-K29)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>-80904.862499999988</v>
       </c>
       <c r="N30" s="20">
-        <f t="shared" si="0"/>
-        <v>-561.83932291666656</v>
+        <f t="shared" si="2"/>
+        <v>-10.924653501157405</v>
       </c>
       <c r="O30" s="19">
         <v>19</v>
@@ -21173,7 +21164,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <f>(0.5*$AA$3*$AE$4*(A31/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A31/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>170.29728345042798</v>
       </c>
       <c r="C31">
@@ -21188,22 +21179,22 @@
       <c r="I31" s="19">
         <v>20</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="36">
         <v>2000</v>
       </c>
-      <c r="K31" s="24">
+      <c r="K31" s="36">
         <v>440</v>
       </c>
       <c r="L31" s="22">
         <v>70</v>
       </c>
       <c r="M31" s="20">
-        <f>(K31-K30)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>-73549.875</v>
       </c>
       <c r="N31" s="20">
-        <f t="shared" si="0"/>
-        <v>-735.49874999999997</v>
+        <f t="shared" si="2"/>
+        <v>-14.301364583333333</v>
       </c>
       <c r="O31" s="19">
         <v>20</v>
@@ -21214,7 +21205,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <f>(0.5*$AA$3*$AE$4*(A32/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A32/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>178.00078213050409</v>
       </c>
       <c r="C32">
@@ -21229,22 +21220,22 @@
       <c r="I32" s="19">
         <v>21</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J32" s="36">
         <v>2100</v>
       </c>
-      <c r="K32" s="24">
+      <c r="K32" s="36">
         <v>300</v>
       </c>
       <c r="L32" s="22">
         <v>70</v>
       </c>
       <c r="M32" s="20">
-        <f>(K32-K31)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>-343232.75</v>
       </c>
       <c r="N32" s="20">
-        <f t="shared" si="0"/>
-        <v>-3432.3274999999999</v>
+        <f t="shared" si="2"/>
+        <v>-66.739701388888889</v>
       </c>
       <c r="O32" s="19">
         <v>21</v>
@@ -21255,7 +21246,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <f>(0.5*$AA$3*$AE$4*(A33/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A33/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="0"/>
         <v>185.89050235916611</v>
       </c>
       <c r="C33">
@@ -21264,22 +21255,22 @@
       <c r="I33" s="19">
         <v>22</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33" s="36">
         <v>2178</v>
       </c>
-      <c r="K33" s="20">
+      <c r="K33" s="22">
         <v>222</v>
       </c>
       <c r="L33" s="22">
         <v>70</v>
       </c>
       <c r="M33" s="20">
-        <f>(K33-K32)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>-191229.67499999999</v>
       </c>
       <c r="N33" s="20">
-        <f t="shared" si="0"/>
-        <v>-2451.6624999999999</v>
+        <f t="shared" si="2"/>
+        <v>-47.671215277777776</v>
       </c>
       <c r="O33" s="19">
         <v>22</v>
@@ -21296,7 +21287,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <f>(0.5*$AA$3*$AE$4*(A34/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A34/3.6)*(1/$AE$8)</f>
+        <f t="shared" ref="B34:B65" si="3">(0.5*$AA$3*$AE$4*(A34/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A34/3.6)*(1/$AE$8)</f>
         <v>193.97265152136708</v>
       </c>
       <c r="C34">
@@ -21305,22 +21296,22 @@
       <c r="I34" s="19">
         <v>23</v>
       </c>
-      <c r="J34" s="24">
+      <c r="J34" s="36">
         <v>2300</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K34" s="22">
         <v>180</v>
       </c>
       <c r="L34" s="22">
         <v>70</v>
       </c>
       <c r="M34" s="20">
-        <f>(K34-K33)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>-102969.825</v>
       </c>
       <c r="N34" s="20">
-        <f t="shared" si="0"/>
-        <v>-844.01495901639339</v>
+        <f t="shared" si="2"/>
+        <v>-16.411401980874317</v>
       </c>
       <c r="O34" s="19">
         <v>23</v>
@@ -21331,7 +21322,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <f>(0.5*$AA$3*$AE$4*(A35/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A35/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>202.25343700205974</v>
       </c>
       <c r="C35">
@@ -21340,22 +21331,22 @@
       <c r="I35" s="19">
         <v>24</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="36">
         <v>2432</v>
       </c>
-      <c r="K35" s="20">
+      <c r="K35" s="22">
         <v>138</v>
       </c>
       <c r="L35" s="22">
         <v>70</v>
       </c>
       <c r="M35" s="20">
-        <f>(K35-K34)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>-102969.825</v>
       </c>
       <c r="N35" s="20">
-        <f t="shared" si="0"/>
-        <v>-780.07443181818178</v>
+        <f t="shared" si="2"/>
+        <v>-15.168113952020203</v>
       </c>
       <c r="O35" s="19">
         <v>24</v>
@@ -21372,7 +21363,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <f>(0.5*$AA$3*$AE$4*(A36/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A36/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>210.73906618619708</v>
       </c>
       <c r="C36">
@@ -21381,22 +21372,22 @@
       <c r="I36" s="19">
         <v>25</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J36" s="36">
         <v>2500</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="22">
         <v>100</v>
       </c>
       <c r="L36" s="22">
         <v>70</v>
       </c>
       <c r="M36" s="20">
-        <f>(K36-K35)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>-93163.174999999988</v>
       </c>
       <c r="N36" s="20">
-        <f t="shared" si="0"/>
-        <v>-1370.0466911764704</v>
+        <f t="shared" si="2"/>
+        <v>-26.639796772875812</v>
       </c>
       <c r="O36" s="19">
         <v>25</v>
@@ -21407,7 +21398,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <f>(0.5*$AA$3*$AE$4*(A37/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A37/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>219.43574645873184</v>
       </c>
       <c r="C37">
@@ -21416,22 +21407,22 @@
       <c r="I37" s="19">
         <v>26</v>
       </c>
-      <c r="J37" s="24">
+      <c r="J37" s="36">
         <v>2600</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K37" s="22">
         <v>50</v>
       </c>
       <c r="L37" s="22">
         <v>70</v>
       </c>
       <c r="M37" s="20">
-        <f>(K37-K36)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>-122583.125</v>
       </c>
       <c r="N37" s="20">
-        <f t="shared" si="0"/>
-        <v>-1225.83125</v>
+        <f t="shared" si="2"/>
+        <v>-23.835607638888888</v>
       </c>
       <c r="O37" s="19">
         <v>26</v>
@@ -21442,7 +21433,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <f>(0.5*$AA$3*$AE$4*(A38/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A38/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>228.349685204617</v>
       </c>
       <c r="C38">
@@ -21451,22 +21442,22 @@
       <c r="I38" s="19">
         <v>27</v>
       </c>
-      <c r="J38" s="21">
+      <c r="J38" s="36">
         <v>2719</v>
       </c>
-      <c r="K38" s="20">
+      <c r="K38" s="22">
         <v>12</v>
       </c>
       <c r="L38" s="22">
         <v>70</v>
       </c>
       <c r="M38" s="20">
-        <f>(K38-K37)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>-93163.174999999988</v>
       </c>
       <c r="N38" s="20">
-        <f t="shared" si="0"/>
-        <v>-782.88382352941164</v>
+        <f t="shared" si="2"/>
+        <v>-15.222741013071895</v>
       </c>
       <c r="O38" s="19">
         <v>27</v>
@@ -21483,7 +21474,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <f>(0.5*$AA$3*$AE$4*(A39/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A39/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>237.48708980880528</v>
       </c>
       <c r="C39">
@@ -21492,22 +21483,22 @@
       <c r="I39" s="19">
         <v>28</v>
       </c>
-      <c r="J39" s="24">
+      <c r="J39" s="36">
         <v>2800</v>
       </c>
-      <c r="K39" s="20">
+      <c r="K39" s="22">
         <v>50</v>
       </c>
       <c r="L39" s="22">
         <v>70</v>
       </c>
       <c r="M39" s="20">
-        <f>(K39-K38)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>93163.174999999988</v>
       </c>
       <c r="N39" s="20">
-        <f t="shared" si="0"/>
-        <v>1150.1626543209875</v>
+        <f t="shared" si="2"/>
+        <v>22.364273834019201</v>
       </c>
       <c r="O39" s="19">
         <v>28</v>
@@ -21518,7 +21509,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <f>(0.5*$AA$3*$AE$4*(A40/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A40/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>246.85416765624976</v>
       </c>
       <c r="C40">
@@ -21527,22 +21518,22 @@
       <c r="I40" s="19">
         <v>29</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="36">
         <v>2900</v>
       </c>
-      <c r="K40" s="20">
+      <c r="K40" s="22">
         <v>30</v>
       </c>
       <c r="L40" s="22">
         <v>70</v>
       </c>
       <c r="M40" s="20">
-        <f>(K40-K39)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>-49033.25</v>
       </c>
       <c r="N40" s="20">
-        <f t="shared" si="0"/>
-        <v>-490.33249999999998</v>
+        <f t="shared" si="2"/>
+        <v>-9.5342430555555566</v>
       </c>
       <c r="O40" s="19">
         <v>29</v>
@@ -21553,7 +21544,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <f>(0.5*$AA$3*$AE$4*(A41/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A41/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>256.45712613190318</v>
       </c>
       <c r="C41">
@@ -21562,22 +21553,22 @@
       <c r="I41" s="19">
         <v>30</v>
       </c>
-      <c r="J41" s="21">
+      <c r="J41" s="36">
         <v>3022</v>
       </c>
-      <c r="K41" s="20">
+      <c r="K41" s="22">
         <v>10</v>
       </c>
       <c r="L41" s="22">
         <v>70</v>
       </c>
       <c r="M41" s="20">
-        <f>(K41-K40)*$AE$6*9.80665</f>
+        <f t="shared" si="1"/>
         <v>-49033.25</v>
       </c>
       <c r="N41" s="20">
-        <f t="shared" si="0"/>
-        <v>-401.91188524590166</v>
+        <f t="shared" si="2"/>
+        <v>-7.8149533242258649</v>
       </c>
       <c r="O41" s="19">
         <v>30</v>
@@ -21588,7 +21579,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <f>(0.5*$AA$3*$AE$4*(A42/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A42/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>266.3021726207183</v>
       </c>
       <c r="C42">
@@ -21603,7 +21594,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <f>(0.5*$AA$3*$AE$4*(A43/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A43/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>276.39551450764822</v>
       </c>
       <c r="C43">
@@ -21618,7 +21609,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <f>(0.5*$AA$3*$AE$4*(A44/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A44/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>286.74335917764563</v>
       </c>
       <c r="C44">
@@ -21633,7 +21624,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <f>(0.5*$AA$3*$AE$4*(A45/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A45/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>297.35191401566345</v>
       </c>
       <c r="C45">
@@ -21645,7 +21636,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <f>(0.5*$AA$3*$AE$4*(A46/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A46/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>308.22738640665455</v>
       </c>
       <c r="C46">
@@ -21657,7 +21648,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <f>(0.5*$AA$3*$AE$4*(A47/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A47/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>319.37598373557188</v>
       </c>
       <c r="C47">
@@ -21669,7 +21660,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <f>(0.5*$AA$3*$AE$4*(A48/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A48/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>330.80391338736814</v>
       </c>
       <c r="C48">
@@ -21681,7 +21672,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <f>(0.5*$AA$3*$AE$4*(A49/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A49/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>342.51738274699636</v>
       </c>
       <c r="C49">
@@ -21693,7 +21684,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <f>(0.5*$AA$3*$AE$4*(A50/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A50/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>354.52259919940917</v>
       </c>
       <c r="C50">
@@ -21705,7 +21696,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <f>(0.5*$AA$3*$AE$4*(A51/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A51/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>366.82577012955977</v>
       </c>
       <c r="C51">
@@ -21717,7 +21708,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <f>(0.5*$AA$3*$AE$4*(A52/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A52/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>379.43310292240085</v>
       </c>
       <c r="C52">
@@ -21729,7 +21720,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <f>(0.5*$AA$3*$AE$4*(A53/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A53/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>392.35080496288521</v>
       </c>
       <c r="C53">
@@ -21741,7 +21732,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <f>(0.5*$AA$3*$AE$4*(A54/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A54/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>405.58508363596587</v>
       </c>
       <c r="C54">
@@ -21753,7 +21744,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <f>(0.5*$AA$3*$AE$4*(A55/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A55/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>419.14214632659548</v>
       </c>
       <c r="C55">
@@ -21765,7 +21756,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <f>(0.5*$AA$3*$AE$4*(A56/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A56/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>433.02820041972717</v>
       </c>
       <c r="C56">
@@ -21777,7 +21768,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <f>(0.5*$AA$3*$AE$4*(A57/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A57/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>447.24945330031352</v>
       </c>
       <c r="C57">
@@ -21789,7 +21780,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <f>(0.5*$AA$3*$AE$4*(A58/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A58/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>461.81211235330773</v>
       </c>
       <c r="C58">
@@ -21801,7 +21792,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <f>(0.5*$AA$3*$AE$4*(A59/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A59/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>476.72238496366242</v>
       </c>
       <c r="C59">
@@ -21813,7 +21804,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <f>(0.5*$AA$3*$AE$4*(A60/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A60/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>491.98647851633069</v>
       </c>
       <c r="C60">
@@ -21825,7 +21816,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <f>(0.5*$AA$3*$AE$4*(A61/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A61/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>507.610600396265</v>
       </c>
       <c r="C61">
@@ -21837,7 +21828,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <f>(0.5*$AA$3*$AE$4*(A62/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A62/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>523.6009579884186</v>
       </c>
       <c r="C62">
@@ -21849,7 +21840,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <f>(0.5*$AA$3*$AE$4*(A63/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A63/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>539.96375867774407</v>
       </c>
       <c r="C63">
@@ -21861,7 +21852,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <f>(0.5*$AA$3*$AE$4*(A64/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A64/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>556.70520984919472</v>
       </c>
       <c r="C64">
@@ -21873,7 +21864,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <f>(0.5*$AA$3*$AE$4*(A65/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A65/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="3"/>
         <v>573.83151888772295</v>
       </c>
       <c r="C65">
@@ -21885,7 +21876,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <f>(0.5*$AA$3*$AE$4*(A66/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A66/3.6)*(1/$AE$8)</f>
+        <f t="shared" ref="B66:B97" si="4">(0.5*$AA$3*$AE$4*(A66/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A66/3.6)*(1/$AE$8)</f>
         <v>591.34889317828186</v>
       </c>
       <c r="C66">
@@ -21897,7 +21888,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <f>(0.5*$AA$3*$AE$4*(A67/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A67/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>609.26354010582406</v>
       </c>
       <c r="C67">
@@ -21909,7 +21900,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <f>(0.5*$AA$3*$AE$4*(A68/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A68/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>627.58166705530289</v>
       </c>
       <c r="C68">
@@ -21921,7 +21912,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <f>(0.5*$AA$3*$AE$4*(A69/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A69/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>646.30948141167084</v>
       </c>
       <c r="C69">
@@ -21933,7 +21924,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <f>(0.5*$AA$3*$AE$4*(A70/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A70/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>665.45319055988102</v>
       </c>
       <c r="C70">
@@ -21945,7 +21936,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <f>(0.5*$AA$3*$AE$4*(A71/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A71/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>685.01900188488617</v>
       </c>
       <c r="C71">
@@ -21957,7 +21948,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <f>(0.5*$AA$3*$AE$4*(A72/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A72/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>705.01312277163879</v>
       </c>
       <c r="C72">
@@ -21969,7 +21960,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <f>(0.5*$AA$3*$AE$4*(A73/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A73/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>725.44176060509221</v>
       </c>
       <c r="C73">
@@ -21981,7 +21972,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <f>(0.5*$AA$3*$AE$4*(A74/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A74/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>746.31112277019929</v>
       </c>
       <c r="C74">
@@ -21993,7 +21984,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <f>(0.5*$AA$3*$AE$4*(A75/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A75/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>767.62741665191288</v>
       </c>
       <c r="C75">
@@ -22005,7 +21996,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <f>(0.5*$AA$3*$AE$4*(A76/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A76/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>789.39684963518562</v>
       </c>
       <c r="C76">
@@ -22017,7 +22008,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <f>(0.5*$AA$3*$AE$4*(A77/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A77/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>811.6256291049707</v>
       </c>
       <c r="C77">
@@ -22029,7 +22020,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <f>(0.5*$AA$3*$AE$4*(A78/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A78/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>834.31996244622042</v>
       </c>
       <c r="C78">
@@ -22041,7 +22032,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <f>(0.5*$AA$3*$AE$4*(A79/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A79/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>857.48605704388854</v>
       </c>
       <c r="C79">
@@ -22053,7 +22044,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <f>(0.5*$AA$3*$AE$4*(A80/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A80/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>881.13012028292735</v>
       </c>
       <c r="C80">
@@ -22065,7 +22056,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <f>(0.5*$AA$3*$AE$4*(A81/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A81/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>905.25835954828938</v>
       </c>
       <c r="C81">
@@ -22077,7 +22068,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <f>(0.5*$AA$3*$AE$4*(A82/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A82/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>929.87698222492816</v>
       </c>
       <c r="C82">
@@ -22089,7 +22080,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <f>(0.5*$AA$3*$AE$4*(A83/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A83/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>954.99219569779643</v>
       </c>
       <c r="C83">
@@ -22101,7 +22092,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <f>(0.5*$AA$3*$AE$4*(A84/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A84/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>980.61020735184684</v>
       </c>
       <c r="C84">
@@ -22113,7 +22104,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <f>(0.5*$AA$3*$AE$4*(A85/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A85/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>1006.7372245720319</v>
       </c>
       <c r="C85">
@@ -22125,7 +22116,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <f>(0.5*$AA$3*$AE$4*(A86/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A86/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>1033.3794547433056</v>
       </c>
       <c r="C86">
@@ -22137,7 +22128,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <f>(0.5*$AA$3*$AE$4*(A87/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A87/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>1060.5431052506201</v>
       </c>
       <c r="C87">
@@ -22149,7 +22140,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <f>(0.5*$AA$3*$AE$4*(A88/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A88/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>1088.2343834789278</v>
       </c>
       <c r="C88">
@@ -22161,7 +22152,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <f>(0.5*$AA$3*$AE$4*(A89/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A89/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>1116.4594968131821</v>
       </c>
       <c r="C89">
@@ -22173,7 +22164,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <f>(0.5*$AA$3*$AE$4*(A90/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A90/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>1145.2246526383365</v>
       </c>
       <c r="C90">
@@ -22185,7 +22176,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <f>(0.5*$AA$3*$AE$4*(A91/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A91/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>1174.5360583393426</v>
       </c>
       <c r="C91">
@@ -22197,7 +22188,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <f>(0.5*$AA$3*$AE$4*(A92/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A92/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>1204.3999213011543</v>
       </c>
       <c r="C92">
@@ -22209,7 +22200,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <f>(0.5*$AA$3*$AE$4*(A93/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A93/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>1234.8224489087238</v>
       </c>
       <c r="C93">
@@ -22221,7 +22212,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <f>(0.5*$AA$3*$AE$4*(A94/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A94/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>1265.8098485470039</v>
       </c>
       <c r="C94">
@@ -22233,7 +22224,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <f>(0.5*$AA$3*$AE$4*(A95/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A95/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>1297.3683276009483</v>
       </c>
       <c r="C95">
@@ -22245,7 +22236,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <f>(0.5*$AA$3*$AE$4*(A96/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A96/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>1329.5040934555088</v>
       </c>
       <c r="C96">
@@ -22257,7 +22248,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <f>(0.5*$AA$3*$AE$4*(A97/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A97/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="4"/>
         <v>1362.2233534956392</v>
       </c>
       <c r="C97">
@@ -22269,7 +22260,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <f>(0.5*$AA$3*$AE$4*(A98/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A98/3.6)*(1/$AE$8)</f>
+        <f t="shared" ref="B98:B129" si="5">(0.5*$AA$3*$AE$4*(A98/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A98/3.6)*(1/$AE$8)</f>
         <v>1395.5323151062917</v>
       </c>
       <c r="C98">
@@ -22281,7 +22272,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <f>(0.5*$AA$3*$AE$4*(A99/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A99/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="5"/>
         <v>1429.4371856724197</v>
       </c>
       <c r="C99">
@@ -22293,7 +22284,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <f>(0.5*$AA$3*$AE$4*(A100/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A100/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="5"/>
         <v>1463.9441725789759</v>
       </c>
       <c r="C100">
@@ -22305,7 +22296,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <f>(0.5*$AA$3*$AE$4*(A101/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A101/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="5"/>
         <v>1499.059483210913</v>
       </c>
       <c r="C101">
@@ -22317,7 +22308,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <f>(0.5*$AA$3*$AE$4*(A102/3.6)^2+$AE$5*$AE$6*$AA$7+$AE$5*$AE$6*SIN($AB$10))*(A102/3.6)*(1/$AE$8)</f>
+        <f t="shared" si="5"/>
         <v>1534.7893249531837</v>
       </c>
       <c r="C102">
